--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7963BC77-EE51-447F-B172-2AF9A11058DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t>case_id</t>
   </si>
@@ -53,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expcted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常登陆，无用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码长度必须为6~18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"mobilephone": "15777777777", "pwd": "123", "regname": "luckytest"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,14 +187,166 @@
   </si>
   <si>
     <t>{"mobilephone": "", "pwd": "123456", "regname": "luckytest"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉，请先登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666666", "amount": 123}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666666", "amount": 5100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"806838.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"充值成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666666", "amount": 510000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666666", "amount": "123asd"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入金额的金额小数不能超过两位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666666", "amount": 99.999}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666666", "amount": None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机格式不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "156666", "amount": 99.99}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此手机号对应的会员不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "15999999999", "amount": 99.99}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": None, "amount": None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码长度必须为6~18（长度小于6位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码长度必须为6~18（长度大于18位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "pwd": "1234567890123456789", "regname": "luckytest"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入范围在0到50万之间的正数金额（510000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入范围在 0 到 50 万之间的正数金额（-1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666666", "amount": -1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入数字（数字加字母）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入数字（特殊符号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666666", "amount": "！@#￥%"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +404,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -541,25 +699,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -585,161 +743,182 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{A9F9FBED-0810-44FD-8FA8-9CD78003EDAB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="A9:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.75" bestFit="1" customWidth="1"/>
@@ -748,7 +927,7 @@
     <col min="6" max="6" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -774,181 +953,167 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="249.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +1130,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -974,170 +1139,279 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BAE69400-C604-4FBE-9136-9F45A2BA9630}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{DE51EE92-0476-4701-BB0C-773758C5C56F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{60DF545B-949F-4074-8966-E3071BD00C7A}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{8DF56FAC-343A-4C4D-B26C-985A9B2A6F8B}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{AEA11DC8-A0F6-4CFD-8D20-A289FE616DD9}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{2160B1DA-5BA5-457F-A184-CE972C693361}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{F9AA589A-9A6D-462C-9B90-06C378B8C5EF}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{0CEF008B-C9A2-4C69-A766-373022F8D095}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{F3ADD673-D1F5-4D71-BD24-3446C4B2EBA3}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{08BE7ED2-4331-4D64-86E4-D9C78D5ADA78}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{FCE4146C-334C-4114-9619-822BBACBA42E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1145,14 +1419,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841C8C2-C9D0-491A-B98D-CE6CD3C4391B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -21,12 +27,12 @@
     <sheet name="getInvestsByLoanId" sheetId="12" r:id="rId12"/>
     <sheet name="getFinanceLogList" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="72">
   <si>
     <t>case_id</t>
   </si>
@@ -52,9 +58,6 @@
     <t>result</t>
   </si>
   <si>
-    <t>正常登陆，无用户名</t>
-  </si>
-  <si>
     <t>手机号码已被注册</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>服务器异常（设置等待时间超时）</t>
   </si>
   <si>
     <t>正常登陆（get）</t>
@@ -253,8 +253,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +317,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -604,25 +612,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="G2:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="39.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,152 +657,147 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="27">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27">
+        <v>15</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27">
+        <v>18</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5">
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27">
+        <v>23</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G7"/>
+      <c r="H7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -801,12 +805,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -814,12 +818,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -827,12 +831,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -840,12 +844,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -853,14 +857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H8" sqref="G2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -871,7 +875,7 @@
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,135 +901,141 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1033,26 +1043,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,249 +1088,249 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="54">
+    </row>
+    <row r="3" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27">
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27">
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27">
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27">
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27">
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27">
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1328,14 +1338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
@@ -1347,7 +1357,7 @@
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,254 +1383,254 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" customHeight="1">
+    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="81">
+    </row>
+    <row r="3" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="54">
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="54">
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54">
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54">
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54">
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="54">
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1628,12 +1638,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1641,12 +1651,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1654,12 +1664,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1667,12 +1677,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841C8C2-C9D0-491A-B98D-CE6CD3C4391B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
     <sheet name="getInvestsByLoanId" sheetId="12" r:id="rId12"/>
     <sheet name="getFinanceLogList" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -253,8 +247,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,14 +311,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -612,14 +598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="G2:H10"/>
+      <selection activeCell="H3" sqref="G2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
@@ -631,7 +617,7 @@
     <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -679,7 +665,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -698,10 +684,8 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -720,10 +704,8 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" ht="40.5" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -742,10 +724,8 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -764,10 +744,8 @@
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -786,18 +764,16 @@
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -805,12 +781,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -818,12 +794,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -831,12 +807,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -844,12 +820,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -857,14 +833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="G2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -875,7 +851,7 @@
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -922,7 +898,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -943,7 +919,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -964,7 +940,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -985,7 +961,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1006,7 +982,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1030,12 +1006,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1043,14 +1019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -1062,7 +1038,7 @@
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1108,7 +1084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="67.5" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1128,7 +1104,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1148,7 +1124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1168,7 +1144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1188,7 +1164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1208,7 +1184,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="27" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1228,7 +1204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="27" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1248,7 +1224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="27" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1268,7 +1244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="27" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1288,7 +1264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="27" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1308,29 +1284,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="C15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1338,14 +1314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
@@ -1357,7 +1333,7 @@
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="60" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1403,7 +1379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="81" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1423,7 +1399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1443,7 +1419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1463,7 +1439,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1483,7 +1459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1503,7 +1479,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="27" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1523,7 +1499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="27" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1543,7 +1519,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="27" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1563,7 +1539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="27" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1583,7 +1559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="27" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1606,31 +1582,31 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,12 +1614,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1651,12 +1627,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1664,12 +1640,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1677,12 +1653,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC01274-3D5B-4866-BB12-BAADB5DDFCC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -27,12 +21,12 @@
     <sheet name="getInvestsByLoanId" sheetId="12" r:id="rId12"/>
     <sheet name="getFinanceLogList" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="127">
   <si>
     <t>case_id</t>
   </si>
@@ -62,9 +56,6 @@
   </si>
   <si>
     <t>/member/register</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "pwd": "123456", "regname": "luckytest"}</t>
   </si>
   <si>
     <t>post</t>
@@ -400,17 +391,45 @@
   </si>
   <si>
     <t>/member/bidLoan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常充值，充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "pwd": "123456", "regname": "luckytest"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "#@mobilephone", "pwd": "123456", "regname": "luckytest"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,14 +802,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
@@ -802,7 +821,7 @@
     <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,137 +847,157 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -968,12 +1007,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -981,12 +1020,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -994,12 +1033,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1007,12 +1046,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1020,14 +1059,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="G2:H8"/>
+      <selection activeCell="F2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -1038,7 +1077,7 @@
     <col min="7" max="7" width="36.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,129 +1103,129 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7"/>
     </row>
@@ -1198,14 +1237,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -1217,7 +1256,7 @@
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,234 +1282,254 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" ht="67.5" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1480,14 +1539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
@@ -1499,7 +1558,7 @@
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1525,224 +1584,224 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" ht="81">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1752,14 +1811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1767,14 +1826,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
@@ -1786,7 +1845,7 @@
     <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1812,404 +1871,404 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" ht="40.5" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" ht="40.5" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" ht="40.5" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:8" ht="40.5" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="67.5" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.5" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:8" ht="40.5" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="27" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" ht="40.5" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6" ht="40.5" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:6" ht="27" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:6" ht="40.5" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2220,12 +2279,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2233,12 +2292,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2246,12 +2305,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11250" windowWidth="24495" xWindow="390" yWindow="570"/>
+    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11250" windowWidth="24495" xWindow="390" yWindow="570"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="getFinanceLogList" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>case_id</t>
   </si>
@@ -181,7 +181,7 @@
     <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"123.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"10569.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>Failed</t>
@@ -202,7 +202,7 @@
     <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"806838.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"5223.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"15669.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>请输入范围在0到50万之间的正数金额（510000）</t>
@@ -277,7 +277,7 @@
     <t>{"mobilephone": "15666666668", "amount": 123}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114843,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666668","leaveamount":"184.00","type":"1","regtime":"2019-01-17 21:24:08.0"},"msg":"取现成功"}</t>
+    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
   </si>
   <si>
     <t>{"mobilephone": "15666666668", "pwd": "123456"}</t>
@@ -292,16 +292,10 @@
     <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"843102.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"取现成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114843,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666668","leaveamount":"133.00","type":"1","regtime":"2019-01-17 21:24:08.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
     <t>余额不足，请修改提现额度</t>
   </si>
   <si>
     <t>{"mobilephone": "15666666668", "amount": "500000"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
   </si>
   <si>
     <t>{"mobilephone": "15666666668", "amount": 510000}</t>
@@ -474,6 +468,305 @@
   </si>
   <si>
     <t>{"status":0,"code":"11009","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"memberId": 1114425, "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>加标成功</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
+  </si>
+  <si>
+    <t>参数错误：参数不能为空（电话号码为空）</t>
+  </si>
+  <si>
+    <t>{"memberId": "", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"所有参数不能为空"}</t>
+  </si>
+  <si>
+    <t>参数错误：参数不能为空（title为空）</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：参数不能为空（amount为空）</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": '', "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：参数不能为空（loanRate为空）</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": '', "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：参数不能为空（loanTerm为空）</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": '',
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：参数不能为空（loanDateType为空）</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": '', "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：参数不能为空（repaymemtWay为空）</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": '', "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：参数不能为空（biddingDays为空）</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": ''}</t>
+  </si>
+  <si>
+    <t>不存在该会员</t>
+  </si>
+  <si>
+    <t>{"memberId": "563434", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20105","data":null,"msg":"不存在该会员"}</t>
+  </si>
+  <si>
+    <t>参数错误：用户ID memberId 必须否正整数(memberId=-1)</t>
+  </si>
+  <si>
+    <t>{"memberId": "-1", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"参数错误：用户ID memberId必须是正整数"}</t>
+  </si>
+  <si>
+    <t>参数错误：用户ID memberId 必须否正整数(memberId=0)</t>
+  </si>
+  <si>
+    <t>{"memberId": "0", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20102","data":null,"msg":"nested exception is org.apache.ibatis.exceptions.TooManyResultsException: Expected one result (or null) to be returned by selectOne(), but found: 4281"}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(memberId=abc)</t>
+  </si>
+  <si>
+    <t>{"memberId": "abc", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(memberId=##$@%)</t>
+  </si>
+  <si>
+    <t>{"memberId": "###@$", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(amount=abc)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": "abc", "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(amount=#$@#%)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": "#$@#%", "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=-1)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": -1, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20106","data":null,"msg":"参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=0)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 0, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=1)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 1, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=10)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=99)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 99, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=101)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 101, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanRat=abc)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 'abc', "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanRat=###%%^)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": '###%%^', "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=-1)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": -1, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20107","data":null,"msg":"参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
+  </si>
+  <si>
+    <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=0)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=25)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 25, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>加标成功(loanRat=24)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=999)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 999,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20102","data":null,"msg":"\n### Error updating database.  Cause: com.mysql.jdbc.MysqlDataTruncation: Data truncation: Out of range value for column 'LoanTerm' at row 1\n### The error may involve com.lemon.futureloan.dao.LoanMapper.add-Inline\n### The error occurred while setting parameters\n### SQL: insert into loan   ( memberId      ,title      ,amount      ,loanRate       ,loanTerm      ,loanDateType      ,repaymemtWay      ,biddingDays      ,status   )  values   ( ?      ,?      ,?      ,?      ,?      ,?      ,?      ,biddingDays      ,?   )\n### Cause: com.mysql.jdbc.MysqlDataTruncation: Data truncation: Out of range value for column 'LoanTerm' at row 1\n; SQL []; Data truncation: Out of range value for column 'LoanTerm' at row 1; nested exception is com.mysql.jdbc.MysqlDataTruncation: Data truncation: Out of range value for column 'LoanTerm' at row 1"}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=dsf)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 'dsf',
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=￥@#%)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": '￥@#%',
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=@#%@#%)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": '@#%@#%', "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=abc)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 'abc', "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=-1)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": -1, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"参数错误：借款日期类型loanDateType只能为0,2,4"}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=1)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType":1, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>加标成功(loanDateType=0)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType":0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>加标成功(loanDateType=2)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType":2, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>加标成功(loanDateType=4)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType":4, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1444,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="G2:H7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1362,7 +1655,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1729,8 +2022,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1843,10 +2136,10 @@
         <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="5" spans="1:8">
@@ -1854,22 +2147,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -1886,7 +2179,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1912,7 +2205,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1938,7 +2231,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -1964,7 +2257,7 @@
         <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -1990,7 +2283,7 @@
         <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -2016,7 +2309,7 @@
         <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -2074,10 +2367,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -2111,6 +2404,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -2187,13 +2481,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -2207,19 +2501,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="4" spans="1:8">
@@ -2227,19 +2521,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="5" spans="1:8">
@@ -2247,19 +2541,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="6" spans="1:8">
@@ -2267,19 +2561,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="7" spans="1:8">
@@ -2287,19 +2581,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="8" spans="1:8">
@@ -2307,19 +2601,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="9" spans="1:8">
@@ -2327,19 +2621,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row customHeight="1" ht="54" r="10" spans="1:8">
@@ -2347,19 +2641,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row customHeight="1" ht="54" r="11" spans="1:8">
@@ -2367,19 +2661,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row customHeight="1" ht="67.5" r="12" spans="1:8">
@@ -2387,19 +2681,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="13" spans="1:8">
@@ -2407,19 +2701,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="14" spans="1:8">
@@ -2427,19 +2721,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="15" spans="1:8">
@@ -2447,19 +2741,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="16" spans="1:8">
@@ -2467,19 +2761,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="17" spans="1:8">
@@ -2487,19 +2781,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="18" spans="1:8">
@@ -2507,19 +2801,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="19" spans="1:8">
@@ -2527,19 +2821,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="20" spans="1:8">
@@ -2547,19 +2841,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="21" spans="1:8">
@@ -2567,19 +2861,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2594,14 +2888,1090 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="7.25"/>
+    <col customWidth="1" max="2" min="2" width="18.875"/>
+    <col customWidth="1" max="3" min="3" width="14.25"/>
+    <col customWidth="1" max="4" min="4" width="55.875"/>
+    <col customWidth="1" max="5" min="5" width="7.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="37"/>
+    <col customWidth="1" max="7" min="7" style="1" width="35.875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="27" r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="6" spans="1:8">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="7" spans="1:8">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="8" spans="1:8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="9" spans="1:8">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="10" spans="1:8">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="11" spans="1:8">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="12" spans="1:8">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="13" spans="1:8">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="14" spans="1:8">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="15" spans="1:8">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="16" spans="1:8">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="17" spans="1:8">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="18" spans="1:8">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="19" spans="1:8">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="20" spans="1:8">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="21" spans="1:8">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="22" spans="1:8">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="23" spans="1:8">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="24" spans="1:8">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="25" spans="1:8">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="26" spans="1:8">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="27" spans="1:8">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="28" spans="1:8">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="29" spans="1:8">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="30" spans="1:8">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="31" spans="1:8">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="32" spans="1:8">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="33" spans="1:8">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="34" spans="1:8">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="35" spans="1:8">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="36" spans="1:8">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="37" spans="1:8">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="38" spans="1:8">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="39" spans="1:8">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="40" spans="1:8">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="41" spans="1:8">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>

--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45A4B6A-B9FC-4A7B-B0BE-8F8170179CC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11250" windowWidth="24495" xWindow="390" yWindow="570"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
-    <sheet name="list " sheetId="5" r:id="rId5"/>
-    <sheet name="bidLoan" sheetId="6" r:id="rId6"/>
-    <sheet name="add" sheetId="7" r:id="rId7"/>
-    <sheet name="audit" sheetId="8" r:id="rId8"/>
-    <sheet name="getLoanList" sheetId="9" r:id="rId9"/>
-    <sheet name="generateRepayments" sheetId="10" r:id="rId10"/>
-    <sheet name="getInvestsByMemberId" sheetId="11" r:id="rId11"/>
-    <sheet name="getInvestsByLoanId" sheetId="12" r:id="rId12"/>
-    <sheet name="getFinanceLogList" sheetId="13" r:id="rId13"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="list " sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="add" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="audit" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="getLoanList" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="generateRepayments" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="getInvestsByMemberId" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="getInvestsByLoanId" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="getFinanceLogList" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t>case_id</t>
   </si>
@@ -139,6 +133,9 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>正常登陆（post）</t>
   </si>
   <si>
@@ -268,21 +265,45 @@
     <t>/member/withdraw</t>
   </si>
   <si>
-    <t>{"mobilephone": "15666666668", "pwd": "123456"}</t>
+    <t>{"mobilephone": "15777777777", "amount": 123}</t>
   </si>
   <si>
     <t>取现成功</t>
   </si>
   <si>
+    <t>{"mobilephone": "15777777777", "amount": 51}</t>
+  </si>
+  <si>
     <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"843102.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"取现成功"}</t>
   </si>
   <si>
     <t>余额不足，请修改提现额度</t>
   </si>
   <si>
+    <t>{"mobilephone": "15777777777", "amount": "500000"}</t>
+  </si>
+  <si>
     <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
   </si>
   <si>
+    <t>{"mobilephone": "15777777777", "amount": 510000}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "amount": -1}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "amount": "！@#￥%"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "amount": "123asd"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "amount": 99.999}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "amount": None}</t>
+  </si>
+  <si>
     <t>{"status":1,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
   </si>
   <si>
@@ -290,6 +311,54 @@
   </si>
   <si>
     <t>/member/bidLoan</t>
+  </si>
+  <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": 10, "amount": 100}</t>
+  </si>
+  <si>
+    <t>参数错误:所有参数都不能为空(memberId="")</t>
+  </si>
+  <si>
+    <t>{"memberId": "", "password": "123456", "loanId": 10, "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
+  </si>
+  <si>
+    <t>参数错误:所有参数都不能为空(password="")</t>
+  </si>
+  <si>
+    <t>{"memberId": 1115697, "password": "", "loanId": 10, "amount": 100}</t>
+  </si>
+  <si>
+    <t>参数错误:所有参数都不能为空(loanid="")</t>
+  </si>
+  <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": "", "amount": 100}</t>
+  </si>
+  <si>
+    <t>参数错误:所有参数都不能为空(amount="")</t>
+  </si>
+  <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": 10, "amount":"" }</t>
+  </si>
+  <si>
+    <t>参数错误，memberId必须是大于0的正整数（memberId=-1）</t>
+  </si>
+  <si>
+    <t>{"memberId": -1, "password": "123456", "loanId": 10, "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11004","data":null,"msg":"参数错误，memberId必须是大于0的正整数"}</t>
+  </si>
+  <si>
+    <t>参数错误，memberId必须是大于0的正整数（memberId=0）</t>
+  </si>
+  <si>
+    <t>{"memberId": 0, "password": "123456", "loanId": 10, "amount": 100}</t>
+  </si>
+  <si>
+    <t>参数错误，loanid必须是大于0的正整数（memberId=0）</t>
   </si>
   <si>
     <t>参数错误，password 长度必须大于 6
@@ -347,15 +416,21 @@
     <t>{"status":0,"code":"11008","data":null,"msg":"不存在该用户"}</t>
   </si>
   <si>
-    <t>不存在该标的</t>
-  </si>
-  <si>
-    <t>{"Id": 110, "pwd": "123456", "loanId": 999, "amount": 1000}</t>
+    <t>不存在该标的（loainid=-1）</t>
+  </si>
+  <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": -1, "amount": 100}</t>
   </si>
   <si>
     <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
   </si>
   <si>
+    <t>不存在该标的（loainid=0）</t>
+  </si>
+  <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": 0, "amount": 100}</t>
+  </si>
+  <si>
     <t>该标不在竞标中状态，无法完成投标</t>
   </si>
   <si>
@@ -381,6 +456,15 @@
   </si>
   <si>
     <t>{"status":0,"code":"11009","data":null,"msg":"该标可投金额不足"}</t>
+  </si>
+  <si>
+    <t>请根据数值参数的类型对应输入合法的数字（memberid=1.99）</t>
+  </si>
+  <si>
+    <t>{"memberId": 1.99, "password": "123456", "loanId": 10, "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11013","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
   </si>
   <si>
     <t>请根据数值参数的类型对应输入合法的数字</t>
@@ -739,6 +823,9 @@
     <t>{"Id":11587,  "status":1}</t>
   </si>
   <si>
+    <t>{"mobilephone": "15666666668", "pwd": "123456"}</t>
+  </si>
+  <si>
     <t>参数错误：所有参数不能为空(status="")</t>
   </si>
   <si>
@@ -893,150 +980,42 @@
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为审核中状态"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": 123}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": "500000"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": 510000}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": -1}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": "！@#￥%"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": "123asd"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": 99.999}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": None}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "pwd": "123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": 51}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "pwd": "123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数错误:所有参数都不能为空(loanid="")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数错误:所有参数都不能为空(amount="")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11004","data":null,"msg":"参数错误，memberId必须是大于0的正整数"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId": -1, "password": "123456", "loanId": 10, "amount": 100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数错误，memberId必须是大于0的正整数（memberId=0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数错误，memberId必须是大于0的正整数（memberId=-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId": 0, "password": "123456", "loanId": 10, "amount": 100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId": "", "password": "123456", "loanId": 10, "amount": 100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数错误:所有参数都不能为空(memberId="")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数错误:所有参数都不能为空(password="")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": 10, "amount": 100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId": 1115697, "password": "", "loanId": 10, "amount": 100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": "", "amount": 100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": 10, "amount":"" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请根据数值参数的类型对应输入合法的数字（memberid=1.99）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11013","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId": 1.99, "password": "123456", "loanId": 10, "amount": 100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt formatCode="0.00_ " numFmtId="164"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1052,33 +1031,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1366,26 +1339,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="5.625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="15.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="18.125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="39.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="7.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="33.875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="38.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="11.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,8 +1388,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1431,8 +1408,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1451,8 +1428,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row customHeight="1" ht="27" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1471,8 +1448,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    <row customHeight="1" ht="27" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1491,8 +1468,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row customHeight="1" ht="40.5" r="6" spans="1:8">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1511,8 +1488,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    <row customHeight="1" ht="27" r="7" spans="1:8">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1531,8 +1508,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row customHeight="1" ht="27" r="8" spans="1:8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1552,84 +1529,107 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.125" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="6"/>
+    <col customWidth="1" max="2" min="2" style="1" width="15.625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="16.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="36.75"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="7.5"/>
+    <col customWidth="1" max="6" min="6" style="4" width="34.125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="36.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1655,8 +1655,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1671,144 +1671,177 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:8">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:8">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G7"/>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="4.875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24"/>
+    <col customWidth="1" max="3" min="3" style="1" width="23.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="36.375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="7.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="40.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="31.25"/>
+    <col customWidth="1" max="8" min="8" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1834,198 +1867,198 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row customHeight="1" ht="81" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:8">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:8">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:8">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:8">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:8">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -2034,38 +2067,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+    <row customHeight="1" ht="27" r="12" spans="1:8">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="13" spans="1:8">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -2075,33 +2108,36 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="4.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.5"/>
+    <col customWidth="1" max="4" min="4" style="1" width="37.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="7.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="37.125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="19.25"/>
+    <col customWidth="1" max="8" min="8" style="1" width="17.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,218 +2163,218 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row customHeight="1" ht="81" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:8">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:8">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:8">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:8">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>277</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:8">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="12" spans="1:8">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -2347,38 +2383,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+    <row customHeight="1" ht="27" r="13" spans="1:8">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="14" spans="1:8">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -2388,48 +2424,54 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="6.875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="39"/>
+    <col customWidth="1" max="5" min="5" style="1" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="36"/>
+    <col customWidth="1" max="7" min="7" style="1" width="24.875"/>
+    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2455,501 +2497,521 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>293</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>282</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row customHeight="1" ht="40.5" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="6" spans="1:8">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:8">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>284</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>296</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>106</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="9" spans="1:8">
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>289</v>
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="10" spans="1:8"/>
+    <row customHeight="1" ht="40.5" r="11" spans="1:8">
+      <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="12" spans="1:8">
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="13" spans="1:8">
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="14" spans="1:8">
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="15" spans="1:8">
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="16" spans="1:8">
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="17" spans="1:8">
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="18" spans="1:8">
+      <c r="B18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
+        <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="19" spans="1:8">
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>9</v>
-      </c>
+        <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="20" spans="1:8">
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="21" spans="1:8"/>
+    <row customHeight="1" ht="40.5" r="22" spans="1:8">
+      <c r="A22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>5</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>6</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="23" spans="1:8">
+      <c r="A23" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>8</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="24" spans="1:8"/>
+    <row customHeight="1" ht="40.5" r="25" spans="1:8">
       <c r="B25" s="1" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>299</v>
+        <v>134</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="26" spans="1:8">
+      <c r="B26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="27" spans="1:8">
+      <c r="B27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="28" spans="1:8">
+      <c r="A28" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="29" spans="1:8"/>
+    <row customHeight="1" ht="54" r="30" spans="1:8"/>
+    <row customHeight="1" ht="54" r="31" spans="1:8"/>
+    <row customHeight="1" ht="67.5" r="32" spans="1:8">
+      <c r="A32" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+    <row customHeight="1" ht="40.5" r="33" spans="1:8">
+      <c r="A33" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
+    <row customHeight="1" ht="40.5" r="34" spans="1:8">
+      <c r="A34" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+    <row customHeight="1" ht="40.5" r="35" spans="1:8">
+      <c r="A35" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="36" spans="1:8">
+      <c r="A36" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
+    <row customHeight="1" ht="27" r="37" spans="1:8">
+      <c r="A37" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
+    <row customHeight="1" ht="40.5" r="38" spans="1:8">
+      <c r="A38" s="1" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
+    <row customHeight="1" ht="40.5" r="39" spans="1:8">
+      <c r="A39" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
+    <row customHeight="1" ht="27" r="40" spans="1:8">
+      <c r="A40" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+    <row customHeight="1" ht="40.5" r="41" spans="1:8">
+      <c r="A41" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>117</v>
+      <c r="B41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="48.5" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="36.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.875" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="6.125"/>
+    <col customWidth="1" max="2" min="2" width="18.875"/>
+    <col customWidth="1" max="3" min="3" width="14.25"/>
+    <col customWidth="1" max="4" min="4" width="48.5"/>
+    <col customWidth="1" max="5" min="5" width="6.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="36.875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="35.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2975,992 +3037,995 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="67.5" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="6" spans="1:8">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="7" spans="1:8">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="8" spans="1:8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="9" spans="1:8">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="10" spans="1:8">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="11" spans="1:8">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="12" spans="1:8">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="13" spans="1:8">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="14" spans="1:8">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="15" spans="1:8">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="16" spans="1:8">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="17" spans="1:8">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="18" spans="1:8">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="19" spans="1:8">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="20" spans="1:8">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="21" spans="1:8">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="22" spans="1:8">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="23" spans="1:8">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="24" spans="1:8">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="25" spans="1:8">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="26" spans="1:8">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="27" spans="1:8">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="28" spans="1:8">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="29" spans="1:8">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="30" spans="1:8">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="31" spans="1:8">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="32" spans="1:8">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="33" spans="1:8">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="34" spans="1:8">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="35" spans="1:8">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="36" spans="1:8">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="37" spans="1:8">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="38" spans="1:8">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="39" spans="1:8">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="1" t="s">
+    </row>
+    <row customHeight="1" ht="54" r="40" spans="1:8">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="41" spans="1:8">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="42" spans="1:8">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
+    </row>
+    <row customHeight="1" ht="67.5" r="43" spans="1:8">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="44" spans="1:8">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="45" spans="1:8">
+      <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="46" spans="1:8">
+      <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="47" spans="1:8">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="48" spans="1:8">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="49" spans="1:8">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="41.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="5.375"/>
+    <col customWidth="1" max="2" min="2" width="24.5"/>
+    <col customWidth="1" max="3" min="3" width="14.25"/>
+    <col customWidth="1" max="4" min="4" width="31.875"/>
+    <col customWidth="1" max="5" min="5" width="7.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="41.125"/>
+    <col customWidth="1" max="7" min="7" width="36.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3986,451 +4051,455 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+        <v>252</v>
+      </c>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+        <v>252</v>
+      </c>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:8">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+        <v>257</v>
+      </c>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:8">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:8">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:8">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+      <c r="F10" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:8">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="F11" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="12" spans="1:8">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="13" spans="1:8">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="14" spans="1:8">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="15" spans="1:8">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" t="s">
         <v>247</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" t="s">
-        <v>217</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="16" spans="1:8">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="17" spans="1:8">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="18" spans="1:8">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="19" spans="1:8">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="20" spans="1:8">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="21" spans="1:8">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="22" spans="1:8">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>270</v>
+      <c r="F22" s="4" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248128A7-3255-4D05-AF6E-CB33389D2BA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11250" windowWidth="24495" xWindow="390" yWindow="570"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="list " sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="add" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="audit" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="getLoanList" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="generateRepayments" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="getInvestsByMemberId" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="getInvestsByLoanId" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="getFinanceLogList" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
+    <sheet name="list " sheetId="5" r:id="rId5"/>
+    <sheet name="bidLoan" sheetId="6" r:id="rId6"/>
+    <sheet name="add" sheetId="7" r:id="rId7"/>
+    <sheet name="audit" sheetId="8" r:id="rId8"/>
+    <sheet name="getLoanList" sheetId="9" r:id="rId9"/>
+    <sheet name="generateRepayments" sheetId="10" r:id="rId10"/>
+    <sheet name="getInvestsByMemberId" sheetId="11" r:id="rId11"/>
+    <sheet name="getInvestsByLoanId" sheetId="12" r:id="rId12"/>
+    <sheet name="getFinanceLogList" sheetId="13" r:id="rId13"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="302">
   <si>
     <t>case_id</t>
   </si>
@@ -133,9 +139,6 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>正常登陆（post）</t>
   </si>
   <si>
@@ -313,7 +316,7 @@
     <t>/member/bidLoan</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": 10, "amount": 100}</t>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": 11580, "amount": 100}</t>
   </si>
   <si>
     <t>参数错误:所有参数都不能为空(memberId="")</t>
@@ -356,61 +359,59 @@
   </si>
   <si>
     <t>{"memberId": 0, "password": "123456", "loanId": 10, "amount": 100}</t>
-  </si>
-  <si>
-    <t>参数错误，loanid必须是大于0的正整数（memberId=0）</t>
-  </si>
-  <si>
-    <t>参数错误，password 长度必须大于 6
-位且小于 18 位（password：""）</t>
-  </si>
-  <si>
-    <t>{"Id": 1114421, "pwd": "", "loanId": 101, "amount": 101}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11006","data":null,"msg":"password 长度必须大于 6
-位且小于 18 位"}</t>
   </si>
   <si>
     <t>参数错误，password 长度必须大于 6
 位且小于 18 位（password："123"）</t>
   </si>
   <si>
-    <t>{"Id": 1114421, "pwd": "123", "loanId": 101, "amount": 101}</t>
+    <t>{"memberId": 1115697, "password": "123", "loanId": "df234", "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11006","data":null,"msg":"参数错误，password长度必须大于6位且小于18位"}</t>
   </si>
   <si>
     <t>参数错误，password 长度必须大于 6
-位且小于 18 位（password："123456789012345678"）</t>
-  </si>
-  <si>
-    <t>{"Id": 1114421, "pwd": "123456789012345678", "loanId": 101, "amount": 101}</t>
+位且小于 18 位（password："1234567890123456789"）</t>
+  </si>
+  <si>
+    <t>{"memberId": 1115697, "password": "1234567890123456789", "loanId": "df234", "amount": 100}</t>
+  </si>
+  <si>
+    <t>密码错误（password："123456789012345678"）</t>
+  </si>
+  <si>
+    <t>{"memberId": 1115697, "password": "123456789012345678", "loanId": "df234", "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"","data":null,"msg":"密码错误"}</t>
   </si>
   <si>
     <t>参数错误，投资金额必须能被 100整除的正整数(amount:99)</t>
   </si>
   <si>
-    <t>{"Id": 1114421, "pwd": "123456", "loanId": 101, "amount": 99}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须能被 100整除的正整数"}</t>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": 99}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
   </si>
   <si>
     <t>参数错误，投资金额必须能被 100整除的正整数(amount:-100)</t>
   </si>
   <si>
-    <t>{"Id": 1114421, "pwd": "123456", "loanId": 101, "amount": -100}</t>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": -100}</t>
   </si>
   <si>
     <t>参数错误，投资金额必须能被 100整除的正整数(amount:0)</t>
   </si>
   <si>
-    <t>{"Id": 1114421, "pwd": "123456", "loanId": 101, "amount": 0}</t>
-  </si>
-  <si>
-    <t>不存在该用户</t>
-  </si>
-  <si>
-    <t>{"Id": 110, "pwd": "123456", "loanId": 101, "amount": 1000}</t>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": 0}</t>
+  </si>
+  <si>
+    <t>不存在该用户(memberid=110)</t>
+  </si>
+  <si>
+    <t>{"memberId": 110, "password": "123456", "loanId": "11580", "amount": 100}</t>
   </si>
   <si>
     <t>{"status":0,"code":"11008","data":null,"msg":"不存在该用户"}</t>
@@ -431,13 +432,13 @@
     <t>{"memberId": 1115697, "password": "123456", "loanId": 0, "amount": 100}</t>
   </si>
   <si>
-    <t>该标不在竞标中状态，无法完成投标</t>
-  </si>
-  <si>
-    <t>{"Id": 110, "pwd": "123456", "loanId": 10, "amount": 1000}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11009","data":null,"msg":"该标不在竞标中状态，无法完成投标"}</t>
+    <t>该标不在竞标中状态，无法完成投标(loanId=11580)</t>
+  </si>
+  <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11010","data":null,"msg":"该标不在竞标中状态，无法完成投标"}</t>
   </si>
   <si>
     <t>该标已经满标,无法进行投资</t>
@@ -446,7 +447,7 @@
     <t>{"Id": 110, "pwd": "123456", "loanId": 10, "amount": 100000}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"11009","data":null,"msg":"该标已经满标,无法进行投资"}</t>
+    <t>{"status":0,"code":"11009","data":null,"msg":"该标已经满标,无法进行投资,需修改用例"}</t>
   </si>
   <si>
     <t>该标可投金额不足</t>
@@ -455,25 +456,25 @@
     <t>{"Id": 110, "pwd": "123456", "loanId": 10, "amount": 10000}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"11009","data":null,"msg":"该标可投金额不足"}</t>
-  </si>
-  <si>
-    <t>请根据数值参数的类型对应输入合法的数字（memberid=1.99）</t>
-  </si>
-  <si>
-    <t>{"memberId": 1.99, "password": "123456", "loanId": 10, "amount": 100}</t>
+    <t>{"status":0,"code":"11009","data":null,"msg":"该标可投金额不足，需修改用例"}</t>
+  </si>
+  <si>
+    <t>请根据数值参数的类型对应输入合法的数字（memberid=abc）</t>
+  </si>
+  <si>
+    <t>{"memberId": "abc", "password": "123456", "loanId": "11580", "amount": -100}</t>
   </si>
   <si>
     <t>{"status":0,"code":"11013","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
   </si>
   <si>
-    <t>请根据数值参数的类型对应输入合法的数字</t>
-  </si>
-  <si>
-    <t>{"Id": 110, "pwd": "123456", "loanId": 10, "amount": ads}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11009","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
+    <t>请根据数值参数的类型对应输入合法的数字（amount=abc）</t>
+  </si>
+  <si>
+    <t>{"memberId": "1115697", "password": "123456", "loanId": "11580", "amount": "abc"}</t>
+  </si>
+  <si>
+    <t>投资成功，全局声明loainid</t>
   </si>
   <si>
     <t>/loan/add</t>
@@ -817,6 +818,9 @@
     <t xml:space="preserve">加标成功 竞标天数(biddingDays=1) </t>
   </si>
   <si>
+    <t>抱歉，请先登录（有bug）</t>
+  </si>
+  <si>
     <t>/loan/audit</t>
   </si>
   <si>
@@ -949,7 +953,7 @@
     <t>更新状态成功：当前标为核保审批状态(status=5)</t>
   </si>
   <si>
-    <t>{"id": 11580,  "status": 5}</t>
+    <t>{"id": 11581,  "status": 5}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为核保审批状态"}</t>
@@ -958,7 +962,7 @@
     <t>更新状态成功：当前标为平台终审状态(status=6)</t>
   </si>
   <si>
-    <t>{"id": 11580,  "status": 6}</t>
+    <t>{"id": 11581,  "status": 6}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为平台终审状态"}</t>
@@ -967,7 +971,7 @@
     <t>还款中(status=7)</t>
   </si>
   <si>
-    <t>{"id": 11580,  "status": 7}</t>
+    <t>{"id": 11581,  "status": 7}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：还款中"}</t>
@@ -976,7 +980,7 @@
     <t>更新状态成功：审核通过，当前标为审核中状态(status=1)</t>
   </si>
   <si>
-    <t>{"id": 11580,  "status": 1}</t>
+    <t>{"id": 11581,  "status": 1}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为审核中状态"}</t>
@@ -985,37 +989,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="0.00_ " numFmtId="164"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1031,27 +1035,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1339,30 +1349,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="G2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="5.625"/>
-    <col customWidth="1" max="2" min="2" style="1" width="15.875"/>
-    <col customWidth="1" max="3" min="3" style="1" width="18.125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="39.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="7.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="33.875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="38.75"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="11.625"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,8 +1394,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1408,8 +1414,8 @@
         <v>12</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1428,8 +1434,8 @@
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1448,8 +1454,8 @@
         <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1468,8 +1474,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1488,8 +1494,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1508,8 +1514,8 @@
         <v>27</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1529,107 +1535,84 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="6"/>
-    <col customWidth="1" max="2" min="2" style="1" width="15.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="16.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="36.75"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="7.5"/>
-    <col customWidth="1" max="6" min="6" style="4" width="34.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="36.125"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1628,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1655,8 +1638,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1671,177 +1654,138 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H13" sqref="G2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="4.875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="24"/>
-    <col customWidth="1" max="3" min="3" style="1" width="23.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="36.375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="7.5"/>
-    <col customWidth="1" max="6" min="6" style="1" width="40.75"/>
-    <col customWidth="1" max="7" min="7" style="1" width="31.25"/>
-    <col customWidth="1" max="8" min="8" style="1" width="9"/>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,198 +1811,216 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -2066,39 +2028,43 @@
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -2106,38 +2072,37 @@
       <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="4.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="24.875"/>
-    <col customWidth="1" max="3" min="3" style="1" width="17.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="37.5"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="7.5"/>
-    <col customWidth="1" max="6" min="6" style="1" width="37.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="19.25"/>
-    <col customWidth="1" max="8" min="8" style="1" width="17.5"/>
+    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2163,218 +2128,218 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row customHeight="1" ht="81" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -2383,38 +2348,38 @@
         <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -2424,54 +2389,48 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="6.875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
-    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="39"/>
-    <col customWidth="1" max="5" min="5" style="1" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="36"/>
-    <col customWidth="1" max="7" min="7" style="1" width="24.875"/>
-    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2497,521 +2456,478 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="9" spans="1:8">
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="10" spans="1:8"/>
-    <row customHeight="1" ht="40.5" r="11" spans="1:8">
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="12" spans="1:8">
+      <c r="F11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="13" spans="1:8">
+      <c r="F12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="14" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="15" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="16" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="17" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="18" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="19" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="20" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="21" spans="1:8"/>
-    <row customHeight="1" ht="40.5" r="22" spans="1:8">
-      <c r="A22" s="1" t="n">
-        <v>10</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="24" spans="1:8"/>
-    <row customHeight="1" ht="40.5" r="25" spans="1:8">
-      <c r="B25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="26" spans="1:8">
-      <c r="B26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="27" spans="1:8">
-      <c r="B27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="28" spans="1:8">
-      <c r="A28" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="29" spans="1:8"/>
-    <row customHeight="1" ht="54" r="30" spans="1:8"/>
-    <row customHeight="1" ht="54" r="31" spans="1:8"/>
-    <row customHeight="1" ht="67.5" r="32" spans="1:8">
-      <c r="A32" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="33" spans="1:8">
-      <c r="A33" s="1" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="34" spans="1:8">
-      <c r="A34" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="35" spans="1:8">
-      <c r="A35" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="36" spans="1:8">
-      <c r="A36" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="37" spans="1:8">
-      <c r="A37" s="1" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="38" spans="1:8">
-      <c r="A38" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="39" spans="1:8">
-      <c r="A39" s="1" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="40" spans="1:8">
-      <c r="A40" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="41" spans="1:8">
-      <c r="A41" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="1" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>147</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.125"/>
-    <col customWidth="1" max="2" min="2" width="18.875"/>
-    <col customWidth="1" max="3" min="3" width="14.25"/>
-    <col customWidth="1" max="4" min="4" width="48.5"/>
-    <col customWidth="1" max="5" min="5" width="6.5"/>
-    <col customWidth="1" max="6" min="6" style="1" width="36.875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="35.875"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="48.5" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="36.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3037,995 +2953,993 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="17" spans="1:8">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="20" spans="1:8">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="21" spans="1:8">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="22" spans="1:8">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="24" spans="1:8">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="25" spans="1:8">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="26" spans="1:8">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="27" spans="1:8">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="28" spans="1:8">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="29" spans="1:8">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="30" spans="1:8">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="31" spans="1:8">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="32" spans="1:8">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="33" spans="1:8">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="34" spans="1:8">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="35" spans="1:8">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="36" spans="1:8">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="37" spans="1:8">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="38" spans="1:8">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="39" spans="1:8">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="40" spans="1:8">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="41" spans="1:8">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="42" spans="1:8">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="43" spans="1:8">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="44" spans="1:8">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="45" spans="1:8">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="46" spans="1:8">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="47" spans="1:8">
-      <c r="A47" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="48" spans="1:8">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C48" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="49" spans="1:8">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="5.375"/>
-    <col customWidth="1" max="2" min="2" width="24.5"/>
-    <col customWidth="1" max="3" min="3" width="14.25"/>
-    <col customWidth="1" max="4" min="4" width="31.875"/>
-    <col customWidth="1" max="5" min="5" width="7.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="41.125"/>
-    <col customWidth="1" max="7" min="7" width="36.625"/>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="41.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4051,12 +3965,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
         <v>247</v>
@@ -4068,17 +3982,17 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -4089,14 +4003,14 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4114,11 +4028,11 @@
       <c r="F4" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G4" s="1" t="n"/>
-      <c r="H4" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4136,11 +4050,11 @@
       <c r="F5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4158,11 +4072,11 @@
       <c r="F6" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G6" s="1" t="n"/>
-      <c r="H6" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4181,8 +4095,8 @@
         <v>260</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4201,8 +4115,8 @@
         <v>260</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4221,8 +4135,8 @@
         <v>265</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4237,12 +4151,12 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4257,12 +4171,12 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4281,8 +4195,8 @@
         <v>274</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4301,8 +4215,8 @@
         <v>274</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4321,8 +4235,8 @@
         <v>274</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4341,8 +4255,8 @@
         <v>274</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4361,8 +4275,8 @@
         <v>283</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="17" spans="1:8">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4381,8 +4295,8 @@
         <v>286</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4401,8 +4315,8 @@
         <v>289</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4421,8 +4335,8 @@
         <v>292</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="20" spans="1:8">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4441,8 +4355,8 @@
         <v>295</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="21" spans="1:8">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4461,8 +4375,8 @@
         <v>298</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="22" spans="1:8">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4477,29 +4391,25 @@
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248128A7-3255-4D05-AF6E-CB33389D2BA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="20730" windowHeight="11250" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -27,12 +21,12 @@
     <sheet name="getInvestsByLoanId" sheetId="12" r:id="rId12"/>
     <sheet name="getFinanceLogList" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="307">
   <si>
     <t>case_id</t>
   </si>
@@ -178,147 +172,120 @@
     <t>/member/recharge</t>
   </si>
   <si>
-    <t>{"mobilephone": "15666666678", "amount": 123}</t>
-  </si>
-  <si>
     <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
   </si>
   <si>
     <t>正常登陆</t>
   </si>
   <si>
+    <t>正常充值，充值成功</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"806838.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>请输入范围在0到50万之间的正数金额（510000）</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+  </si>
+  <si>
+    <t>请输入范围在 0 到 50 万之间的正数金额（-1）</t>
+  </si>
+  <si>
+    <t>请输入数字（特殊符号）</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
+  </si>
+  <si>
+    <t>请输入数字（数字加字母）</t>
+  </si>
+  <si>
+    <t>输入金额的金额小数不能超过两位</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
+  </si>
+  <si>
+    <t>请输入金额</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
+  </si>
+  <si>
+    <t>手机格式不正确</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "156666", "amount": 99.99}</t>
+  </si>
+  <si>
+    <t>此手机号对应的会员不存在</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15999999999", "amount": 99.99}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": None, "amount": None}</t>
+  </si>
+  <si>
+    <t>/member/withdraw</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "**mobilephone**", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>取现成功</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "**mobilephone**", "amount": 51}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"843102.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"取现成功"}</t>
+  </si>
+  <si>
+    <t>余额不足，请修改提现额度</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "**mobilephone**", "amount": "500000"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "**mobilephone**", "amount": 510000}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "**mobilephone**", "amount": -1}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "**mobilephone**", "amount": "！@#￥%"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "**mobilephone**", "amount": "123asd"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "**mobilephone**", "amount": 99.999}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "**mobilephone**", "amount": None}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
+  </si>
+  <si>
+    <t>未登录进行投标</t>
+  </si>
+  <si>
+    <t>/member/bidLoan</t>
+  </si>
+  <si>
     <t>{"mobilephone": "15666666678", "pwd": "123456"}</t>
   </si>
   <si>
-    <t>正常充值，充值成功</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "amount": 5100}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"806838.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>请输入范围在0到50万之间的正数金额（510000）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "amount": 510000}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
-  </si>
-  <si>
-    <t>请输入范围在 0 到 50 万之间的正数金额（-1）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "amount": -1}</t>
-  </si>
-  <si>
-    <t>请输入数字（特殊符号）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "amount": "！@#￥%"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
-  </si>
-  <si>
-    <t>请输入数字（数字加字母）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "amount": "123asd"}</t>
-  </si>
-  <si>
-    <t>输入金额的金额小数不能超过两位</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "amount": 99.999}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
-  </si>
-  <si>
-    <t>请输入金额</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "amount": None}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
-  </si>
-  <si>
-    <t>手机格式不正确</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "156666", "amount": 99.99}</t>
-  </si>
-  <si>
-    <t>此手机号对应的会员不存在</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15999999999", "amount": 99.99}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": None, "amount": None}</t>
-  </si>
-  <si>
-    <t>/member/withdraw</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": 123}</t>
-  </si>
-  <si>
-    <t>取现成功</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": 51}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"843102.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
-    <t>余额不足，请修改提现额度</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": "500000"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": 510000}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": -1}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": "！@#￥%"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": "123asd"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": 99.999}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777777", "amount": None}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
-  </si>
-  <si>
-    <t>未登录进行投标</t>
-  </si>
-  <si>
-    <t>/member/bidLoan</t>
-  </si>
-  <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": 11580, "amount": 100}</t>
-  </si>
-  <si>
     <t>参数错误:所有参数都不能为空(memberId="")</t>
   </si>
   <si>
@@ -331,19 +298,10 @@
     <t>参数错误:所有参数都不能为空(password="")</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "", "loanId": 10, "amount": 100}</t>
-  </si>
-  <si>
     <t>参数错误:所有参数都不能为空(loanid="")</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": "", "amount": 100}</t>
-  </si>
-  <si>
     <t>参数错误:所有参数都不能为空(amount="")</t>
-  </si>
-  <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": 10, "amount":"" }</t>
   </si>
   <si>
     <t>参数错误，memberId必须是大于0的正整数（memberId=-1）</t>
@@ -365,9 +323,6 @@
 位且小于 18 位（password："123"）</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "123", "loanId": "df234", "amount": 100}</t>
-  </si>
-  <si>
     <t>{"status":0,"code":"11006","data":null,"msg":"参数错误，password长度必须大于6位且小于18位"}</t>
   </si>
   <si>
@@ -375,39 +330,24 @@
 位且小于 18 位（password："1234567890123456789"）</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "1234567890123456789", "loanId": "df234", "amount": 100}</t>
-  </si>
-  <si>
     <t>密码错误（password："123456789012345678"）</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "123456789012345678", "loanId": "df234", "amount": 100}</t>
-  </si>
-  <si>
     <t>{"status":0,"code":"","data":null,"msg":"密码错误"}</t>
   </si>
   <si>
     <t>参数错误，投资金额必须能被 100整除的正整数(amount:99)</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": 99}</t>
-  </si>
-  <si>
     <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
   </si>
   <si>
     <t>参数错误，投资金额必须能被 100整除的正整数(amount:-100)</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": -100}</t>
-  </si>
-  <si>
     <t>参数错误，投资金额必须能被 100整除的正整数(amount:0)</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": 0}</t>
-  </si>
-  <si>
     <t>不存在该用户(memberid=110)</t>
   </si>
   <si>
@@ -420,24 +360,15 @@
     <t>不存在该标的（loainid=-1）</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": -1, "amount": 100}</t>
-  </si>
-  <si>
     <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
   </si>
   <si>
     <t>不存在该标的（loainid=0）</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": 0, "amount": 100}</t>
-  </si>
-  <si>
     <t>该标不在竞标中状态，无法完成投标(loanId=11580)</t>
   </si>
   <si>
-    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": 100}</t>
-  </si>
-  <si>
     <t>{"status":0,"code":"11010","data":null,"msg":"该标不在竞标中状态，无法完成投标"}</t>
   </si>
   <si>
@@ -471,17 +402,10 @@
     <t>请根据数值参数的类型对应输入合法的数字（amount=abc）</t>
   </si>
   <si>
-    <t>{"memberId": "1115697", "password": "123456", "loanId": "11580", "amount": "abc"}</t>
-  </si>
-  <si>
     <t>投资成功，全局声明loainid</t>
   </si>
   <si>
     <t>/loan/add</t>
-  </si>
-  <si>
-    <t>{"memberId": 1114425, "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
     <t>加标成功</t>
@@ -503,50 +427,22 @@
     <t>参数错误：参数不能为空（title为空）</t>
   </si>
   <si>
-    <t>{"memberId": "1114425", "title": "", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
     <t>参数错误：参数不能为空（amount为空）</t>
   </si>
   <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": '', "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
     <t>参数错误：参数不能为空（loanRate为空）</t>
   </si>
   <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": '', "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
     <t>参数错误：参数不能为空（loanTerm为空）</t>
   </si>
   <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": '',
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
     <t>参数错误：参数不能为空（loanDateType为空）</t>
   </si>
   <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": '', "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
     <t>参数错误：参数不能为空（repaymemtWay为空）</t>
   </si>
   <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": '', "biddingDays": 1}</t>
-  </si>
-  <si>
     <t>参数错误：参数不能为空（biddingDays为空）</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": ''}</t>
   </si>
   <si>
     <t>不存在该会员</t>
@@ -596,404 +492,524 @@
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(amount=abc)</t>
   </si>
   <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": "abc", "loanRate": 10.0, "loanTerm": 6,
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(amount=#$@#%)</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=-1)</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20106","data":null,"msg":"参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=0)</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=1)</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=10)</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=99)</t>
+  </si>
+  <si>
+    <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=101)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanRat=abc)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanRat=###%%^)</t>
+  </si>
+  <si>
+    <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=-1)</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20107","data":null,"msg":"参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
+  </si>
+  <si>
+    <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=0)</t>
+  </si>
+  <si>
+    <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=25)</t>
+  </si>
+  <si>
+    <t>加标成功(loanRat=24)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=999)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=dsf)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=￥@#%)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=@#%@#%)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=abc)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=-1)</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"参数错误：借款日期类型loanDateType只能为0,2,4"}</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=1)</t>
+  </si>
+  <si>
+    <t>加标成功(loanDateType=0)</t>
+  </si>
+  <si>
+    <t>加标成功(loanDateType=2)</t>
+  </si>
+  <si>
+    <t>加标成功(loanDateType=4)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（repaymemtWay=abc)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（repaymemtWay=(*&amp;^%^%)</t>
+  </si>
+  <si>
+    <t>参数错误：还款方式 repaymemtWay值应该属于[4,5,10,11](repaymemtWay=-1)</t>
+  </si>
+  <si>
+    <t>加标成功(repaymemtWay=4)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（biddingDays=abc)</t>
+  </si>
+  <si>
+    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（biddingDays=&amp;^%%)</t>
+  </si>
+  <si>
+    <t>参数错误：竞标天数 biddingDays值应该属于rangeint（1，10）(biddingDays=-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加标成功 竞标天数(biddingDays=1) </t>
+  </si>
+  <si>
+    <t>抱歉，请先登录（有bug）</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"Id":11587,  "status":1}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666668", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>参数错误：所有参数不能为空(status="")</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": ""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20203","data":null,"msg":"参数错误：所有参数不能为空"}</t>
+  </si>
+  <si>
+    <t>参数错误：所有参数不能为空(id="")</t>
+  </si>
+  <si>
+    <t>{"id": "",  "status": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：错误的标id值(id=-1)</t>
+  </si>
+  <si>
+    <t>{"id": -1,  "status": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20204","data":null,"msg":"参数错误：错误的标id值"}</t>
+  </si>
+  <si>
+    <t>参数错误：非法status参数，状态值1-11(status=-1)</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": -1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20205","data":null,"msg":"参数错误：非法status参数，状态值1-11"}</t>
+  </si>
+  <si>
+    <t>参数错误：非法status参数，状态值1-11(status=0)</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": 0}</t>
+  </si>
+  <si>
+    <t>不存在该项目(id=99999)</t>
+  </si>
+  <si>
+    <t>{"id": 99999,  "status": 1}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
+  </si>
+  <si>
+    <t>修改失败，当前标已经是该状态(status=1)</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20207","data":null,"msg":"修改失败，当前标已经是该状态"}</t>
+  </si>
+  <si>
+    <t>还款完成 项目所有的还款都已完成(status=10)</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": 10}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"还款完成 项目所有的还款都已完成"}</t>
+  </si>
+  <si>
+    <t>请根据数值参数的类型对应输入合法的数字(id="abc")</t>
+  </si>
+  <si>
+    <t>{"id": "abc",  "status": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20212","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
+  </si>
+  <si>
+    <t>请根据数值参数的类型对应输入合法的数字(id="(*&amp;^")</t>
+  </si>
+  <si>
+    <t>{"id": "(*&amp;^",  "status": -1}</t>
+  </si>
+  <si>
+    <t>请根据数值参数的类型对应输入合法的数字(status="abc")</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": "abc"}</t>
+  </si>
+  <si>
+    <t>请根据数值参数的类型对应输入合法的数字(status="(*(*^")</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": "(*(*^"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：审核通过，当前标为二审(初审中)状态(status=2)</t>
+  </si>
+  <si>
+    <t>{"id": 11580,  "status": 2}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为二审(初审中)状态"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：审核通过，当前标为三审(复审中)状态(status=3)</t>
+  </si>
+  <si>
+    <t>{"id": 11580,  "status": 3}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为三审(复审中)状态"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：竞标开始，当前标为竞标中状态(status=4)</t>
+  </si>
+  <si>
+    <t>{"id": 11580,  "status": 4}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：当前标为核保审批状态(status=5)</t>
+  </si>
+  <si>
+    <t>{"id": 11581,  "status": 5}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为核保审批状态"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：当前标为平台终审状态(status=6)</t>
+  </si>
+  <si>
+    <t>{"id": 11581,  "status": 6}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为平台终审状态"}</t>
+  </si>
+  <si>
+    <t>还款中(status=7)</t>
+  </si>
+  <si>
+    <t>{"id": 11581,  "status": 7}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：还款中"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：审核通过，当前标为审核中状态(status=1)</t>
+  </si>
+  <si>
+    <t>{"id": 11581,  "status": 1}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为审核中状态"}</t>
+  </si>
+  <si>
+    <t>请输入金额(会出现错误没有返回结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号不能为空(会出现错误没有返回结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "**mobilephone**", "amount": 123}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "$$mobilephone$$", "amount": 123}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "$$mobilephone$$", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "$$mobilephone$$", "amount": 5100}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "$$mobilephone$$", "amount": 510000}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "$$mobilephone$$", "amount": -1}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "$$mobilephone$$", "amount": "！@#￥%"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "$$mobilephone$$", "amount": "123asd"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "$$mobilephone$$", "amount": 99.999}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "$$mobilephone$$", "amount": None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": 11580, "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "", "loanId": 10, "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": "", "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": 10, "amount":"" }</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "123", "loanId": "df234", "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "1234567890123456789", "loanId": "df234", "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "123456789012345678", "loanId": "df234", "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": "11580", "amount": 99}</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": "11580", "amount": -100}</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": "11580", "amount": 0}</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": -1, "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": 0, "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": "11580", "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"memberId": ""$$memberId$$"", "password": "123456", "loanId": "11580", "amount": "abc"}</t>
+  </si>
+  <si>
+    <t>{"memberId": **member1_id**, "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(amount=#$@#%)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": "#$@#%", "loanRate": 10.0, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=-1)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": -1, "loanRate": 10.0, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": '', "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20106","data":null,"msg":"参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
-  </si>
-  <si>
-    <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=0)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 0, "loanRate": 10.0, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": '', "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=1)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 1, "loanRate": 10.0, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": '',
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=10)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10, "loanRate": 10.0, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": '', "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": '', "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": ''}</t>
+  </si>
+  <si>
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": "abc", "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=99)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 99, "loanRate": 10.0, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": "#$@#%", "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=101)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 101, "loanRate": 10.0, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": -1, "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanRat=abc)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 'abc', "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 0, "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanRat=###%%^)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": '###%%^', "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 1, "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=-1)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": -1, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10, "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20107","data":null,"msg":"参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
-  </si>
-  <si>
-    <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=0)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 0, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 99, "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=25)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 25, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 101, "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>加标成功(loanRat=24)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 'abc', "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=999)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 999,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": '###%%^', "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=dsf)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 'dsf',
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": -1, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=￥@#%)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": '￥@#%',
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=@#%@#%)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 25, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 999,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 'dsf',
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": '￥@#%',
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType": '@#%@#%', "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=abc)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType": 'abc', "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=-1)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType": -1, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20108","data":null,"msg":"参数错误：借款日期类型loanDateType只能为0,2,4"}</t>
-  </si>
-  <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=1)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType":1, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>加标成功(loanDateType=0)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType":0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>加标成功(loanDateType=2)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType":2, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>加标成功(loanDateType=4)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType":4, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（repaymemtWay=abc)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 'abc', "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（repaymemtWay=(*&amp;^%^%)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": '(*&amp;^%^%', "biddingDays": 1}</t>
   </si>
   <si>
-    <t>参数错误：还款方式 repaymemtWay值应该属于[4,5,10,11](repaymemtWay=-1)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": -1, "biddingDays": 1}</t>
   </si>
   <si>
-    <t>加标成功(repaymemtWay=4)</t>
-  </si>
-  <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（biddingDays=abc)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 'abc'}</t>
   </si>
   <si>
-    <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（biddingDays=&amp;^%%)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": '&amp;^%%'}</t>
   </si>
   <si>
-    <t>参数错误：竞标天数 biddingDays值应该属于rangeint（1，10）(biddingDays=-1)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": -1}</t>
   </si>
   <si>
-    <t xml:space="preserve">加标成功 竞标天数(biddingDays=1) </t>
-  </si>
-  <si>
-    <t>抱歉，请先登录（有bug）</t>
-  </si>
-  <si>
-    <t>/loan/audit</t>
-  </si>
-  <si>
-    <t>{"Id":11587,  "status":1}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666668", "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>参数错误：所有参数不能为空(status="")</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": ""}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20203","data":null,"msg":"参数错误：所有参数不能为空"}</t>
-  </si>
-  <si>
-    <t>参数错误：所有参数不能为空(id="")</t>
-  </si>
-  <si>
-    <t>{"id": "",  "status": 1}</t>
-  </si>
-  <si>
-    <t>参数错误：错误的标id值(id=-1)</t>
-  </si>
-  <si>
-    <t>{"id": -1,  "status": 1}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20204","data":null,"msg":"参数错误：错误的标id值"}</t>
-  </si>
-  <si>
-    <t>参数错误：非法status参数，状态值1-11(status=-1)</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": -1}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20205","data":null,"msg":"参数错误：非法status参数，状态值1-11"}</t>
-  </si>
-  <si>
-    <t>参数错误：非法status参数，状态值1-11(status=0)</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": 0}</t>
-  </si>
-  <si>
-    <t>不存在该项目(id=99999)</t>
-  </si>
-  <si>
-    <t>{"id": 99999,  "status": 1}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
-  </si>
-  <si>
-    <t>修改失败，当前标已经是该状态(status=1)</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": 1}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20207","data":null,"msg":"修改失败，当前标已经是该状态"}</t>
-  </si>
-  <si>
-    <t>还款完成 项目所有的还款都已完成(status=10)</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": 10}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"还款完成 项目所有的还款都已完成"}</t>
-  </si>
-  <si>
-    <t>请根据数值参数的类型对应输入合法的数字(id="abc")</t>
-  </si>
-  <si>
-    <t>{"id": "abc",  "status": 1}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20212","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
-  </si>
-  <si>
-    <t>请根据数值参数的类型对应输入合法的数字(id="(*&amp;^")</t>
-  </si>
-  <si>
-    <t>{"id": "(*&amp;^",  "status": -1}</t>
-  </si>
-  <si>
-    <t>请根据数值参数的类型对应输入合法的数字(status="abc")</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": "abc"}</t>
-  </si>
-  <si>
-    <t>请根据数值参数的类型对应输入合法的数字(status="(*(*^")</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": "(*(*^"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：审核通过，当前标为二审(初审中)状态(status=2)</t>
-  </si>
-  <si>
-    <t>{"id": 11580,  "status": 2}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为二审(初审中)状态"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：审核通过，当前标为三审(复审中)状态(status=3)</t>
-  </si>
-  <si>
-    <t>{"id": 11580,  "status": 3}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为三审(复审中)状态"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：竞标开始，当前标为竞标中状态(status=4)</t>
-  </si>
-  <si>
-    <t>{"id": 11580,  "status": 4}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：当前标为核保审批状态(status=5)</t>
-  </si>
-  <si>
-    <t>{"id": 11581,  "status": 5}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为核保审批状态"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：当前标为平台终审状态(status=6)</t>
-  </si>
-  <si>
-    <t>{"id": 11581,  "status": 6}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为平台终审状态"}</t>
-  </si>
-  <si>
-    <t>还款中(status=7)</t>
-  </si>
-  <si>
-    <t>{"id": 11581,  "status": 7}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：还款中"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：审核通过，当前标为审核中状态(status=1)</t>
-  </si>
-  <si>
-    <t>{"id": 11581,  "status": 1}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为审核中状态"}</t>
+    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,14 +1070,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1349,14 +1357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="G2:H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
@@ -1368,7 +1376,7 @@
     <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1414,7 +1422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1434,7 +1442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1454,7 +1462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1474,7 +1482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1494,7 +1502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1514,7 +1522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="27" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1537,17 +1545,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1555,12 +1563,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,12 +1576,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1581,12 +1589,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1594,14 +1602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -1612,7 +1620,7 @@
     <col min="7" max="7" width="36.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1658,7 +1666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1678,7 +1686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1698,7 +1706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1718,7 +1726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1738,7 +1746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1766,14 +1774,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="G2:H13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -1785,7 +1793,7 @@
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1822,29 +1830,27 @@
         <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1852,175 +1858,159 @@
       <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" ht="81" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -2028,32 +2018,28 @@
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2064,7 +2050,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -2072,25 +2058,23 @@
       <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
@@ -2102,7 +2086,7 @@
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +2112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2136,30 +2120,32 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -2167,179 +2153,195 @@
       <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" ht="81" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -2347,39 +2349,43 @@
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" ht="27" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -2391,19 +2397,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2411,14 +2417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
@@ -2430,7 +2436,7 @@
     <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2456,38 +2462,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -2496,409 +2502,409 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="40.5" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40.5" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.5" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.5" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.5" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.5" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.5" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="40.5" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40.5" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="40.5" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="40.5" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="40.5" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="40.5" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2909,14 +2915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
@@ -2927,7 +2933,7 @@
     <col min="7" max="7" width="35.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="67.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2961,24 +2967,24 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -2993,924 +2999,924 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="54" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="54" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>165</v>
+        <v>274</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="54" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="54" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="67.5" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="54" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="54" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="67.5" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="67.5" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="67.5" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="67.5" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="67.5" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="67.5" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="54" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="67.5" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="54" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="54" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="54" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="54" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="54" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="54" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="67.5" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="81" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="81" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="54" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="54" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="54" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="54" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="54" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="67.5" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="67.5" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="67.5" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="54" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="54" customHeight="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="67.5" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="67.5" customHeight="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="54" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3921,14 +3927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -3939,7 +3945,7 @@
     <col min="7" max="7" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3965,40 +3971,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -4009,390 +4015,390 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="40.5" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.5" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.5" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.5" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="40.5" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="40.5" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4402,12 +4408,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11250" windowWidth="20730" xWindow="390" yWindow="570"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11250" windowWidth="20730" xWindow="390" yWindow="570"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="list " sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="add" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="audit" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="getLoanList" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="generateRepayments" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="getInvestsByMemberId" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="getInvestsByLoanId" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="getFinanceLogList" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="bidLoan" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="register" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="login" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="recharge" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="withdraw" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="list " sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="bidLoan11" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="add" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="audit" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="getLoanList" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="generateRepayments" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="getInvestsByMemberId" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="getInvestsByLoanId" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="getFinanceLogList" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
   <si>
     <t>case_id</t>
   </si>
@@ -52,6 +53,57 @@
     <t>result</t>
   </si>
   <si>
+    <t>正常登陆</t>
+  </si>
+  <si>
+    <t>/member/login</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "@123@", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>参数错误:所有参数都不能为空(password="")</t>
+  </si>
+  <si>
+    <t>/member/bidLoan</t>
+  </si>
+  <si>
+    <t>{"memberId": "1115697", "password": "", "loanId": 10, "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
+  </si>
+  <si>
+    <t>密码错误（password："123456789012345678"）</t>
+  </si>
+  <si>
+    <t>{"memberId": "1115697", "password": "123456789012345678", "loanId": "df234", "amount": 100}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"","data":null,"msg":"密码错误"}</t>
+  </si>
+  <si>
+    <t>参数错误，投资金额必须能被 100整除的正整数(amount:99)</t>
+  </si>
+  <si>
+    <t>{"memberId": "1115697", "password": "123456", "loanId": "11580", "amount": 99}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
+  </si>
+  <si>
     <t>注册成功</t>
   </si>
   <si>
@@ -61,24 +113,15 @@
     <t>{"mobilephone": "#@mobilephone", "pwd": "123456", "regname": "luckytest"}</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>手机号码已被注册</t>
   </si>
   <si>
     <t>{"mobilephone": "15777777777", "pwd": "123456", "regname": "luckytest"}</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
   </si>
   <si>
@@ -127,15 +170,9 @@
     <t>正常登陆（get）</t>
   </si>
   <si>
-    <t>/member/login</t>
-  </si>
-  <si>
     <t>{"mobilephone": "15666666666", "pwd": "123456"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
-  </si>
-  <si>
     <t>正常登陆（post）</t>
   </si>
   <si>
@@ -187,9 +224,6 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>正常登陆</t>
-  </si>
-  <si>
     <t>{"mobilephone": "$$mobilephone$$", "pwd": "123456"}</t>
   </si>
   <si>
@@ -334,9 +368,6 @@
     <t>未登录进行投标</t>
   </si>
   <si>
-    <t>/member/bidLoan</t>
-  </si>
-  <si>
     <t>{"memberId": "1115697", "password": "123456", "loanId": 11580, "amount": 100}</t>
   </si>
   <si>
@@ -350,15 +381,6 @@
   </si>
   <si>
     <t>{"memberId": "", "password": "123456", "loanId": 10, "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
-  </si>
-  <si>
-    <t>参数错误:所有参数都不能为空(password="")</t>
-  </si>
-  <si>
-    <t>{"memberId": "1115697", "password": "", "loanId": 10, "amount": 100}</t>
   </si>
   <si>
     <t>参数错误:所有参数都不能为空(loanid="")</t>
@@ -403,24 +425,6 @@
   </si>
   <si>
     <t>{"memberId": "1115697", "password": "1234567890123456789", "loanId": "df234", "amount": 100}</t>
-  </si>
-  <si>
-    <t>密码错误（password："123456789012345678"）</t>
-  </si>
-  <si>
-    <t>{"memberId": "1115697", "password": "123456789012345678", "loanId": "df234", "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"","data":null,"msg":"密码错误"}</t>
-  </si>
-  <si>
-    <t>参数错误，投资金额必须能被 100整除的正整数(amount:99)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1115697", "password": "123456", "loanId": "11580", "amount": 99}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
   </si>
   <si>
     <t>参数错误，投资金额必须能被 100整除的正整数(amount:-100)</t>
@@ -1380,7 +1384,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet14">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="G2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="6.875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="39.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="40.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="24.875"/>
+    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="27" r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet9">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet10">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet11">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet12">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet13">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1433,22 +1669,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1459,22 +1695,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1485,22 +1721,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -1511,22 +1747,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -1537,22 +1773,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -1563,22 +1799,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -1589,22 +1825,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -1616,81 +1852,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1742,22 +1906,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1768,22 +1932,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1794,22 +1958,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -1820,22 +1984,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -1846,22 +2010,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -1872,22 +2036,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -1899,9 +2063,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1954,25 +2118,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="3" spans="1:8">
@@ -1980,22 +2144,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -2006,22 +2170,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -2032,22 +2196,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -2058,22 +2222,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -2084,22 +2248,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -2110,22 +2274,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -2136,22 +2300,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -2162,22 +2326,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -2188,22 +2352,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -2214,22 +2378,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -2240,22 +2404,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -2267,9 +2431,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -2322,25 +2486,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="3" spans="1:8">
@@ -2348,22 +2512,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -2374,22 +2538,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -2400,22 +2564,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -2426,22 +2590,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -2452,22 +2616,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -2478,22 +2642,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -2504,22 +2668,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -2530,22 +2694,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -2556,22 +2720,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -2582,22 +2746,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -2608,22 +2772,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -2634,22 +2798,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -2661,9 +2825,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -2679,16 +2843,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -2734,25 +2898,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="3" spans="1:8">
@@ -2760,22 +2924,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -2786,22 +2950,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -2812,22 +2976,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -2838,22 +3002,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -2864,22 +3028,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -2890,22 +3054,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -2916,22 +3080,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -2942,22 +3106,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -2968,22 +3132,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -2994,22 +3158,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -3020,22 +3184,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -3046,22 +3210,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -3072,22 +3236,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -3098,22 +3262,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -3124,22 +3288,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -3150,22 +3314,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -3176,25 +3340,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="20" spans="1:8">
@@ -3202,25 +3366,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="21" spans="1:8">
@@ -3228,25 +3392,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="22" spans="1:8">
@@ -3254,22 +3418,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -3280,22 +3444,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -3307,15 +3471,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A50" sqref="A50:XFD67"/>
     </sheetView>
   </sheetViews>
@@ -3361,22 +3525,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3387,22 +3551,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -3413,22 +3577,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -3439,22 +3603,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -3465,22 +3629,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -3491,22 +3655,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -3517,22 +3681,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -3543,22 +3707,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -3569,22 +3733,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -3595,22 +3759,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -3621,22 +3785,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -3647,22 +3811,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -3673,22 +3837,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -3699,25 +3863,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="G15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="54" r="16" spans="1:8">
@@ -3725,22 +3889,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -3751,22 +3915,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="G17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -3777,22 +3941,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -3803,22 +3967,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -3829,22 +3993,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -3855,22 +4019,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -3881,22 +4045,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -3907,22 +4071,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -3933,22 +4097,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -3959,22 +4123,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -3985,22 +4149,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -4011,22 +4175,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -4037,22 +4201,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -4063,22 +4227,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -4089,22 +4253,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -4115,22 +4279,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -4141,25 +4305,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="54" r="33" spans="1:8">
@@ -4167,22 +4331,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -4193,22 +4357,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -4219,22 +4383,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -4245,22 +4409,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -4271,22 +4435,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -4297,22 +4461,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C38" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -4323,22 +4487,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -4349,22 +4513,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -4375,22 +4539,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -4401,22 +4565,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -4427,22 +4591,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -4453,25 +4617,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="54" r="45" spans="1:8">
@@ -4479,22 +4643,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -4505,22 +4669,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -4531,22 +4695,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -4557,25 +4721,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="54" r="49" spans="1:8">
@@ -4583,22 +4747,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -4610,9 +4774,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -4664,25 +4828,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="3" spans="1:8">
@@ -4690,22 +4854,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -4716,22 +4880,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -4742,22 +4906,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>13</v>
@@ -4768,22 +4932,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>13</v>
@@ -4794,22 +4958,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -4820,22 +4984,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -4846,22 +5010,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -4872,22 +5036,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -4898,25 +5062,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="12" spans="1:8">
@@ -4924,22 +5088,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -4950,22 +5114,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="G13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -4976,22 +5140,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -5002,22 +5166,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -5028,22 +5192,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -5054,22 +5218,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -5080,22 +5244,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -5106,22 +5270,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -5132,22 +5296,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -5158,25 +5322,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="22" spans="1:8">
@@ -5184,22 +5348,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -5208,22 +5372,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11250" windowWidth="20730" xWindow="390" yWindow="570"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11250" windowWidth="20730" xWindow="390" yWindow="570"/>
   </bookViews>
   <sheets>
-    <sheet name="bidLoan" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="register" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="login" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="recharge" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="withdraw" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="list " sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="bidLoan11" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="add" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="audit" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="getLoanList" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="generateRepayments" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="getInvestsByMemberId" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="getInvestsByLoanId" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="getFinanceLogList" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="recharge" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="bidLoan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="register" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="login" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="recharge11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="list " sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="bidLoan11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="add" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="audit" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="getLoanList" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="generateRepayments" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="getInvestsByMemberId" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="getInvestsByLoanId" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="getFinanceLogList" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
   <si>
     <t>case_id</t>
   </si>
@@ -53,24 +54,129 @@
     <t>result</t>
   </si>
   <si>
+    <t>抱歉，请先登录</t>
+  </si>
+  <si>
+    <t>/member/recharge</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "${recharge_amount}"}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>正常登陆</t>
   </si>
   <si>
     <t>/member/login</t>
   </si>
   <si>
+    <t>{"mobilephone": "${login_mobile_phone}", "pwd": "${login_mobile_pwd}"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>正常充值，充值成功</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"806838.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"118760.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>请输入范围在0到50万之间的正数金额（510000）</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": 510000}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+  </si>
+  <si>
+    <t>请输入范围在 0 到 50 万之间的正数金额（-1）</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": -1}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>请输入数字（特殊符号）</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "！@#￥%"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
+  </si>
+  <si>
+    <t>请输入数字（数字加字母）</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "123asd"}</t>
+  </si>
+  <si>
+    <t>输入金额的金额小数不能超过两位</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": 99.999}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
+  </si>
+  <si>
+    <t>请输入金额</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": ""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
+  </si>
+  <si>
+    <t>手机格式不正确</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "156666", "amount": "99.99"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>此手机号对应的会员不存在</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15999999999", "amount": "99.99"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
+  </si>
+  <si>
+    <t>手机号不能为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "", "amount": ""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
     <t>{"mobilephone": "@123@", "pwd": "123456"}</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>参数错误:所有参数都不能为空(password="")</t>
   </si>
   <si>
@@ -98,9 +204,6 @@
     <t>{"memberId": "1115697", "password": "123456", "loanId": "11580", "amount": 99}</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
   </si>
   <si>
@@ -110,7 +213,7 @@
     <t>/member/register</t>
   </si>
   <si>
-    <t>{"mobilephone": "#@mobilephone", "pwd": "123456", "regname": "luckytest"}</t>
+    <t>{"mobilephone": "#@mobilephone", "pwd": "${register_pwd}", "regname": "luckytest"}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
@@ -119,7 +222,7 @@
     <t>手机号码已被注册</t>
   </si>
   <si>
-    <t>{"mobilephone": "15777777777", "pwd": "123456", "regname": "luckytest"}</t>
+    <t>{"mobilephone": "15666666678", "pwd": "123456", "regname": "luckytest"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
@@ -131,13 +234,10 @@
     <t>{"mobilephone": "157777", "pwd": "123456", "regname": "luckytest"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
-  </si>
-  <si>
     <t>密码长度必须为6~18（长度小于6位）</t>
   </si>
   <si>
-    <t>{"mobilephone": "15777777777", "pwd": "123", "regname": "luckytest"}</t>
+    <t>{"mobilephone": "15666666678", "pwd": "123", "regname": "luckytest"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
@@ -146,43 +246,31 @@
     <t>密码长度必须为6~18（长度大于18位）</t>
   </si>
   <si>
-    <t>{"mobilephone": "15777777777", "pwd": "1234567890123456789", "regname": "luckytest"}</t>
+    <t>{"mobilephone": "15666666678", "pwd": "1234567890123456789", "regname": "luckytest"}</t>
   </si>
   <si>
     <t>密码不能为空</t>
   </si>
   <si>
-    <t>{"mobilephone": "15777777777", "pwd": "", "regname": "luckytest"}</t>
+    <t>{"mobilephone": "15666666678", "pwd": "", "regname": "luckytest"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
   </si>
   <si>
-    <t>手机号不能为空</t>
-  </si>
-  <si>
     <t>{"mobilephone": "", "pwd": "123456", "regname": "luckytest"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
     <t>正常登陆（get）</t>
   </si>
   <si>
-    <t>{"mobilephone": "15666666666", "pwd": "123456"}</t>
-  </si>
-  <si>
     <t>正常登陆（post）</t>
   </si>
   <si>
-    <t>{"mobilephone": "15777777777", "pwd": "123456"}</t>
-  </si>
-  <si>
     <t>密码错误</t>
   </si>
   <si>
-    <t>{"mobilephone": "15777777777", "pwd": "1234567"}</t>
+    <t>{"mobilephone": "${login_mobile_phone}", "pwd": "1234567"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
@@ -197,7 +285,7 @@
     <t>密码为空</t>
   </si>
   <si>
-    <t>{"mobilephone": "157777", "pwd": ""}</t>
+    <t>{"mobilephone": "${login_mobile_phone}", "pwd": ""}</t>
   </si>
   <si>
     <t>手机号为空</t>
@@ -206,157 +294,58 @@
     <t>{"mobilephone": "", "pwd": "123456"}</t>
   </si>
   <si>
-    <t>抱歉，请先登录</t>
-  </si>
-  <si>
-    <t>/member/recharge</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": 123}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"112307.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>正常充值，充值成功</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": 5100}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"806838.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"117407.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>请输入范围在0到50万之间的正数金额（510000）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": 510000}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
-  </si>
-  <si>
-    <t>请输入范围在 0 到 50 万之间的正数金额（-1）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": -1}</t>
-  </si>
-  <si>
-    <t>请输入数字（特殊符号）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": "！@#￥%"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
-  </si>
-  <si>
-    <t>请输入数字（数字加字母）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": "123asd"}</t>
-  </si>
-  <si>
-    <t>输入金额的金额小数不能超过两位</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": 99.999}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
-  </si>
-  <si>
-    <t>请输入金额</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": ""}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
-  </si>
-  <si>
-    <t>手机格式不正确</t>
+    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"117776.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>/member/withdraw</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "${withdraw_amount}"}</t>
+  </si>
+  <si>
+    <t>取现成功</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"843102.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"取现成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1114425,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15777777777","leaveamount":"8629.00","type":"1","regtime":"2019-01-15 14:15:59.0"},"msg":"取现成功"}</t>
+  </si>
+  <si>
+    <t>余额不足，请修改提现额度</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "500000"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": 510000}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": -1}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "！@#￥%"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "123asd"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": 99.999}</t>
+  </si>
+  <si>
+    <t>请输入金额(会出现错误没有返回结果)</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": ""}</t>
   </si>
   <si>
     <t>{"mobilephone": "156666", "amount": 99.99}</t>
   </si>
   <si>
-    <t>此手机号对应的会员不存在</t>
-  </si>
-  <si>
     <t>{"mobilephone": "15999999999", "amount": 99.99}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "", "amount": ""}</t>
-  </si>
-  <si>
-    <t>/member/withdraw</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": 123}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114425,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15777777777","leaveamount":"8803.00","type":"1","regtime":"2019-01-15 14:15:59.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>取现成功</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": 51}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"843102.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114425,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15777777777","leaveamount":"8752.00","type":"1","regtime":"2019-01-15 14:15:59.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
-    <t>余额不足，请修改提现额度</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": "500000"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": 510000}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": -1}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": "！@#￥%"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": "123asd"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": 99.999}</t>
-  </si>
-  <si>
-    <t>请输入金额(会出现错误没有返回结果)</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": ""}</t>
   </si>
   <si>
     <t>{"status":1,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
@@ -510,6 +499,9 @@
   <si>
     <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
         "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "pwd": "123456"}</t>
   </si>
   <si>
     <t>加标成功</t>
@@ -1384,26 +1376,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet14">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="G2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="G2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="6.875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
-    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="39.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="40.25"/>
-    <col customWidth="1" max="7" min="7" style="1" width="24.875"/>
-    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
+    <col customWidth="1" max="1" min="1" style="1" width="4.875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24"/>
+    <col customWidth="1" max="3" min="3" style="1" width="23.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="36.375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="7.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="40.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="31.25"/>
+    <col customWidth="1" max="8" min="8" style="1" width="9"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="27" r="1" spans="1:8">
@@ -1432,7 +1424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
+    <row customHeight="1" ht="40.5" r="2" spans="1:8">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1448,7 +1440,7 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -1474,11 +1466,17 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:8">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="4" spans="1:8">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -1486,16 +1484,22 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" t="s">
         <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="5" spans="1:8">
@@ -1506,16 +1510,230 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="6" spans="1:8">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:8">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="9" spans="1:8">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="10" spans="1:8">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:8">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="12" spans="1:8">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="13" spans="1:8">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1525,6 +1743,606 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet8">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="5.375"/>
+    <col customWidth="1" max="2" min="2" width="24.5"/>
+    <col customWidth="1" max="3" min="3" width="14.25"/>
+    <col customWidth="1" max="4" min="4" width="31.875"/>
+    <col customWidth="1" max="5" min="5" width="7.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="41.125"/>
+    <col customWidth="1" max="7" min="7" width="36.625"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="27" r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:8">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:8">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:8">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:8">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:8">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="12" spans="1:8">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="13" spans="1:8">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" t="s">
+        <v>285</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="14" spans="1:8">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="15" spans="1:8">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="16" spans="1:8">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="17" spans="1:8">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="18" spans="1:8">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" t="s">
+        <v>300</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="19" spans="1:8">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" t="s">
+        <v>303</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="20" spans="1:8">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G20" t="s">
+        <v>306</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="21" spans="1:8">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G21" t="s">
+        <v>310</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="22" spans="1:8">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" t="s">
+        <v>313</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet9">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1542,7 +2360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet10">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1560,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet11">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1578,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet12">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1596,7 +2414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet13">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1616,6 +2434,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet14">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="G2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="6.875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="39.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="40.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="24.875"/>
+    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="27" r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1623,7 +2583,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="G2:H8"/>
+      <selection activeCell="H8" sqref="G3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1669,22 +2629,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1695,22 +2655,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1721,22 +2681,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -1747,22 +2707,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -1773,22 +2733,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -1799,22 +2759,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -1825,22 +2785,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -1852,7 +2812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1861,7 +2821,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="G2:H7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1901,79 +2861,79 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
+    <row customHeight="1" ht="40.5" r="2" spans="1:8">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="4" spans="1:8">
+    <row customHeight="1" ht="40.5" r="4" spans="1:8">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -1984,22 +2944,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -2010,22 +2970,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -2036,22 +2996,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -2063,7 +3023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2071,8 +3031,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -2113,53 +3073,53 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
+    <row customHeight="1" ht="40.5" r="2" spans="1:8">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -2170,178 +3130,178 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
+    <row customHeight="1" ht="40.5" r="5" spans="1:8">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="6" spans="1:8">
+    <row customHeight="1" ht="40.5" r="6" spans="1:8">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="7" spans="1:8">
+    <row customHeight="1" ht="40.5" r="7" spans="1:8">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="8" spans="1:8">
+    <row customHeight="1" ht="40.5" r="8" spans="1:8">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="9" spans="1:8">
+    <row customHeight="1" ht="40.5" r="9" spans="1:8">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="10" spans="1:8">
+    <row customHeight="1" ht="40.5" r="10" spans="1:8">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -2352,25 +3312,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="12" spans="1:8">
@@ -2378,25 +3338,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="13" spans="1:8">
@@ -2404,25 +3364,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2431,7 +3391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2439,8 +3399,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="A15:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -2481,264 +3441,264 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
+    <row customHeight="1" ht="40.5" r="2" spans="1:8">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="81" r="4" spans="1:8">
+    <row customHeight="1" ht="94.5" r="4" spans="1:8">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
+    <row customHeight="1" ht="40.5" r="5" spans="1:8">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="6" spans="1:8">
+    <row customHeight="1" ht="40.5" r="6" spans="1:8">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="7" spans="1:8">
+    <row customHeight="1" ht="40.5" r="7" spans="1:8">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="8" spans="1:8">
+    <row customHeight="1" ht="40.5" r="8" spans="1:8">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="9" spans="1:8">
+    <row customHeight="1" ht="40.5" r="9" spans="1:8">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="10" spans="1:8">
+    <row customHeight="1" ht="40.5" r="10" spans="1:8">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="11" spans="1:8">
+    <row customHeight="1" ht="40.5" r="11" spans="1:8">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="12" spans="1:8">
@@ -2746,25 +3706,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="13" spans="1:8">
@@ -2772,25 +3732,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="14" spans="1:8">
@@ -2798,25 +3758,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +3785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2843,7 +3803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet6">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2898,25 +3858,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="3" spans="1:8">
@@ -2924,22 +3884,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -2950,22 +3910,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -2976,22 +3936,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -3002,22 +3962,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -3028,22 +3988,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -3054,22 +4014,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -3080,22 +4040,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -3106,22 +4066,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -3132,22 +4092,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -3158,22 +4118,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -3184,22 +4144,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -3210,22 +4170,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -3236,22 +4196,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -3262,22 +4222,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -3288,22 +4248,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -3314,22 +4274,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -3340,25 +4300,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="20" spans="1:8">
@@ -3366,25 +4326,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="21" spans="1:8">
@@ -3392,25 +4352,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="22" spans="1:8">
@@ -3418,22 +4378,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -3444,22 +4404,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -3471,7 +4431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet7">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3525,22 +4485,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3551,22 +4511,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -3577,22 +4537,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -3603,22 +4563,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -3629,22 +4589,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -3655,22 +4615,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -3681,22 +4641,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -3707,22 +4667,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -3733,22 +4693,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -3759,22 +4719,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -3785,22 +4745,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -3811,22 +4771,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -3837,22 +4797,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -3863,25 +4823,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" t="s">
         <v>184</v>
       </c>
-      <c r="G15" t="s">
-        <v>187</v>
-      </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="54" r="16" spans="1:8">
@@ -3889,22 +4849,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -3915,22 +4875,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -3941,22 +4901,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -3967,22 +4927,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -3993,22 +4953,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -4019,22 +4979,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -4045,22 +5005,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -4071,22 +5031,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -4097,22 +5057,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -4123,22 +5083,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -4149,22 +5109,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -4175,22 +5135,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -4201,22 +5161,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -4227,22 +5187,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -4253,22 +5213,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -4279,22 +5239,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -4305,25 +5265,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="54" r="33" spans="1:8">
@@ -4331,22 +5291,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -4357,22 +5317,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -4383,22 +5343,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -4409,22 +5369,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -4435,22 +5395,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -4461,22 +5421,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G38" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -4487,22 +5447,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -4513,22 +5473,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -4539,22 +5499,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -4565,22 +5525,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G42" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -4591,22 +5551,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -4617,25 +5577,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" t="s">
-        <v>161</v>
-      </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="54" r="45" spans="1:8">
@@ -4643,22 +5603,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -4669,22 +5629,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -4695,22 +5655,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -4721,25 +5681,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G48" t="s">
-        <v>161</v>
-      </c>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="54" r="49" spans="1:8">
@@ -4747,22 +5707,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -4772,604 +5732,4 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet8">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="5.375"/>
-    <col customWidth="1" max="2" min="2" width="24.5"/>
-    <col customWidth="1" max="3" min="3" width="14.25"/>
-    <col customWidth="1" max="4" min="4" width="31.875"/>
-    <col customWidth="1" max="5" min="5" width="7.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="41.125"/>
-    <col customWidth="1" max="7" min="7" width="36.625"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G9" t="s">
-        <v>278</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" t="s">
-        <v>281</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G12" t="s">
-        <v>288</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" t="s">
-        <v>288</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G14" t="s">
-        <v>288</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="17" spans="1:8">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" t="s">
-        <v>300</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C18" t="s">
-        <v>260</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G18" t="s">
-        <v>303</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G19" t="s">
-        <v>306</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="20" spans="1:8">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G20" t="s">
-        <v>309</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="21" spans="1:8">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" t="s">
-        <v>313</v>
-      </c>
-      <c r="H21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="22" spans="1:8">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G22" t="s">
-        <v>316</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE62F19A-AD92-472D-889A-603EE0C697E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="20730" windowHeight="11250" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -21,12 +27,12 @@
     <sheet name="getInvestsByLoanId" sheetId="12" r:id="rId12"/>
     <sheet name="getFinanceLogList" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="302">
   <si>
     <t>case_id</t>
   </si>
@@ -172,45 +178,72 @@
     <t>/member/recharge</t>
   </si>
   <si>
+    <t>{"mobilephone": "15666666678", "amount": 123}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
   </si>
   <si>
     <t>正常登陆</t>
   </si>
   <si>
+    <t>{"mobilephone": "15666666678", "pwd": "123456"}</t>
+  </si>
+  <si>
     <t>正常充值，充值成功</t>
   </si>
   <si>
+    <t>{"mobilephone": "15666666678", "amount": 5100}</t>
+  </si>
+  <si>
     <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"806838.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>请输入范围在0到50万之间的正数金额（510000）</t>
   </si>
   <si>
+    <t>{"mobilephone": "15666666678", "amount": 510000}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
   </si>
   <si>
     <t>请输入范围在 0 到 50 万之间的正数金额（-1）</t>
   </si>
   <si>
+    <t>{"mobilephone": "15666666678", "amount": -1}</t>
+  </si>
+  <si>
     <t>请输入数字（特殊符号）</t>
   </si>
   <si>
+    <t>{"mobilephone": "15666666678", "amount": "！@#￥%"}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
   </si>
   <si>
     <t>请输入数字（数字加字母）</t>
   </si>
   <si>
+    <t>{"mobilephone": "15666666678", "amount": "123asd"}</t>
+  </si>
+  <si>
     <t>输入金额的金额小数不能超过两位</t>
   </si>
   <si>
+    <t>{"mobilephone": "15666666678", "amount": 99.999}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
   </si>
   <si>
     <t>请输入金额</t>
   </si>
   <si>
+    <t>{"mobilephone": "15666666678", "amount": None}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
   </si>
   <si>
@@ -235,13 +268,13 @@
     <t>/member/withdraw</t>
   </si>
   <si>
-    <t>{"mobilephone": "**mobilephone**", "pwd": "123456"}</t>
+    <t>{"mobilephone": "15777777777", "amount": 123}</t>
   </si>
   <si>
     <t>取现成功</t>
   </si>
   <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": 51}</t>
+    <t>{"mobilephone": "15777777777", "amount": 51}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"843102.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"取现成功"}</t>
@@ -250,28 +283,28 @@
     <t>余额不足，请修改提现额度</t>
   </si>
   <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": "500000"}</t>
+    <t>{"mobilephone": "15777777777", "amount": "500000"}</t>
   </si>
   <si>
     <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
   </si>
   <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": 510000}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": -1}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": "！@#￥%"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": "123asd"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": 99.999}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": None}</t>
+    <t>{"mobilephone": "15777777777", "amount": 510000}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "amount": -1}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "amount": "！@#￥%"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "amount": "123asd"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "amount": 99.999}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777777", "amount": None}</t>
   </si>
   <si>
     <t>{"status":1,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
@@ -283,7 +316,7 @@
     <t>/member/bidLoan</t>
   </si>
   <si>
-    <t>{"mobilephone": "15666666678", "pwd": "123456"}</t>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": 11580, "amount": 100}</t>
   </si>
   <si>
     <t>参数错误:所有参数都不能为空(memberId="")</t>
@@ -298,10 +331,19 @@
     <t>参数错误:所有参数都不能为空(password="")</t>
   </si>
   <si>
+    <t>{"memberId": 1115697, "password": "", "loanId": 10, "amount": 100}</t>
+  </si>
+  <si>
     <t>参数错误:所有参数都不能为空(loanid="")</t>
   </si>
   <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": "", "amount": 100}</t>
+  </si>
+  <si>
     <t>参数错误:所有参数都不能为空(amount="")</t>
+  </si>
+  <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": 10, "amount":"" }</t>
   </si>
   <si>
     <t>参数错误，memberId必须是大于0的正整数（memberId=-1）</t>
@@ -323,6 +365,9 @@
 位且小于 18 位（password："123"）</t>
   </si>
   <si>
+    <t>{"memberId": 1115697, "password": "123", "loanId": "df234", "amount": 100}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"11006","data":null,"msg":"参数错误，password长度必须大于6位且小于18位"}</t>
   </si>
   <si>
@@ -330,24 +375,39 @@
 位且小于 18 位（password："1234567890123456789"）</t>
   </si>
   <si>
+    <t>{"memberId": 1115697, "password": "1234567890123456789", "loanId": "df234", "amount": 100}</t>
+  </si>
+  <si>
     <t>密码错误（password："123456789012345678"）</t>
   </si>
   <si>
+    <t>{"memberId": 1115697, "password": "123456789012345678", "loanId": "df234", "amount": 100}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"","data":null,"msg":"密码错误"}</t>
   </si>
   <si>
     <t>参数错误，投资金额必须能被 100整除的正整数(amount:99)</t>
   </si>
   <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": 99}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
   </si>
   <si>
     <t>参数错误，投资金额必须能被 100整除的正整数(amount:-100)</t>
   </si>
   <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": -100}</t>
+  </si>
+  <si>
     <t>参数错误，投资金额必须能被 100整除的正整数(amount:0)</t>
   </si>
   <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": 0}</t>
+  </si>
+  <si>
     <t>不存在该用户(memberid=110)</t>
   </si>
   <si>
@@ -360,15 +420,24 @@
     <t>不存在该标的（loainid=-1）</t>
   </si>
   <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": -1, "amount": 100}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
   </si>
   <si>
     <t>不存在该标的（loainid=0）</t>
   </si>
   <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": 0, "amount": 100}</t>
+  </si>
+  <si>
     <t>该标不在竞标中状态，无法完成投标(loanId=11580)</t>
   </si>
   <si>
+    <t>{"memberId": 1115697, "password": "123456", "loanId": "11580", "amount": 100}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"11010","data":null,"msg":"该标不在竞标中状态，无法完成投标"}</t>
   </si>
   <si>
@@ -402,10 +471,17 @@
     <t>请根据数值参数的类型对应输入合法的数字（amount=abc）</t>
   </si>
   <si>
+    <t>{"memberId": "1115697", "password": "123456", "loanId": "11580", "amount": "abc"}</t>
+  </si>
+  <si>
     <t>投资成功，全局声明loainid</t>
   </si>
   <si>
     <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"memberId": 1114425, "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
   </si>
   <si>
     <t>加标成功</t>
@@ -427,22 +503,50 @@
     <t>参数错误：参数不能为空（title为空）</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：参数不能为空（amount为空）</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": '', "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：参数不能为空（loanRate为空）</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": '', "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：参数不能为空（loanTerm为空）</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": '',
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：参数不能为空（loanDateType为空）</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": '', "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：参数不能为空（repaymemtWay为空）</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": '', "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：参数不能为空（biddingDays为空）</t>
+  </si>
+  <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": ''}</t>
   </si>
   <si>
     <t>不存在该会员</t>
@@ -492,105 +596,225 @@
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(amount=abc)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": "abc", "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(amount=#$@#%)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": "#$@#%", "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=-1)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": -1, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20106","data":null,"msg":"参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
   </si>
   <si>
     <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=0)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 0, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：借款金额 amount 必须为大于 1000 并能被 100 整除的正整数(amount=1)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 1, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=10)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=99)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 99, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：借款金额amount必须为大于1000并能被100整除的正整数(amount=101)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 101, "loanRate": 10.0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanRat=abc)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 'abc', "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanRat=###%%^)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": '###%%^', "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=-1)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": -1, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20107","data":null,"msg":"参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
   </si>
   <si>
     <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=0)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 0, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：借款利率 loanRate 值必须大于 0 小于或等于 24(loanRat=25)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 25, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>加标成功(loanRat=24)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=999)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 999,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=dsf)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 'dsf',
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanTerm=￥@#%)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": '￥@#%',
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=@#%@#%)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": '@#%@#%', "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=abc)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 'abc', "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=-1)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": -1, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20108","data":null,"msg":"参数错误：借款日期类型loanDateType只能为0,2,4"}</t>
   </si>
   <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字(loanDateType=1)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType":1, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>加标成功(loanDateType=0)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType":0, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>加标成功(loanDateType=2)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType":2, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>加标成功(loanDateType=4)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType":4, "repaymemtWay": 4, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（repaymemtWay=abc)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 'abc', "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（repaymemtWay=(*&amp;^%^%)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": '(*&amp;^%^%', "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>参数错误：还款方式 repaymemtWay值应该属于[4,5,10,11](repaymemtWay=-1)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": -1, "biddingDays": 1}</t>
+  </si>
+  <si>
     <t>加标成功(repaymemtWay=4)</t>
   </si>
   <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（biddingDays=abc)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 'abc'}</t>
+  </si>
+  <si>
     <t>参数错误：请根据参数类型对应输入， 数值类型只能输入数字（biddingDays=&amp;^%%)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": '&amp;^%%'}</t>
+  </si>
+  <si>
     <t>参数错误：竞标天数 biddingDays值应该属于rangeint（1，10）(biddingDays=-1)</t>
   </si>
   <si>
+    <t>{"memberId": "1114425", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
+        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": -1}</t>
+  </si>
+  <si>
     <t xml:space="preserve">加标成功 竞标天数(biddingDays=1) </t>
   </si>
   <si>
@@ -760,256 +984,16 @@
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为审核中状态"}</t>
-  </si>
-  <si>
-    <t>请输入金额(会出现错误没有返回结果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号不能为空(会出现错误没有返回结果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone": "**mobilephone**", "amount": 123}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": 123}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": 5100}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": 510000}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": -1}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": "！@#￥%"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": "123asd"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": 99.999}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "$$mobilephone$$", "amount": None}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": 11580, "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "", "loanId": 10, "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": "", "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": 10, "amount":"" }</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "123", "loanId": "df234", "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "1234567890123456789", "loanId": "df234", "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "123456789012345678", "loanId": "df234", "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": "11580", "amount": 99}</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": "11580", "amount": -100}</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": "11580", "amount": 0}</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": -1, "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": 0, "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"memberId": "$$memberId$$", "password": "123456", "loanId": "11580", "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"memberId": ""$$memberId$$"", "password": "123456", "loanId": "11580", "amount": "abc"}</t>
-  </si>
-  <si>
-    <t>{"memberId": **member1_id**, "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": '', "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": '', "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": '',
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": '', "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": '', "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": ''}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": "abc", "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": "#$@#%", "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": -1, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 0, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 1, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 99, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 101, "loanRate": 10.0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 'abc', "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": '###%%^', "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": -1, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 0, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 25, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 999,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 'dsf',
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": '￥@#%',
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType": '@#%@#%', "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType": 'abc', "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType": -1, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType":1, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType":0, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType":2, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType":4, "repaymemtWay": 4, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 'abc', "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": '(*&amp;^%^%', "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": -1, "biddingDays": 1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 'abc'}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": '&amp;^%%'}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": -1}</t>
-  </si>
-  <si>
-    <t>{"memberId": "**member1_id**", "title": "lucyktest1", "amount": 10000, "loanRate": 24, "loanTerm": 6,
-        "loanDateType": 0, "repaymemtWay": 4, "biddingDays": 1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,6 +1054,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1357,14 +1349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H8" sqref="G2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
@@ -1376,7 +1368,7 @@
     <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1422,7 +1414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1442,7 +1434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1">
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1462,7 +1454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1482,7 +1474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1">
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1502,7 +1494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1">
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1522,7 +1514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1">
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1545,17 +1537,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1563,12 +1555,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1576,12 +1568,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1589,12 +1581,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1602,14 +1594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -1620,7 +1612,7 @@
     <col min="7" max="7" width="36.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1666,7 +1658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1686,7 +1678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1">
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1706,7 +1698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1726,7 +1718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1746,7 +1738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1">
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1774,14 +1766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="G2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -1793,7 +1785,7 @@
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1830,27 +1822,29 @@
         <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>246</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1858,159 +1852,175 @@
       <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="81" customHeight="1">
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>248</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -2018,28 +2028,32 @@
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1">
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2050,7 +2064,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -2058,23 +2072,25 @@
       <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
@@ -2086,7 +2102,7 @@
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2120,32 +2136,30 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -2153,195 +2167,179 @@
       <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" ht="81" customHeight="1">
+    </row>
+    <row r="4" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -2349,43 +2347,39 @@
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1">
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" ht="27" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -2397,19 +2391,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2417,14 +2411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
@@ -2436,7 +2430,7 @@
     <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2462,38 +2456,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>254</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -2502,409 +2496,409 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1">
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="67.5" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="40.5" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="40.5" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="40.5" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="40.5" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="27" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2915,14 +2909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
@@ -2933,7 +2927,7 @@
     <col min="7" max="7" width="35.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2959,7 +2953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="67.5" customHeight="1">
+    <row r="2" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2967,24 +2961,24 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -2999,924 +2993,924 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1">
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="54" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="54" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>271</v>
+        <v>159</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>274</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="54" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="54" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="54" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="67.5" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="54" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="54" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="67.5" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="67.5" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>279</v>
+        <v>189</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="67.5" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="67.5" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="67.5" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="67.5" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="54" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="67.5" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="54" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="54" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="54" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="54" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="54" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="54" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="67.5" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="81" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="81" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="54" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="54" customHeight="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="54" customHeight="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="54" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="54" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="67.5" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="67.5" customHeight="1">
+    </row>
+    <row r="43" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="67.5" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="54" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="54" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="67.5" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="67.5" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="54" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3927,14 +3921,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -3945,7 +3939,7 @@
     <col min="7" max="7" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3971,40 +3965,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -4015,390 +4009,390 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1">
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1">
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" customHeight="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" customHeight="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="40.5" customHeight="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4408,12 +4402,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4200ED71-4DFA-4B62-AE99-633F835A9AE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6435" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="invest" sheetId="1" r:id="rId1"/>
-    <sheet name="bidLoan112" sheetId="2" r:id="rId2"/>
-    <sheet name="register" sheetId="3" r:id="rId3"/>
-    <sheet name="login" sheetId="4" r:id="rId4"/>
-    <sheet name="recharge" sheetId="5" r:id="rId5"/>
-    <sheet name="withdraw" sheetId="6" r:id="rId6"/>
-    <sheet name="list " sheetId="7" r:id="rId7"/>
-    <sheet name="bidLoan" sheetId="8" r:id="rId8"/>
-    <sheet name="add" sheetId="9" r:id="rId9"/>
-    <sheet name="audit" sheetId="10" r:id="rId10"/>
-    <sheet name="getLoanList" sheetId="11" r:id="rId11"/>
-    <sheet name="generateRepayments" sheetId="12" r:id="rId12"/>
-    <sheet name="getInvestsByMemberId" sheetId="13" r:id="rId13"/>
-    <sheet name="getInvestsByLoanId" sheetId="14" r:id="rId14"/>
-    <sheet name="getFinanceLogList" sheetId="15" r:id="rId15"/>
+    <sheet name="invest" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="bidLoan112" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="register" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="login" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="recharge" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="list " sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="bidLoan" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="add" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="audit" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="getLoanList" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="generateRepayments" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="getInvestsByMemberId" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="getInvestsByLoanId" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="getFinanceLogList" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
   <si>
     <t>case_id</t>
   </si>
@@ -84,22 +78,34 @@
     <t>/loan/add</t>
   </si>
   <si>
+    <t>{"memberId": "${loan_member_id}", "title": "luckytest", "amount": 20000, "loanRate": "12.0", "loanTerm": 3, "loanDateType": 0, "repaymemtWay": 11, "biddingDays": 5}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
+  </si>
+  <si>
     <t>管理员审核</t>
   </si>
   <si>
     <t>/loan/audit</t>
   </si>
   <si>
-    <t>{"Id":"${loan_id}",  "status":4}</t>
+    <t>{"Id":"${loan_id}", "status":4}</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20203","data":null,"msg":"参数错误：所有参数不能为空"}</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>投资人正常登陆</t>
   </si>
   <si>
-    <t>{"mobilephone": "${normal_user}", "pwd": "${normal_pwd}"</t>
+    <t>{"mobilephone": "${normal_user}", "pwd": "${normal_pwd}"}</t>
   </si>
   <si>
     <t>投资人正常投资</t>
@@ -111,18 +117,27 @@
     <t>{"memberId": "${normal_member_id}", "password": "${normal_pwd}", "loanId": "${loan_id}", "amount": "100"}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"11010","data":null,"msg":"该标不在竞标中状态，无法完成投标"}</t>
+  </si>
+  <si>
     <t>投资人投资不输入金额</t>
   </si>
   <si>
     <t>{"memberId": "${normal_member_id}", "password": "${normal_pwd}", "loanId": "${loan_id}", "amount": ""}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
+  </si>
+  <si>
     <t>投资人投资输入负数</t>
   </si>
   <si>
     <t>{"memberId": "${normal_member_id}", "password": "${normal_pwd}", "loanId": "${loan_id}", "amount": "-100"}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
+  </si>
+  <si>
     <t>正常登陆</t>
   </si>
   <si>
@@ -135,9 +150,6 @@
     <t>{"memberId": "1115697", "password": "", "loanId": 10, "amount": 100}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
-  </si>
-  <si>
     <t>密码错误（password："123456789012345678"）</t>
   </si>
   <si>
@@ -151,9 +163,6 @@
   </si>
   <si>
     <t>{"memberId": "1115697", "password": "123456", "loanId": "11580", "amount": 99}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
   </si>
   <si>
     <t>注册成功</t>
@@ -515,9 +524,6 @@
     <t>{"memberId": "${bidloan_memberId}", "password": "${bidloan_login_mobile_pwd}", "loanId": "${bidloan_loanId}", "amount": "${bidloan_amount}"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"11010","data":null,"msg":"该标不在竞标中状态，无法完成投标"}</t>
-  </si>
-  <si>
     <t>该标已经满标,无法进行投资</t>
   </si>
   <si>
@@ -561,9 +567,6 @@
     <t>加标成功</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
-  </si>
-  <si>
     <t>参数错误：参数不能为空（member为空）</t>
   </si>
   <si>
@@ -921,9 +924,6 @@
     <t>{"id": 11587,  "status": ""}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20203","data":null,"msg":"参数错误：所有参数不能为空"}</t>
-  </si>
-  <si>
     <t>参数错误：所有参数不能为空(id="")</t>
   </si>
   <si>
@@ -1075,59 +1075,51 @@
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为审核中状态"}</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>{"memberId": "${loan_member_id}", "title": "luckytest", "amount": 20000, "loanRate": "12.0", "loanTerm": 3,
-        "loanDateType": 0, "repaymemtWay": 11, "biddingDays": 5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt formatCode="0.00_ " numFmtId="164"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1317,114 +1309,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="38">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1712,26 +1710,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="83.125" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="24" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="6.125"/>
+    <col customWidth="1" max="2" min="2" width="18"/>
+    <col customWidth="1" max="3" min="3" width="16.375"/>
+    <col customWidth="1" max="4" min="4" width="83.125"/>
+    <col customWidth="1" max="5" min="5" style="24" width="7.875"/>
+    <col customWidth="1" max="6" min="6" style="1" width="10"/>
+    <col customWidth="1" max="7" min="7" style="1" width="70.625"/>
+    <col customWidth="1" max="8" min="8" style="24" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1757,8 +1759,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1773,7 +1775,7 @@
       <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="6" t="n">
         <v>10001</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1783,8 +1785,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1794,176 +1796,182 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+    <row customHeight="1" ht="27" r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="n">
         <v>10001</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:8">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10001</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:8">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>10003</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10003</v>
-      </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:8" thickBot="1">
+      <c r="A8" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>10007</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4">
-        <v>10007</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>331</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Sheet8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet8">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="62.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.125" customWidth="1"/>
-    <col min="8" max="8" width="9" style="24" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.5"/>
+    <col customWidth="1" max="2" min="2" width="27.75"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="31.875"/>
+    <col customWidth="1" max="5" min="5" style="24" width="8.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="62.125"/>
+    <col customWidth="1" max="7" min="7" width="61.125"/>
+    <col customWidth="1" max="8" min="8" style="24" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1989,651 +1997,673 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:8">
+      <c r="A6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:8">
+      <c r="A7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:8">
+      <c r="A8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:8">
+      <c r="A9" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:8">
+      <c r="A10" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:8">
+      <c r="A11" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="12" spans="1:8">
+      <c r="A12" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="13" spans="1:8">
+      <c r="A13" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="14" spans="1:8">
+      <c r="A14" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="15" spans="1:8">
+      <c r="A15" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="16" spans="1:8">
+      <c r="A16" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="17" spans="1:8">
+      <c r="A17" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="18" spans="1:8">
+      <c r="A18" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="B18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D18" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="19" spans="1:8">
+      <c r="A19" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D19" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="20" spans="1:8">
+      <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="B20" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D20" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="21" spans="1:8">
+      <c r="A21" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D21" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="22" spans="1:8" thickBot="1">
+      <c r="A22" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>330</v>
+        <v>21</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet9">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet10">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet11">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet12">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet13">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet14">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="6.875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="39.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="40.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="24.875"/>
+    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2659,23 +2689,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="33" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -2685,95 +2715,97 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="13" customWidth="1"/>
-    <col min="6" max="6" width="49.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="53.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="5.625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="20"/>
+    <col customWidth="1" max="3" min="3" style="1" width="18.125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="52.25"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.25"/>
+    <col customWidth="1" max="6" min="6" style="1" width="49.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="53.75"/>
+    <col customWidth="1" max="8" min="8" style="13" width="10.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2799,217 +2831,219 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:8">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="6" spans="1:8">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:8">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:8" thickBot="1">
+      <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6" style="13" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="48" style="28" customWidth="1"/>
-    <col min="7" max="7" width="58.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="24" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6"/>
+    <col customWidth="1" max="2" min="2" style="1" width="15.625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="16.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="53.125"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.875"/>
+    <col customWidth="1" max="6" min="6" style="33" width="48"/>
+    <col customWidth="1" max="7" min="7" style="1" width="58.625"/>
+    <col customWidth="1" max="8" min="8" style="24" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3059,7 @@
       <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -3035,190 +3069,193 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:8">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="35" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>67</v>
+        <v>21</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>67</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:8">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>58</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:8" thickBot="1">
+      <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>61</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="13" customWidth="1"/>
-    <col min="6" max="6" width="54.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="5.5"/>
+    <col customWidth="1" max="2" min="2" style="1" width="22.625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.75"/>
+    <col customWidth="1" max="4" min="4" style="1" width="48.75"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8"/>
+    <col customWidth="1" max="6" min="6" style="1" width="54.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="55.25"/>
+    <col customWidth="1" max="8" min="8" style="13" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3244,347 +3281,349 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:8">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="6" spans="1:8">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:8">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:8">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="9" spans="1:8">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="10" spans="1:8">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:8">
+      <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="12" spans="1:8">
+      <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="13" spans="1:8" thickBot="1">
+      <c r="A13" s="12" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="60.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="57.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="5.625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="19.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="44.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="7.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="60.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="57.125"/>
+    <col customWidth="1" max="8" min="8" style="13" width="8.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3610,389 +3649,393 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:8">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="94.5" r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="6" spans="1:8">
+      <c r="A6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:8">
+      <c r="A7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:8">
+      <c r="A8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="9" spans="1:8">
+      <c r="A9" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="10" spans="1:8">
+      <c r="A10" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="11" spans="1:8">
+      <c r="A11" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="12" spans="1:8">
+      <c r="A12" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="13" spans="1:8">
+      <c r="A13" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="14" spans="1:8" thickBot="1">
+      <c r="A14" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="E14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet6">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="54" style="1" customWidth="1"/>
-    <col min="7" max="7" width="57.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.5"/>
+    <col customWidth="1" max="4" min="4" style="1" width="44.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="54"/>
+    <col customWidth="1" max="7" min="7" style="1" width="57.875"/>
+    <col customWidth="1" max="8" min="8" style="13" width="10.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4018,607 +4061,609 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="67.5" r="2" spans="1:8">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="6" spans="1:8">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="7" spans="1:8">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="8" spans="1:8">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="9" spans="1:8">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="10" spans="1:8">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="11" spans="1:8">
+      <c r="A11" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="12" spans="1:8">
+      <c r="A12" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="13" spans="1:8">
+      <c r="A13" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="14" spans="1:8">
+      <c r="A14" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="15" spans="1:8">
+      <c r="A15" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="16" spans="1:8">
+      <c r="A16" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="17" spans="1:8">
+      <c r="A17" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="18" spans="1:8">
+      <c r="A18" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="19" spans="1:8">
+      <c r="A19" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="20" spans="1:8">
+      <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
+    </row>
+    <row customHeight="1" ht="40.5" r="21" spans="1:8">
+      <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="22" spans="1:8">
+      <c r="A22" s="11" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="23" spans="1:8" thickBot="1">
+      <c r="A23" s="12" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet7">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6" style="24" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="72.75" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="44.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="53.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="24" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="6"/>
+    <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="14.625"/>
+    <col customWidth="1" max="4" min="4" width="72.75"/>
+    <col customWidth="1" max="5" min="5" style="24" width="7.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="44.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="53.125"/>
+    <col customWidth="1" max="8" min="8" style="24" width="8.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4644,1253 +4689,1252 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="67.5" r="2" spans="1:8">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="6" spans="1:8">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="7" spans="1:8">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+        <v>180</v>
+      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="8" spans="1:8">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="9" spans="1:8">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="10" spans="1:8">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="11" spans="1:8">
+      <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="12" spans="1:8">
+      <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="13" spans="1:8">
+      <c r="A13" s="11" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="14" spans="1:8">
+      <c r="A14" s="11" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="15" spans="1:8">
+      <c r="A15" s="11" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="16" spans="1:8">
+      <c r="A16" s="11" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="17" spans="1:8">
+      <c r="A17" s="11" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="18" spans="1:8">
+      <c r="A18" s="11" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="19" spans="1:8">
+      <c r="A19" s="11" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="20" spans="1:8">
+      <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="21" spans="1:8">
+      <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="22" spans="1:8">
+      <c r="A22" s="11" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="23" spans="1:8">
+      <c r="A23" s="11" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="24" spans="1:8">
+      <c r="A24" s="11" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="25" spans="1:8">
+      <c r="A25" s="11" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="26" spans="1:8">
+      <c r="A26" s="11" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="27" spans="1:8">
+      <c r="A27" s="11" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="28" spans="1:8">
+      <c r="A28" s="11" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="29" spans="1:8">
+      <c r="A29" s="11" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="30" spans="1:8">
+      <c r="A30" s="11" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="31" spans="1:8">
+      <c r="A31" s="11" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="32" spans="1:8">
+      <c r="A32" s="11" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="33" spans="1:8">
+      <c r="A33" s="11" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="34" spans="1:8">
+      <c r="A34" s="11" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="35" spans="1:8">
+      <c r="A35" s="11" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="36" spans="1:8">
+      <c r="A36" s="11" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="37" spans="1:8">
+      <c r="A37" s="11" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="38" spans="1:8">
+      <c r="A38" s="11" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="39" spans="1:8">
+      <c r="A39" s="11" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="40" spans="1:8">
+      <c r="A40" s="11" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="41" spans="1:8">
+      <c r="A41" s="11" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="42" spans="1:8">
+      <c r="A42" s="11" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="43" spans="1:8">
+      <c r="A43" s="11" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="44" spans="1:8">
+      <c r="A44" s="11" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="45" spans="1:8">
+      <c r="A45" s="11" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="46" spans="1:8">
+      <c r="A46" s="11" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="47" spans="1:8">
+      <c r="A47" s="11" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="48" spans="1:8">
+      <c r="A48" s="11" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="49" spans="1:8" thickBot="1">
+      <c r="A49" s="12" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -23,7 +23,7 @@
     <sheet name="getFinanceLogList" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1718,7 +1718,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>

--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6435" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6435" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="generateRepayments22" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,14 @@
     <sheet name="getLoanList" sheetId="12" r:id="rId12"/>
     <sheet name="generateRepayments" sheetId="13" r:id="rId13"/>
     <sheet name="getInvestsByMemberId" sheetId="14" r:id="rId14"/>
-    <sheet name="getInvestsByLoanId" sheetId="15" r:id="rId15"/>
-    <sheet name="getFinanceLogList" sheetId="16" r:id="rId16"/>
+    <sheet name="getFinanceLogList" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="373">
   <si>
     <t>case_id</t>
   </si>
@@ -1162,7 +1161,40 @@
     <t>{"status":1,"code":"10001","data":[{"id":null,"investId":"6739","createTime":"2019-02-02 15:22:24","terms":"1","unfinishedInterest":"1.0","unfinishedPrincipal":"0","repaymentDate":"2019-03-02 15:22:24","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6739","createTime":"2019-02-02 15:22:24","terms":"2","unfinishedInterest":"1.0","unfinishedPrincipal":"0","repaymentDate":"2019-04-02 15:22:24","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6739","createTime":"2019-02-02 15:22:24","terms":"3","unfinishedInterest":"1.0","unfinishedPrincipal":"100.00","repaymentDate":"2019-05-02 15:22:24","actualRepaymentDate":null,"status":"0"}],"msg":"生成回款计划成功"}</t>
   </si>
   <si>
-    <t>管理员输入正确状态的load_id(load status=5)</t>
+    <t>管理员未登录，直接获取用户所有投资记录</t>
+  </si>
+  <si>
+    <t>/invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>{"memberId": "${normal_member_id}"}</t>
+  </si>
+  <si>
+    <t>管理员不输入member_id(member_id="")</t>
+  </si>
+  <si>
+    <t>{"memberId": ""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"30103","data":null,"msg":"参数错误：用户id不能为空"}</t>
+  </si>
+  <si>
+    <t>管理员输入错误的member_id(member_id="adas")</t>
+  </si>
+  <si>
+    <t>{"memberId": "adas"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"30104","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
+  </si>
+  <si>
+    <t>管理员输入正确的member_id(member_id="adas")</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":[{"id":"6751","memberId":"1115697","loanId":"11909","amount":"100.00","createTime":"2019-02-02 14:09:34.0","isValid":"1"},{"id":"6748","memberId":"1115697","loanId":"11898","amount":"100.00","createTime":"2019-02-01 15:59:26.0","isValid":"1"},{"id":"6747","memberId":"1115697","loanId":"11897","amount":"100.00","createTime":"2019-02-01 15:58:39.0","isValid":"1"},{"id":"6745","memberId":"1115697","loanId":"11886","amount":"100.00","createTime":"2019-02-01 13:50:10.0","isValid":"1"},{"id":"6744","memberId":"1115697","loanId":"11885","amount":"100.00","createTime":"2019-02-01 13:33:34.0","isValid":"1"},{"id":"6743","memberId":"1115697","loanId":"11884","amount":"100.00","createTime":"2019-02-01 13:32:42.0","isValid":"1"},{"id":"6740","memberId":"1115697","loanId":"11882","amount":"100.00","createTime":"2019-02-01 10:07:00.0","isValid":"1"},{"id":"6739","memberId":"1115697","loanId":"11881","amount":"100.00","createTime":"2019-02-01 10:03:47.0","isValid":"1"},{"id":"6661","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 20:08:17.0","isValid":"1"},{"id":"6660","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 20:08:06.0","isValid":"1"},{"id":"6659","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 19:53:07.0","isValid":"1"},{"id":"6658","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 19:51:25.0","isValid":"1"},{"id":"6653","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 16:49:29.0","isValid":"1"},{"id":"6652","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 16:48:43.0","isValid":"1"},{"id":"6648","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 15:33:31.0","isValid":"1"},{"id":"6647","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 15:33:23.0","isValid":"1"},{"id":"6644","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 13:09:26.0","isValid":"1"},{"id":"6643","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 13:09:18.0","isValid":"1"}],"msg":"获取用户投资列表成功"}</t>
+  </si>
+  <si>
+    <t>动态获取参数！ 管理员输入正确状态的load_id(load status=5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4364,7 +4396,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4594,12 +4626,12 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="257.25" thickBot="1">
+    <row r="9" spans="1:9" ht="257.25" customHeight="1" thickBot="1">
       <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>341</v>
@@ -4630,33 +4662,197 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="365.25" customHeight="1" thickBot="1">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1"/>
@@ -5282,7 +5478,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6435" firstSheet="5" activeTab="12"/>
+    <workbookView activeTab="15" autoFilterDateGrouping="1" firstSheet="7" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6435" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="generateRepayments22" sheetId="1" r:id="rId1"/>
-    <sheet name="invest" sheetId="2" r:id="rId2"/>
-    <sheet name="bidLoan112" sheetId="3" r:id="rId3"/>
-    <sheet name="register" sheetId="4" r:id="rId4"/>
-    <sheet name="login" sheetId="5" r:id="rId5"/>
-    <sheet name="recharge" sheetId="6" r:id="rId6"/>
-    <sheet name="withdraw" sheetId="7" r:id="rId7"/>
-    <sheet name="list " sheetId="8" r:id="rId8"/>
-    <sheet name="bidLoan" sheetId="9" r:id="rId9"/>
-    <sheet name="add" sheetId="10" r:id="rId10"/>
-    <sheet name="audit" sheetId="11" r:id="rId11"/>
-    <sheet name="getLoanList" sheetId="12" r:id="rId12"/>
-    <sheet name="generateRepayments" sheetId="13" r:id="rId13"/>
-    <sheet name="getInvestsByMemberId" sheetId="14" r:id="rId14"/>
-    <sheet name="getFinanceLogList" sheetId="15" r:id="rId15"/>
+    <sheet name="generateRepayments22" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="invest" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="bidLoan112" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="register" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="login" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="recharge" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="withdraw" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="list " sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="bidLoan" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="add" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="audit" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="getLoanList" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="generateRepayments" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="getInvestsByMemberId" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="getInvestsByLoanId" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="getFinanceLogList" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
   <si>
     <t>case_id</t>
   </si>
@@ -183,6 +184,9 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>手机号码已被注册</t>
   </si>
   <si>
@@ -240,9 +244,6 @@
     <t>{"mobilephone": "${login_mobile_phone}", "pwd": "${login_mobile_pwd}"}</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>正常登陆（post）</t>
   </si>
   <si>
@@ -294,13 +295,13 @@
     <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"806838.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"123595.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"123618.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>正常充值，充值成功(post)</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"123718.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"123741.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>{"mobilephone": "", "amount": ""}</t>
@@ -384,10 +385,10 @@
     <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"843102.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"取现成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114425,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15777777777","leaveamount":"6538.00","type":"1","regtime":"2019-01-15 14:15:59.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114425,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15777777777","leaveamount":"6415.00","type":"1","regtime":"2019-01-15 14:15:59.0"},"msg":"取现成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1114425,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15777777777","leaveamount":"6292.00","type":"1","regtime":"2019-01-15 14:15:59.0"},"msg":"取现成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1114425,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15777777777","leaveamount":"6169.00","type":"1","regtime":"2019-01-15 14:15:59.0"},"msg":"取现成功"}</t>
   </si>
   <si>
     <t>手机号不能为空(会出现错误没有返回结果)</t>
@@ -664,7 +665,7 @@
         "loanDateType": "${add_loanDateType}", "repaymemtWay": "${add_repaymemtWay}", "biddingDays": "${add_biddingDays}"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20102","data":null,"msg":"nested exception is org.apache.ibatis.exceptions.TooManyResultsException: Expected one result (or null) to be returned by selectOne(), but found: 5805"}</t>
+    <t>{"status":0,"code":"20102","data":null,"msg":"nested exception is org.apache.ibatis.exceptions.TooManyResultsException: Expected one result (or null) to be returned by selectOne(), but found: 5823"}</t>
   </si>
   <si>
     <t>不存在该会员</t>
@@ -1152,15 +1153,15 @@
     <t>{"status":1,"code":"20405","data":null,"msg":"该项目不在核保审批或终审状态，无法生成回款计划！"}</t>
   </si>
   <si>
+    <t>动态获取参数！ 管理员输入正确状态的load_id(load status=5)</t>
+  </si>
+  <si>
     <t>{"id": "${generateRepayments_loan_id_repayments}"}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":[{"id":null,"investId":"6739","createTime":"2019-02-02 15:18:33","terms":"1","unfinishedInterest":"1.0","unfinishedPrincipal":"0","repaymentDate":"2019-03-02 15:18:33","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6739","createTime":"2019-02-02 15:18:33","terms":"2","unfinishedInterest":"1.0","unfinishedPrincipal":"0","repaymentDate":"2019-04-02 15:18:33","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6739","createTime":"2019-02-02 15:18:33","terms":"3","unfinishedInterest":"1.0","unfinishedPrincipal":"100.00","repaymentDate":"2019-05-02 15:18:33","actualRepaymentDate":null,"status":"0"}],"msg":"生成回款计划成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":[{"id":null,"investId":"6739","createTime":"2019-02-02 15:22:24","terms":"1","unfinishedInterest":"1.0","unfinishedPrincipal":"0","repaymentDate":"2019-03-02 15:22:24","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6739","createTime":"2019-02-02 15:22:24","terms":"2","unfinishedInterest":"1.0","unfinishedPrincipal":"0","repaymentDate":"2019-04-02 15:22:24","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6739","createTime":"2019-02-02 15:22:24","terms":"3","unfinishedInterest":"1.0","unfinishedPrincipal":"100.00","repaymentDate":"2019-05-02 15:22:24","actualRepaymentDate":null,"status":"0"}],"msg":"生成回款计划成功"}</t>
-  </si>
-  <si>
     <t>管理员未登录，直接获取用户所有投资记录</t>
   </si>
   <si>
@@ -1194,8 +1195,55 @@
     <t>{"status":1,"code":"10001","data":[{"id":"6751","memberId":"1115697","loanId":"11909","amount":"100.00","createTime":"2019-02-02 14:09:34.0","isValid":"1"},{"id":"6748","memberId":"1115697","loanId":"11898","amount":"100.00","createTime":"2019-02-01 15:59:26.0","isValid":"1"},{"id":"6747","memberId":"1115697","loanId":"11897","amount":"100.00","createTime":"2019-02-01 15:58:39.0","isValid":"1"},{"id":"6745","memberId":"1115697","loanId":"11886","amount":"100.00","createTime":"2019-02-01 13:50:10.0","isValid":"1"},{"id":"6744","memberId":"1115697","loanId":"11885","amount":"100.00","createTime":"2019-02-01 13:33:34.0","isValid":"1"},{"id":"6743","memberId":"1115697","loanId":"11884","amount":"100.00","createTime":"2019-02-01 13:32:42.0","isValid":"1"},{"id":"6740","memberId":"1115697","loanId":"11882","amount":"100.00","createTime":"2019-02-01 10:07:00.0","isValid":"1"},{"id":"6739","memberId":"1115697","loanId":"11881","amount":"100.00","createTime":"2019-02-01 10:03:47.0","isValid":"1"},{"id":"6661","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 20:08:17.0","isValid":"1"},{"id":"6660","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 20:08:06.0","isValid":"1"},{"id":"6659","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 19:53:07.0","isValid":"1"},{"id":"6658","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 19:51:25.0","isValid":"1"},{"id":"6653","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 16:49:29.0","isValid":"1"},{"id":"6652","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 16:48:43.0","isValid":"1"},{"id":"6648","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 15:33:31.0","isValid":"1"},{"id":"6647","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 15:33:23.0","isValid":"1"},{"id":"6644","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 13:09:26.0","isValid":"1"},{"id":"6643","memberId":"1115697","loanId":"11580","amount":"100.00","createTime":"2019-01-25 13:09:18.0","isValid":"1"}],"msg":"获取用户投资列表成功"}</t>
   </si>
   <si>
-    <t>动态获取参数！ 管理员输入正确状态的load_id(load status=5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>管理员未登录，直接获取标的投资记录</t>
+  </si>
+  <si>
+    <t>/invest/getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>{"loanId": "${audit_loan_id}"}</t>
+  </si>
+  <si>
+    <t>管理员不输入标id(loanId="")</t>
+  </si>
+  <si>
+    <t>{"loanId": ""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"30203","data":null,"msg":"参数错误：标id不能为空"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"30002","data":null,"msg":"参数错误：标id不能为空"}</t>
+  </si>
+  <si>
+    <t>管理员输入错误的标id(loanId="adas")</t>
+  </si>
+  <si>
+    <t>{"loanId": "adas"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"30204","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
+  </si>
+  <si>
+    <t>管理员输入正确的标id</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":[],"msg":"获取记录成功"}</t>
+  </si>
+  <si>
+    <t>管理员未登录，直接获取用户的流水记录</t>
+  </si>
+  <si>
+    <t>/financelog/getFinanceLogList</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"50103","data":null,"msg":"参数错误：用户id不能为空"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"50104","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":[{"id":"113230","createTime":"2019-02-02 15:07:09.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"123495.00","status":"1"},{"id":"113229","createTime":"2019-02-02 14:09:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6415.00","payMemberMoney":"123618.00","status":"1"},{"id":"113152","createTime":"2019-02-01 15:59:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123472.00","status":"1"},{"id":"113151","createTime":"2019-02-01 15:58:39.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123572.00","status":"1"},{"id":"113137","createTime":"2019-02-01 13:50:10.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123672.00","status":"1"},{"id":"113133","createTime":"2019-02-01 13:33:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123649.00","status":"1"},{"id":"113132","createTime":"2019-02-01 13:32:42.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123749.00","status":"1"},{"id":"113116","createTime":"2019-02-01 10:07:00.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123849.00","status":"1"},{"id":"113115","createTime":"2019-02-01 10:03:47.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123949.00","status":"1"},{"id":"113052","createTime":"2019-01-31 14:44:02.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"124049.00","status":"1"},{"id":"113051","createTime":"2019-01-31 14:43:57.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"124172.00","status":"1"},{"id":"112404","createTime":"2019-01-25 20:08:17.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112184.00","status":"1"},{"id":"112403","createTime":"2019-01-25 20:08:06.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112284.00","status":"1"},{"id":"112402","createTime":"2019-01-25 19:53:07.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112384.00","status":"1"},{"id":"112401","createTime":"2019-01-25 19:51:25.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112484.00","status":"1"},{"id":"112330","createTime":"2019-01-25 16:49:29.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102261.00","status":"1"},{"id":"112328","createTime":"2019-01-25 16:48:43.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102361.00","status":"1"},{"id":"112294","createTime":"2019-01-25 15:33:31.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97238.00","status":"1"},{"id":"112293","createTime":"2019-01-25 15:33:23.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97338.00","status":"1"},{"id":"112169","createTime":"2019-01-25 13:09:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66715.00","status":"1"},{"id":"112168","createTime":"2019-01-25 13:09:18.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66815.00","status":"1"}],"msg":"获取用户流水记录成功！"}</t>
   </si>
 </sst>
 </file>
@@ -1203,60 +1251,60 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt formatCode="0.00_ " numFmtId="164"/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1598,174 +1646,188 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="62">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="28" name="适中" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -2053,28 +2115,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="83.125" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="6.125"/>
+    <col customWidth="1" max="2" min="2" width="18"/>
+    <col customWidth="1" max="3" min="3" width="16.375"/>
+    <col customWidth="1" max="4" min="4" width="83.125"/>
+    <col customWidth="1" max="5" min="5" style="24" width="7.875"/>
+    <col customWidth="1" max="6" min="6" style="1" width="10"/>
+    <col customWidth="1" max="7" min="7" style="1" width="70.625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="24" width="13.25"/>
+    <col customWidth="1" max="10" min="10" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2170,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2119,7 +2185,7 @@
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="6" t="n">
         <v>10001</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -2128,10 +2194,10 @@
       <c r="H2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+      <c r="I2" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2146,7 +2212,7 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2155,10 +2221,10 @@
       <c r="H3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1">
-      <c r="A4" s="11">
+      <c r="I3" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2173,7 +2239,7 @@
       <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2182,10 +2248,10 @@
       <c r="H4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="22" t="n"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2200,7 +2266,7 @@
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2209,13 +2275,13 @@
       <c r="H5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1">
-      <c r="A6" s="11">
+      <c r="I5" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="n"/>
       <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
@@ -2225,7 +2291,7 @@
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2234,13 +2300,13 @@
       <c r="H6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="11">
+      <c r="I6" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="n"/>
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2250,7 +2316,7 @@
       <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2" t="n">
         <v>11003</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2259,13 +2325,13 @@
       <c r="H7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="A8" s="12">
+      <c r="I7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:9" thickBot="1">
+      <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="n"/>
       <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
@@ -2275,7 +2341,7 @@
       <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="n">
         <v>11007</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2284,38 +2350,40 @@
       <c r="H8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="23" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet7">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="69.875" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="44.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="24" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="6"/>
+    <col customWidth="1" max="2" min="2" width="20.125"/>
+    <col customWidth="1" max="3" min="3" width="14.25"/>
+    <col customWidth="1" max="4" min="4" width="69.875"/>
+    <col customWidth="1" max="5" min="5" style="24" width="7.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="44.375"/>
+    <col customWidth="1" max="7" min="7" style="1" width="47.5"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="24" width="13.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -2344,8 +2412,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A2" s="11">
+    <row customHeight="1" ht="67.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2367,12 +2435,12 @@
         <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" customHeight="1">
-      <c r="A3" s="11">
+        <v>51</v>
+      </c>
+      <c r="I2" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2387,19 +2455,19 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A4" s="11">
+        <v>51</v>
+      </c>
+      <c r="I3" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2421,12 +2489,12 @@
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="54" customHeight="1">
-      <c r="A5" s="11">
+        <v>51</v>
+      </c>
+      <c r="I4" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2448,12 +2516,12 @@
         <v>187</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A6" s="11">
+        <v>51</v>
+      </c>
+      <c r="I5" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2475,12 +2543,12 @@
         <v>187</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="54" customHeight="1">
-      <c r="A7" s="11">
+        <v>51</v>
+      </c>
+      <c r="I6" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2498,12 +2566,12 @@
       <c r="F7" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="54" customHeight="1">
-      <c r="A8" s="11">
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="8" spans="1:9">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2525,12 +2593,12 @@
         <v>187</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="54" customHeight="1">
-      <c r="A9" s="11">
+        <v>51</v>
+      </c>
+      <c r="I8" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="9" spans="1:9">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2552,12 +2620,12 @@
         <v>187</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A10" s="11">
+        <v>51</v>
+      </c>
+      <c r="I9" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="10" spans="1:9">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2579,12 +2647,12 @@
         <v>187</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A11" s="11">
+        <v>51</v>
+      </c>
+      <c r="I10" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="11" spans="1:9">
+      <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2606,12 +2674,12 @@
         <v>187</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A12" s="11">
+        <v>51</v>
+      </c>
+      <c r="I11" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="12" spans="1:9">
+      <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2633,12 +2701,12 @@
         <v>187</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="54" customHeight="1">
-      <c r="A13" s="38">
+        <v>51</v>
+      </c>
+      <c r="I12" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="13" spans="1:9">
+      <c r="A13" s="38" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
@@ -2660,12 +2728,12 @@
         <v>204</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" ht="54" customHeight="1">
-      <c r="A14" s="45">
+        <v>51</v>
+      </c>
+      <c r="I13" s="42" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="14" spans="1:9">
+      <c r="A14" s="45" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="46" t="s">
@@ -2689,10 +2757,10 @@
       <c r="H14" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="1:9" ht="54" customHeight="1">
-      <c r="A15" s="10">
+      <c r="I14" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="15" spans="1:9">
+      <c r="A15" s="10" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2714,12 +2782,12 @@
         <v>210</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" ht="54" customHeight="1">
-      <c r="A16" s="11">
+        <v>51</v>
+      </c>
+      <c r="I15" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="16" spans="1:9">
+      <c r="A16" s="11" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2741,12 +2809,12 @@
         <v>213</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" ht="54" customHeight="1">
-      <c r="A17" s="11">
+        <v>51</v>
+      </c>
+      <c r="I16" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="17" spans="1:9">
+      <c r="A17" s="11" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2768,12 +2836,12 @@
         <v>213</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="54" customHeight="1">
-      <c r="A18" s="11">
+        <v>51</v>
+      </c>
+      <c r="I17" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="18" spans="1:9">
+      <c r="A18" s="11" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2795,12 +2863,12 @@
         <v>213</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" ht="54" customHeight="1">
-      <c r="A19" s="11">
+        <v>51</v>
+      </c>
+      <c r="I18" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="19" spans="1:9">
+      <c r="A19" s="11" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2822,12 +2890,12 @@
         <v>213</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" ht="54" customHeight="1">
-      <c r="A20" s="11">
+        <v>51</v>
+      </c>
+      <c r="I19" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="20" spans="1:9">
+      <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2849,12 +2917,12 @@
         <v>213</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" ht="54" customHeight="1">
-      <c r="A21" s="11">
+        <v>51</v>
+      </c>
+      <c r="I20" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="21" spans="1:9">
+      <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2876,12 +2944,12 @@
         <v>213</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" ht="54" customHeight="1">
-      <c r="A22" s="11">
+        <v>51</v>
+      </c>
+      <c r="I21" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="22" spans="1:9">
+      <c r="A22" s="11" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2903,12 +2971,12 @@
         <v>226</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" ht="54" customHeight="1">
-      <c r="A23" s="11">
+        <v>51</v>
+      </c>
+      <c r="I22" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="23" spans="1:9">
+      <c r="A23" s="11" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2930,12 +2998,12 @@
         <v>226</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" ht="54" customHeight="1">
-      <c r="A24" s="11">
+        <v>51</v>
+      </c>
+      <c r="I23" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="24" spans="1:9">
+      <c r="A24" s="11" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2957,12 +3025,12 @@
         <v>226</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A25" s="11">
+        <v>51</v>
+      </c>
+      <c r="I24" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="25" spans="1:9">
+      <c r="A25" s="11" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2984,12 +3052,12 @@
         <v>233</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A26" s="11">
+        <v>51</v>
+      </c>
+      <c r="I25" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="26" spans="1:9">
+      <c r="A26" s="11" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3011,12 +3079,12 @@
         <v>233</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" ht="54" customHeight="1">
-      <c r="A27" s="11">
+        <v>51</v>
+      </c>
+      <c r="I26" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="27" spans="1:9">
+      <c r="A27" s="11" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3038,12 +3106,12 @@
         <v>238</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A28" s="11">
+        <v>51</v>
+      </c>
+      <c r="I27" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="28" spans="1:9">
+      <c r="A28" s="11" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3065,12 +3133,12 @@
         <v>238</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" ht="54" customHeight="1">
-      <c r="A29" s="11">
+        <v>51</v>
+      </c>
+      <c r="I28" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="29" spans="1:9">
+      <c r="A29" s="11" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3092,12 +3160,12 @@
         <v>238</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A30" s="11">
+        <v>51</v>
+      </c>
+      <c r="I29" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="30" spans="1:9">
+      <c r="A30" s="11" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3119,12 +3187,12 @@
         <v>238</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" ht="54" customHeight="1">
-      <c r="A31" s="11">
+        <v>51</v>
+      </c>
+      <c r="I30" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="31" spans="1:9">
+      <c r="A31" s="11" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3146,12 +3214,12 @@
         <v>238</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" spans="1:9" ht="54" customHeight="1">
-      <c r="A32" s="11">
+        <v>51</v>
+      </c>
+      <c r="I31" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="32" spans="1:9">
+      <c r="A32" s="11" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3173,12 +3241,12 @@
         <v>238</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A33" s="11">
+        <v>51</v>
+      </c>
+      <c r="I32" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="33" spans="1:9">
+      <c r="A33" s="11" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3200,12 +3268,12 @@
         <v>238</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A34" s="11">
+        <v>51</v>
+      </c>
+      <c r="I33" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="34" spans="1:9">
+      <c r="A34" s="11" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3227,12 +3295,12 @@
         <v>238</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:9" ht="54" customHeight="1">
-      <c r="A35" s="45">
+        <v>51</v>
+      </c>
+      <c r="I34" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="35" spans="1:9">
+      <c r="A35" s="45" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="46" t="s">
@@ -3256,10 +3324,10 @@
       <c r="H35" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I35" s="44"/>
-    </row>
-    <row r="36" spans="1:9" ht="54" customHeight="1">
-      <c r="A36" s="45">
+      <c r="I35" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="36" spans="1:9">
+      <c r="A36" s="45" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="46" t="s">
@@ -3283,10 +3351,10 @@
       <c r="H36" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I36" s="44"/>
-    </row>
-    <row r="37" spans="1:9" ht="54" customHeight="1">
-      <c r="A37" s="11">
+      <c r="I36" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="37" spans="1:9">
+      <c r="A37" s="11" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3308,12 +3376,12 @@
         <v>238</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="1:9" ht="54" customHeight="1">
-      <c r="A38" s="11">
+        <v>51</v>
+      </c>
+      <c r="I37" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="38" spans="1:9">
+      <c r="A38" s="11" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3335,12 +3403,12 @@
         <v>238</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" s="22"/>
-    </row>
-    <row r="39" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A39" s="11">
+        <v>51</v>
+      </c>
+      <c r="I38" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="39" spans="1:9">
+      <c r="A39" s="11" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3362,12 +3430,12 @@
         <v>238</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="22"/>
-    </row>
-    <row r="40" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A40" s="11">
+        <v>51</v>
+      </c>
+      <c r="I39" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="40" spans="1:9">
+      <c r="A40" s="11" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3389,12 +3457,12 @@
         <v>238</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A41" s="11">
+        <v>51</v>
+      </c>
+      <c r="I40" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="41" spans="1:9">
+      <c r="A41" s="11" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3416,12 +3484,12 @@
         <v>18</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" s="22"/>
-    </row>
-    <row r="42" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A42" s="11">
+        <v>51</v>
+      </c>
+      <c r="I41" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="42" spans="1:9">
+      <c r="A42" s="11" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3443,12 +3511,12 @@
         <v>18</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" s="22"/>
-    </row>
-    <row r="43" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A43" s="11">
+        <v>51</v>
+      </c>
+      <c r="I42" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="43" spans="1:9">
+      <c r="A43" s="11" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3470,12 +3538,12 @@
         <v>18</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A44" s="11">
+        <v>51</v>
+      </c>
+      <c r="I43" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="44" spans="1:9">
+      <c r="A44" s="11" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3497,12 +3565,12 @@
         <v>18</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" s="22"/>
-    </row>
-    <row r="45" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A45" s="11">
+        <v>51</v>
+      </c>
+      <c r="I44" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="45" spans="1:9">
+      <c r="A45" s="11" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3524,12 +3592,12 @@
         <v>18</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I45" s="22"/>
-    </row>
-    <row r="46" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A46" s="11">
+        <v>51</v>
+      </c>
+      <c r="I45" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="46" spans="1:9">
+      <c r="A46" s="11" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3551,12 +3619,12 @@
         <v>238</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46" s="22"/>
-    </row>
-    <row r="47" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A47" s="11">
+        <v>51</v>
+      </c>
+      <c r="I46" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="47" spans="1:9">
+      <c r="A47" s="11" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3578,12 +3646,12 @@
         <v>238</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I47" s="22"/>
-    </row>
-    <row r="48" spans="1:9" ht="54" customHeight="1">
-      <c r="A48" s="45">
+        <v>51</v>
+      </c>
+      <c r="I47" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="48" spans="1:9">
+      <c r="A48" s="45" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="46" t="s">
@@ -3607,10 +3675,10 @@
       <c r="H48" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I48" s="44"/>
-    </row>
-    <row r="49" spans="1:9" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A49" s="12">
+      <c r="I48" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="68.25" r="49" spans="1:9" thickBot="1">
+      <c r="A49" s="12" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -3632,40 +3700,42 @@
         <v>18</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I49" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="I49" s="23" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet8">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="52.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="53.25" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="24" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.5"/>
+    <col customWidth="1" max="2" min="2" width="27.75"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="31.875"/>
+    <col customWidth="1" max="5" min="5" style="24" width="8.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="52.875"/>
+    <col customWidth="1" max="7" min="7" width="53.25"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="24" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3694,8 +3764,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="27" r="2" spans="1:9">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3717,12 +3787,12 @@
         <v>84</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" customHeight="1">
-      <c r="A3" s="11">
+        <v>51</v>
+      </c>
+      <c r="I2" s="26" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3737,19 +3807,19 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1">
-      <c r="A4" s="11">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3771,12 +3841,12 @@
         <v>289</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="11">
+        <v>51</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3798,12 +3868,12 @@
         <v>289</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1">
-      <c r="A6" s="11">
+        <v>51</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3825,12 +3895,12 @@
         <v>294</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="11">
+        <v>51</v>
+      </c>
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3852,12 +3922,12 @@
         <v>297</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="11">
+        <v>51</v>
+      </c>
+      <c r="I7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:9">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3879,12 +3949,12 @@
         <v>297</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1">
-      <c r="A9" s="11">
+        <v>51</v>
+      </c>
+      <c r="I8" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:9">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3906,12 +3976,12 @@
         <v>302</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="27" customHeight="1">
-      <c r="A10" s="11">
+        <v>51</v>
+      </c>
+      <c r="I9" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:9">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3926,19 +3996,19 @@
       <c r="E10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="60" t="s">
         <v>305</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>305</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="27" customHeight="1">
-      <c r="A11" s="45">
+        <v>51</v>
+      </c>
+      <c r="I10" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:9">
+      <c r="A11" s="45" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -3962,10 +4032,10 @@
       <c r="H11" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1">
-      <c r="A12" s="11">
+      <c r="I11" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="12" spans="1:9">
+      <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3987,12 +4057,12 @@
         <v>312</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1">
-      <c r="A13" s="11">
+        <v>51</v>
+      </c>
+      <c r="I12" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="13" spans="1:9">
+      <c r="A13" s="11" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4014,12 +4084,12 @@
         <v>312</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1">
-      <c r="A14" s="11">
+        <v>51</v>
+      </c>
+      <c r="I13" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="14" spans="1:9">
+      <c r="A14" s="11" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4041,12 +4111,12 @@
         <v>312</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" ht="27" customHeight="1">
-      <c r="A15" s="11">
+        <v>51</v>
+      </c>
+      <c r="I14" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="15" spans="1:9">
+      <c r="A15" s="11" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4068,12 +4138,12 @@
         <v>312</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A16" s="11">
+        <v>51</v>
+      </c>
+      <c r="I15" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="16" spans="1:9">
+      <c r="A16" s="11" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4095,12 +4165,12 @@
         <v>321</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A17" s="11">
+        <v>51</v>
+      </c>
+      <c r="I16" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="17" spans="1:9">
+      <c r="A17" s="11" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4122,12 +4192,12 @@
         <v>324</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1">
-      <c r="A18" s="11">
+        <v>51</v>
+      </c>
+      <c r="I17" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="18" spans="1:9">
+      <c r="A18" s="11" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4149,12 +4219,12 @@
         <v>23</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1">
-      <c r="A19" s="11">
+        <v>51</v>
+      </c>
+      <c r="I18" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="19" spans="1:9">
+      <c r="A19" s="11" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -4176,12 +4246,12 @@
         <v>329</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1">
-      <c r="A20" s="11">
+        <v>51</v>
+      </c>
+      <c r="I19" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="20" spans="1:9">
+      <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4203,12 +4273,12 @@
         <v>332</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1">
-      <c r="A21" s="45">
+        <v>51</v>
+      </c>
+      <c r="I20" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="21" spans="1:9">
+      <c r="A21" s="45" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -4232,10 +4302,10 @@
       <c r="H21" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A22" s="12">
+      <c r="I21" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="27.75" r="22" spans="1:9" thickBot="1">
+      <c r="A22" s="12" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4250,46 +4320,49 @@
       <c r="E22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="61" t="s">
         <v>339</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>339</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="I22" s="23" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
+    <col customWidth="1" max="3" min="3" style="1" width="16.375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="44.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4319,100 +4392,103 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="26"/>
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="27" t="n"/>
+      <c r="E2" s="15" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="29" t="n"/>
+      <c r="I2" s="26" t="n"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="20"/>
+      <c r="A3" s="11" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="16" t="n"/>
+      <c r="F3" s="60" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="30" t="n"/>
+      <c r="I3" s="20" t="n"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="20"/>
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="30" t="n"/>
+      <c r="I4" s="20" t="n"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="20"/>
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="30" t="n"/>
+      <c r="I5" s="20" t="n"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="21"/>
+      <c r="A6" s="11" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="16" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="30" t="n"/>
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="7" spans="1:9" thickBot="1">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="17" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="4" t="n"/>
+      <c r="H7" s="31" t="n"/>
+      <c r="I7" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="24.75"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -4441,8 +4517,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="11">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4464,12 +4540,12 @@
         <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4484,19 +4560,19 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1">
-      <c r="A4" s="11">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4511,19 +4587,19 @@
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="60" t="s">
         <v>346</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>346</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="11">
+        <v>51</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4538,19 +4614,19 @@
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="60" t="s">
         <v>349</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>349</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A6" s="11">
+        <v>51</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4568,12 +4644,12 @@
       <c r="F6" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="11">
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4588,19 +4664,19 @@
       <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="60" t="s">
         <v>355</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>355</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A8" s="11">
+        <v>51</v>
+      </c>
+      <c r="I7" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:9">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4615,73 +4691,76 @@
       <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="60" t="s">
         <v>357</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>357</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="257.25" customHeight="1" thickBot="1">
-      <c r="A9" s="12">
+        <v>51</v>
+      </c>
+      <c r="I8" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="257.25" r="9" spans="1:9" thickBot="1">
+      <c r="A9" s="12" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>341</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="56" t="s">
-        <v>359</v>
+      <c r="F9" s="61" t="s">
+        <v>360</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="21"/>
+        <v>170</v>
+      </c>
+      <c r="I9" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="29"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -4710,8 +4789,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="11">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4733,12 +4812,12 @@
         <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4753,19 +4832,19 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A4" s="11">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4780,19 +4859,19 @@
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="60" t="s">
         <v>366</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>366</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A5" s="11">
+        <v>51</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4807,19 +4886,19 @@
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="60" t="s">
         <v>369</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="365.25" customHeight="1" thickBot="1">
-      <c r="A6" s="12">
+        <v>51</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="365.25" r="6" spans="1:9" thickBot="1">
+      <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4834,61 +4913,440 @@
       <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="61" t="s">
         <v>371</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>371</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="I6" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="27.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="27" r="1" spans="1:9">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27.75" r="6" spans="1:9" thickBot="1">
+      <c r="A6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="21" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="27.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="27" r="1" spans="1:9">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="351.75" r="6" spans="1:9" thickBot="1">
+      <c r="A6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>388</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="21" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="83.125" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="6.125"/>
+    <col customWidth="1" max="2" min="2" width="18"/>
+    <col customWidth="1" max="3" min="3" width="16.375"/>
+    <col customWidth="1" max="4" min="4" width="83.125"/>
+    <col customWidth="1" max="5" min="5" style="24" width="7.875"/>
+    <col customWidth="1" max="6" min="6" style="1" width="10"/>
+    <col customWidth="1" max="7" min="7" style="1" width="70.625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="24" width="13.25"/>
+    <col customWidth="1" max="10" min="10" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4918,7 +5376,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -4933,7 +5391,7 @@
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="6" t="n">
         <v>10001</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -4942,10 +5400,10 @@
       <c r="H2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+      <c r="I2" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4960,7 +5418,7 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -4969,10 +5427,10 @@
       <c r="H3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1">
-      <c r="A4" s="11">
+      <c r="I3" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4987,7 +5445,7 @@
       <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4996,10 +5454,10 @@
       <c r="H4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="22" t="n"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5014,7 +5472,7 @@
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -5023,10 +5481,10 @@
       <c r="H5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1">
-      <c r="A6" s="11">
+      <c r="I5" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5041,7 +5499,7 @@
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -5050,10 +5508,10 @@
       <c r="H6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="11">
+      <c r="I6" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5068,7 +5526,7 @@
       <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2" t="n">
         <v>11003</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -5077,10 +5535,10 @@
       <c r="H7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="A8" s="12">
+      <c r="I7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:9" thickBot="1">
+      <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -5095,7 +5553,7 @@
       <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="n">
         <v>11007</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -5104,37 +5562,39 @@
       <c r="H8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="23" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet14">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="6.875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="39.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="40.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="24.875"/>
+    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5160,8 +5620,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="27" r="2" spans="1:8">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5176,7 +5636,7 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="57" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
@@ -5186,8 +5646,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A3" s="1">
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5206,8 +5666,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A4" s="1">
+    <row customHeight="1" ht="40.5" r="4" spans="1:8">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5226,8 +5686,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A5" s="1">
+    <row customHeight="1" ht="40.5" r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5247,35 +5707,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="13" customWidth="1"/>
-    <col min="6" max="6" width="49.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="50.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="13" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="5.625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="18"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="47.25"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.25"/>
+    <col customWidth="1" max="6" min="6" style="1" width="49.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="50.125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="13" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5304,8 +5766,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -5323,177 +5785,207 @@
       <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="10">
+      <c r="G2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A4" s="10">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:9">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="10">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:9">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A6" s="10">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="6" spans="1:9">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="10">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A8" s="33">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="8" spans="1:9" thickBot="1">
+      <c r="A8" s="33" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="48" style="52" customWidth="1"/>
-    <col min="7" max="7" width="57.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="24" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.75"/>
+    <col customWidth="1" max="3" min="3" style="1" width="14.5"/>
+    <col customWidth="1" max="4" min="4" style="1" width="51.5"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.375"/>
+    <col customWidth="1" max="6" min="6" style="57" width="48"/>
+    <col customWidth="1" max="7" min="7" style="1" width="57.5"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="24" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5509,7 +6001,7 @@
       <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -5519,34 +6011,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:8">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="59" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5556,23 +6048,23 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A4" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5587,18 +6079,18 @@
       <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="60" t="s">
         <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
-      <c r="A5" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5613,18 +6105,18 @@
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="60" t="s">
         <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="A6" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:8">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5639,18 +6131,18 @@
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="55" t="s">
-        <v>64</v>
+      <c r="F6" s="60" t="s">
+        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A7" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:8" thickBot="1">
+      <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -5665,45 +6157,48 @@
       <c r="E7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="56" t="s">
-        <v>67</v>
+      <c r="F7" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="13" customWidth="1"/>
-    <col min="6" max="6" width="52.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="13" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="5.5"/>
+    <col customWidth="1" max="2" min="2" style="1" width="22"/>
+    <col customWidth="1" max="3" min="3" style="1" width="16.75"/>
+    <col customWidth="1" max="4" min="4" style="1" width="45"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8"/>
+    <col customWidth="1" max="6" min="6" style="1" width="52.375"/>
+    <col customWidth="1" max="7" min="7" style="1" width="55.25"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="13" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5732,8 +6227,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -5755,12 +6250,12 @@
         <v>84</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="10">
+        <v>51</v>
+      </c>
+      <c r="I2" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5775,19 +6270,19 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="81" customHeight="1">
-      <c r="A4" s="10">
+        <v>51</v>
+      </c>
+      <c r="I3" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="4" spans="1:9">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5809,12 +6304,12 @@
         <v>88</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="81" customHeight="1">
-      <c r="A5" s="10">
+        <v>51</v>
+      </c>
+      <c r="I4" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="5" spans="1:9">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5836,16 +6331,16 @@
         <v>90</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1">
-      <c r="A6" s="10">
+        <v>51</v>
+      </c>
+      <c r="I5" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:9">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>82</v>
@@ -5857,18 +6352,18 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="10">
+        <v>51</v>
+      </c>
+      <c r="I6" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5890,12 +6385,12 @@
         <v>94</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="10">
+        <v>51</v>
+      </c>
+      <c r="I7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:9">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5911,18 +6406,18 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1">
-      <c r="A9" s="10">
+        <v>51</v>
+      </c>
+      <c r="I8" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:9">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -5944,12 +6439,12 @@
         <v>99</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="27" customHeight="1">
-      <c r="A10" s="10">
+        <v>51</v>
+      </c>
+      <c r="I9" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:9">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5971,12 +6466,12 @@
         <v>102</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="27" customHeight="1">
-      <c r="A11" s="10">
+        <v>51</v>
+      </c>
+      <c r="I10" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:9">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5998,12 +6493,12 @@
         <v>105</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1">
-      <c r="A12" s="10">
+        <v>51</v>
+      </c>
+      <c r="I11" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="12" spans="1:9">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6025,12 +6520,12 @@
         <v>105</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A13" s="10">
+        <v>51</v>
+      </c>
+      <c r="I12" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="13" spans="1:9">
+      <c r="A13" s="10" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6052,12 +6547,12 @@
         <v>110</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A14" s="33">
+        <v>51</v>
+      </c>
+      <c r="I13" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27.75" r="14" spans="1:9" thickBot="1">
+      <c r="A14" s="33" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -6079,40 +6574,42 @@
         <v>110</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="I14" s="23" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="48.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="13" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="5.625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="19.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="38.25"/>
+    <col customWidth="1" max="5" min="5" style="13" width="7.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="48.5"/>
+    <col customWidth="1" max="7" min="7" style="1" width="49.875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="13" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6141,8 +6638,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6164,12 +6661,12 @@
         <v>84</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="10">
+        <v>51</v>
+      </c>
+      <c r="I2" s="26" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -6184,19 +6681,19 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A4" s="10">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="94.5" r="4" spans="1:9">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6218,12 +6715,12 @@
         <v>118</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A5" s="10">
+        <v>51</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="94.5" r="5" spans="1:9">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6245,12 +6742,12 @@
         <v>119</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1">
-      <c r="A6" s="10">
+        <v>51</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:9">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6266,18 +6763,18 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="10">
+        <v>51</v>
+      </c>
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6299,12 +6796,12 @@
         <v>121</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="10">
+        <v>51</v>
+      </c>
+      <c r="I7" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:9">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6320,18 +6817,18 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A9" s="10">
+        <v>51</v>
+      </c>
+      <c r="I8" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="9" spans="1:9">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -6353,12 +6850,12 @@
         <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A10" s="10">
+        <v>51</v>
+      </c>
+      <c r="I9" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="10" spans="1:9">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -6380,12 +6877,12 @@
         <v>102</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A11" s="10">
+        <v>51</v>
+      </c>
+      <c r="I10" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="11" spans="1:9">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -6407,12 +6904,12 @@
         <v>105</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A12" s="10">
+        <v>51</v>
+      </c>
+      <c r="I11" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="12" spans="1:9">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6434,12 +6931,12 @@
         <v>105</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A13" s="10">
+        <v>51</v>
+      </c>
+      <c r="I12" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="13" spans="1:9">
+      <c r="A13" s="10" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6461,12 +6958,12 @@
         <v>110</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A14" s="10">
+        <v>51</v>
+      </c>
+      <c r="I13" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="14" spans="1:9">
+      <c r="A14" s="10" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -6488,12 +6985,12 @@
         <v>110</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A15" s="33">
+        <v>51</v>
+      </c>
+      <c r="I14" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="15" spans="1:9" thickBot="1">
+      <c r="A15" s="33" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6515,56 +7012,60 @@
         <v>131</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="I15" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet6">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
+    <col customWidth="1" max="3" min="3" style="1" width="16.375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="44.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6593,8 +7094,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="67.5" r="2" spans="1:9">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6616,12 +7117,12 @@
         <v>84</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+        <v>51</v>
+      </c>
+      <c r="I2" s="26" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -6636,19 +7137,19 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="54" customHeight="1">
-      <c r="A4" s="11">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6670,12 +7171,12 @@
         <v>30</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A5" s="11">
+        <v>51</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6697,12 +7198,12 @@
         <v>30</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A6" s="11">
+        <v>51</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6724,12 +7225,12 @@
         <v>30</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="54" customHeight="1">
-      <c r="A7" s="11">
+        <v>51</v>
+      </c>
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6751,12 +7252,12 @@
         <v>30</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="54" customHeight="1">
-      <c r="A8" s="11">
+        <v>51</v>
+      </c>
+      <c r="I7" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="8" spans="1:9">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6778,12 +7279,12 @@
         <v>144</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="54" customHeight="1">
-      <c r="A9" s="11">
+        <v>51</v>
+      </c>
+      <c r="I8" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="9" spans="1:9">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -6805,12 +7306,12 @@
         <v>144</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="54" customHeight="1">
-      <c r="A10" s="11">
+        <v>51</v>
+      </c>
+      <c r="I9" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="10" spans="1:9">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -6832,12 +7333,12 @@
         <v>149</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A11" s="11">
+        <v>51</v>
+      </c>
+      <c r="I10" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="11" spans="1:9">
+      <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -6859,12 +7360,12 @@
         <v>149</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="54" customHeight="1">
-      <c r="A12" s="45">
+        <v>51</v>
+      </c>
+      <c r="I11" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="12" spans="1:9">
+      <c r="A12" s="45" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -6882,12 +7383,12 @@
       <c r="F12" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-    </row>
-    <row r="13" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A13" s="11">
+      <c r="G12" s="47" t="n"/>
+      <c r="H12" s="43" t="n"/>
+      <c r="I12" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="13" spans="1:9">
+      <c r="A13" s="11" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6909,12 +7410,12 @@
         <v>32</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A14" s="11">
+        <v>51</v>
+      </c>
+      <c r="I13" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="14" spans="1:9">
+      <c r="A14" s="11" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -6936,12 +7437,12 @@
         <v>32</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A15" s="11">
+        <v>51</v>
+      </c>
+      <c r="I14" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="15" spans="1:9">
+      <c r="A15" s="11" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6963,12 +7464,12 @@
         <v>32</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" ht="54" customHeight="1">
-      <c r="A16" s="11">
+        <v>51</v>
+      </c>
+      <c r="I15" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="16" spans="1:9">
+      <c r="A16" s="11" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6990,12 +7491,12 @@
         <v>161</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A17" s="11">
+        <v>51</v>
+      </c>
+      <c r="I16" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="17" spans="1:9">
+      <c r="A17" s="11" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -7017,12 +7518,12 @@
         <v>164</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A18" s="11">
+        <v>51</v>
+      </c>
+      <c r="I17" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="18" spans="1:9">
+      <c r="A18" s="11" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -7044,12 +7545,12 @@
         <v>164</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" ht="54" customHeight="1">
-      <c r="A19" s="45">
+        <v>51</v>
+      </c>
+      <c r="I18" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="19" spans="1:9">
+      <c r="A19" s="45" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -7073,10 +7574,10 @@
       <c r="H19" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I19" s="44"/>
-    </row>
-    <row r="20" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A20" s="45">
+      <c r="I19" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="20" spans="1:9">
+      <c r="A20" s="45" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="46" t="s">
@@ -7100,10 +7601,10 @@
       <c r="H20" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I20" s="44"/>
-    </row>
-    <row r="21" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A21" s="45">
+      <c r="I20" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="21" spans="1:9">
+      <c r="A21" s="45" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -7127,10 +7628,10 @@
       <c r="H21" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" ht="54" customHeight="1">
-      <c r="A22" s="11">
+      <c r="I21" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="22" spans="1:9">
+      <c r="A22" s="11" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -7152,12 +7653,12 @@
         <v>179</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A23" s="12">
+        <v>51</v>
+      </c>
+      <c r="I22" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="23" spans="1:9" thickBot="1">
+      <c r="A23" s="12" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -7179,13 +7680,12 @@
         <v>179</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="I23" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -3,33 +3,32 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="15" autoFilterDateGrouping="1" firstSheet="7" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6435" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6435" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="generateRepayments22" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="invest" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="bidLoan112" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="register" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="login" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="recharge" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="withdraw" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="list " sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="bidLoan" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="add" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="audit" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="getLoanList" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="generateRepayments" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="getInvestsByMemberId" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="getInvestsByLoanId" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="getFinanceLogList" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="register" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="login" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="recharge" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="list " sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="bidLoan" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="add" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="audit" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="getLoanList" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="generateRepayments" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="getInvestsByMemberId" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="getInvestsByLoanId" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="getFinanceLogList" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
   <si>
     <t>case_id</t>
   </si>
@@ -145,301 +144,280 @@
     <t>投资人投资输入负数</t>
   </si>
   <si>
+    <t>注册成功(get)</t>
+  </si>
+  <si>
+    <t>/member/register</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "#@mobilephone", "pwd": "${register_member_pwd}", "regname": "${register_member_regname}"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>手机号码已被注册</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666678", "pwd": "${register_member_pwd}", "regname": "${register_member_regname}"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+  </si>
+  <si>
+    <t>手机号码格式不正确</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "157777", "pwd": "${register_member_pwd}", "regname": "${register_member_regname}"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+  </si>
+  <si>
+    <t>密码长度必须为6~18（长度小于6位）</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666678", "pwd": "123", "regname": "${register_member_regname}"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+  </si>
+  <si>
+    <t>密码长度必须为6~18（长度大于18位）</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666678", "pwd": "1234567890123456789", "regname": "${register_member_regname}"}</t>
+  </si>
+  <si>
+    <t>密码不能为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15666666678", "pwd": "", "regname": "${register_member_regname}"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>手机号不能为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "", "pwd": "${register_member_pwd}", "regname": "${register_member_regname}"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>正常登陆（get）</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${login_mobile_phone}", "pwd": "${login_mobile_pwd}"}</t>
+  </si>
+  <si>
+    <t>正常登陆（post）</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${login_mobile_phone}", "pwd": "1234567"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>用户名错误</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15777777778", "pwd": "${login_mobile_pwd}"}</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${login_mobile_phone}", "pwd": ""}</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "", "pwd": "${login_mobile_pwd}"}</t>
+  </si>
+  <si>
+    <t>抱歉，请先登录</t>
+  </si>
+  <si>
+    <t>/member/recharge</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "${recharge_amount}"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
+  </si>
+  <si>
     <t>正常登陆</t>
   </si>
   <si>
-    <t>{"mobilephone": "@123@", "pwd": "123456"}</t>
+    <t>{"mobilephone": "${recharge_login_mobile_phone}", "pwd": "${recharge_login_mobile_pwd}"}</t>
+  </si>
+  <si>
+    <t>正常充值，充值成功(get)</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"806838.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"123618.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>正常充值，充值成功(post)</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"123741.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "", "amount": ""}</t>
+  </si>
+  <si>
+    <t>此手机号对应的会员不存在</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "15999999999", "amount": "99.99"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
+  </si>
+  <si>
+    <t>手机格式不正确</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "156666", "amount": "99.99"}</t>
+  </si>
+  <si>
+    <t>请输入金额</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": ""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
+  </si>
+  <si>
+    <t>输入金额的金额小数不能超过两位</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "99.999"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
+  </si>
+  <si>
+    <t>请输入范围在0到50万之间的正数金额（510000）</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "510000"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+  </si>
+  <si>
+    <t>请输入范围在 0 到 50 万之间的正数金额（-1）</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "-1"}</t>
+  </si>
+  <si>
+    <t>请输入数字（特殊符号）</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "！@#￥%"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
+  </si>
+  <si>
+    <t>请输入数字（数字加字母）</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "123asd"}</t>
+  </si>
+  <si>
+    <t>/member/withdraw</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "${withdraw_amount}"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_login_mobile_phone}", "pwd": "${withdraw_login_mobile_pwd}"}</t>
+  </si>
+  <si>
+    <t>取现成功</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"843102.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"取现成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1114425,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15777777777","leaveamount":"6292.00","type":"1","regtime":"2019-01-15 14:15:59.0"},"msg":"取现成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1114425,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15777777777","leaveamount":"6169.00","type":"1","regtime":"2019-01-15 14:15:59.0"},"msg":"取现成功"}</t>
+  </si>
+  <si>
+    <t>手机号不能为空(会出现错误没有返回结果)</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
+  </si>
+  <si>
+    <t>请输入金额(会出现错误没有返回结果)</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": ""}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "99.999"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "510000"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount":" -1"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "！@#￥%"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "123asd"}</t>
+  </si>
+  <si>
+    <t>余额不足，请修改提现额度</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "500000"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
+  </si>
+  <si>
+    <t>未登录进行投标</t>
+  </si>
+  <si>
+    <t>{"memberId": "${bidloan_memberId}", "password": "${bidloan_login_mobile_pwd}", "loanId": "${bidloan_loanId}", "amount":" ${bidloan_amount}"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${bidloan_login_mobile_phone}", "pwd": "${bidloan_login_mobile_pwd}"}</t>
+  </si>
+  <si>
+    <t>参数错误:所有参数都不能为空(memberId="")</t>
+  </si>
+  <si>
+    <t>{"memberId": "", "password": "${bidloan_login_mobile_pwd}", "loanId": 10, "amount": " ${bidloan_amount}"}</t>
   </si>
   <si>
     <t>参数错误:所有参数都不能为空(password="")</t>
-  </si>
-  <si>
-    <t>{"memberId": "1115697", "password": "", "loanId": 10, "amount": 100}</t>
-  </si>
-  <si>
-    <t>密码错误（password："123456789012345678"）</t>
-  </si>
-  <si>
-    <t>{"memberId": "1115697", "password": "123456789012345678", "loanId": "df234", "amount": 100}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"","data":null,"msg":"密码错误"}</t>
-  </si>
-  <si>
-    <t>参数错误，投资金额必须能被 100整除的正整数(amount:99)</t>
-  </si>
-  <si>
-    <t>{"memberId": "1115697", "password": "123456", "loanId": "11580", "amount": 99}</t>
-  </si>
-  <si>
-    <t>注册成功(get)</t>
-  </si>
-  <si>
-    <t>/member/register</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "#@mobilephone", "pwd": "${register_member_pwd}", "regname": "${register_member_regname}"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>手机号码已被注册</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "pwd": "${register_member_pwd}", "regname": "${register_member_regname}"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
-  </si>
-  <si>
-    <t>手机号码格式不正确</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "157777", "pwd": "${register_member_pwd}", "regname": "${register_member_regname}"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
-  </si>
-  <si>
-    <t>密码长度必须为6~18（长度小于6位）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "pwd": "123", "regname": "${register_member_regname}"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
-  </si>
-  <si>
-    <t>密码长度必须为6~18（长度大于18位）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "pwd": "1234567890123456789", "regname": "${register_member_regname}"}</t>
-  </si>
-  <si>
-    <t>密码不能为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666678", "pwd": "", "regname": "${register_member_regname}"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
-  </si>
-  <si>
-    <t>手机号不能为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "", "pwd": "${register_member_pwd}", "regname": "${register_member_regname}"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>正常登陆（get）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${login_mobile_phone}", "pwd": "${login_mobile_pwd}"}</t>
-  </si>
-  <si>
-    <t>正常登陆（post）</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${login_mobile_phone}", "pwd": "1234567"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
-  </si>
-  <si>
-    <t>用户名错误</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15777777778", "pwd": "${login_mobile_pwd}"}</t>
-  </si>
-  <si>
-    <t>密码为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${login_mobile_phone}", "pwd": ""}</t>
-  </si>
-  <si>
-    <t>手机号为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "", "pwd": "${login_mobile_pwd}"}</t>
-  </si>
-  <si>
-    <t>抱歉，请先登录</t>
-  </si>
-  <si>
-    <t>/member/recharge</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "${recharge_amount}"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${recharge_login_mobile_phone}", "pwd": "${recharge_login_mobile_pwd}"}</t>
-  </si>
-  <si>
-    <t>正常充值，充值成功(get)</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"806838.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"123618.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>正常充值，充值成功(post)</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"123741.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "", "amount": ""}</t>
-  </si>
-  <si>
-    <t>此手机号对应的会员不存在</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15999999999", "amount": "99.99"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
-  </si>
-  <si>
-    <t>手机格式不正确</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "156666", "amount": "99.99"}</t>
-  </si>
-  <si>
-    <t>请输入金额</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": ""}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
-  </si>
-  <si>
-    <t>输入金额的金额小数不能超过两位</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "99.999"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
-  </si>
-  <si>
-    <t>请输入范围在0到50万之间的正数金额（510000）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "510000"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
-  </si>
-  <si>
-    <t>请输入范围在 0 到 50 万之间的正数金额（-1）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "-1"}</t>
-  </si>
-  <si>
-    <t>请输入数字（特殊符号）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "！@#￥%"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
-  </si>
-  <si>
-    <t>请输入数字（数字加字母）</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "123asd"}</t>
-  </si>
-  <si>
-    <t>/member/withdraw</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "${withdraw_amount}"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${withdraw_login_mobile_phone}", "pwd": "${withdraw_login_mobile_pwd}"}</t>
-  </si>
-  <si>
-    <t>取现成功</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"843102.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114425,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15777777777","leaveamount":"6292.00","type":"1","regtime":"2019-01-15 14:15:59.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114425,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15777777777","leaveamount":"6169.00","type":"1","regtime":"2019-01-15 14:15:59.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
-    <t>手机号不能为空(会出现错误没有返回结果)</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
-  </si>
-  <si>
-    <t>请输入金额(会出现错误没有返回结果)</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": ""}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "99.999"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "510000"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount":" -1"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "！@#￥%"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "123asd"}</t>
-  </si>
-  <si>
-    <t>余额不足，请修改提现额度</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${withdraw_mobile_phone}", "amount": "500000"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
-  </si>
-  <si>
-    <t>未登录进行投标</t>
-  </si>
-  <si>
-    <t>{"memberId": "${bidloan_memberId}", "password": "${bidloan_login_mobile_pwd}", "loanId": "${bidloan_loanId}", "amount":" ${bidloan_amount}"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${bidloan_login_mobile_phone}", "pwd": "${bidloan_login_mobile_pwd}"}</t>
-  </si>
-  <si>
-    <t>参数错误:所有参数都不能为空(memberId="")</t>
-  </si>
-  <si>
-    <t>{"memberId": "", "password": "${bidloan_login_mobile_pwd}", "loanId": 10, "amount": " ${bidloan_amount}"}</t>
   </si>
   <si>
     <t>{"memberId": "${bidloan_memberId}", "password": "", "loanId": 10, "amount": " ${bidloan_amount}"}</t>
@@ -489,10 +467,16 @@
     <t>{"memberId": "${bidloan_memberId}", "password": "1234567890123456789", "loanId": "df234", "amount": " ${bidloan_amount}"}</t>
   </si>
   <si>
+    <t>密码错误（password："123456789012345678"）</t>
+  </si>
+  <si>
     <t>{"memberId": "${bidloan_memberId}", "password": "123456789012345678", "loanId": "${bidloan_loanId}", "amount": " ${bidloan_amount}"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"","data":null,"msg":"密码错误"}错误code为空</t>
+  </si>
+  <si>
+    <t>参数错误，投资金额必须能被 100整除的正整数(amount:99)</t>
   </si>
   <si>
     <t>{"memberId": "${bidloan_memberId}", "password": "${bidloan_login_mobile_pwd}", "loanId": "${bidloan_loanId}", "amount": "99"}</t>
@@ -1244,6 +1228,12 @@
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":[{"id":"113230","createTime":"2019-02-02 15:07:09.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"123495.00","status":"1"},{"id":"113229","createTime":"2019-02-02 14:09:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6415.00","payMemberMoney":"123618.00","status":"1"},{"id":"113152","createTime":"2019-02-01 15:59:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123472.00","status":"1"},{"id":"113151","createTime":"2019-02-01 15:58:39.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123572.00","status":"1"},{"id":"113137","createTime":"2019-02-01 13:50:10.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123672.00","status":"1"},{"id":"113133","createTime":"2019-02-01 13:33:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123649.00","status":"1"},{"id":"113132","createTime":"2019-02-01 13:32:42.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123749.00","status":"1"},{"id":"113116","createTime":"2019-02-01 10:07:00.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123849.00","status":"1"},{"id":"113115","createTime":"2019-02-01 10:03:47.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123949.00","status":"1"},{"id":"113052","createTime":"2019-01-31 14:44:02.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"124049.00","status":"1"},{"id":"113051","createTime":"2019-01-31 14:43:57.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"124172.00","status":"1"},{"id":"112404","createTime":"2019-01-25 20:08:17.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112184.00","status":"1"},{"id":"112403","createTime":"2019-01-25 20:08:06.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112284.00","status":"1"},{"id":"112402","createTime":"2019-01-25 19:53:07.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112384.00","status":"1"},{"id":"112401","createTime":"2019-01-25 19:51:25.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112484.00","status":"1"},{"id":"112330","createTime":"2019-01-25 16:49:29.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102261.00","status":"1"},{"id":"112328","createTime":"2019-01-25 16:48:43.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102361.00","status":"1"},{"id":"112294","createTime":"2019-01-25 15:33:31.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97238.00","status":"1"},{"id":"112293","createTime":"2019-01-25 15:33:23.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97338.00","status":"1"},{"id":"112169","createTime":"2019-01-25 13:09:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66715.00","status":"1"},{"id":"112168","createTime":"2019-01-25 13:09:18.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66815.00","status":"1"}],"msg":"获取用户流水记录成功！"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1115758,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18819340103","leaveamount":"100000.00","type":"1","regtime":"2019-01-22 10:42:11.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1115758,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18819340103","leaveamount":"200000.00","type":"1","regtime":"2019-01-22 10:42:11.0"},"msg":"充值成功"}</t>
   </si>
 </sst>
 </file>
@@ -2360,1358 +2350,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet7">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="6"/>
-    <col customWidth="1" max="2" min="2" width="20.125"/>
-    <col customWidth="1" max="3" min="3" width="14.25"/>
-    <col customWidth="1" max="4" min="4" width="69.875"/>
-    <col customWidth="1" max="5" min="5" style="24" width="7.625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="44.375"/>
-    <col customWidth="1" max="7" min="7" style="1" width="47.5"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col customWidth="1" max="9" min="9" style="24" width="13.75"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="2" spans="1:9">
-      <c r="A2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:9">
-      <c r="A3" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="4" spans="1:9">
-      <c r="A4" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="5" spans="1:9">
-      <c r="A5" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="6" spans="1:9">
-      <c r="A6" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="7" spans="1:9">
-      <c r="A7" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="8" spans="1:9">
-      <c r="A8" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="9" spans="1:9">
-      <c r="A9" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="10" spans="1:9">
-      <c r="A10" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="11" spans="1:9">
-      <c r="A11" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="12" spans="1:9">
-      <c r="A12" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="13" spans="1:9">
-      <c r="A13" s="38" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="42" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="14" spans="1:9">
-      <c r="A14" s="45" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="15" spans="1:9">
-      <c r="A15" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="16" spans="1:9">
-      <c r="A16" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="17" spans="1:9">
-      <c r="A17" s="11" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="18" spans="1:9">
-      <c r="A18" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="19" spans="1:9">
-      <c r="A19" s="11" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="20" spans="1:9">
-      <c r="A20" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="21" spans="1:9">
-      <c r="A21" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="22" spans="1:9">
-      <c r="A22" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="23" spans="1:9">
-      <c r="A23" s="11" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="24" spans="1:9">
-      <c r="A24" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="25" spans="1:9">
-      <c r="A25" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="26" spans="1:9">
-      <c r="A26" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="27" spans="1:9">
-      <c r="A27" s="11" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="28" spans="1:9">
-      <c r="A28" s="11" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="29" spans="1:9">
-      <c r="A29" s="11" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="30" spans="1:9">
-      <c r="A30" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="31" spans="1:9">
-      <c r="A31" s="11" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="32" spans="1:9">
-      <c r="A32" s="11" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="33" spans="1:9">
-      <c r="A33" s="11" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="34" spans="1:9">
-      <c r="A34" s="11" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="35" spans="1:9">
-      <c r="A35" s="45" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="G35" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="36" spans="1:9">
-      <c r="A36" s="45" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="G36" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="I36" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="37" spans="1:9">
-      <c r="A37" s="11" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="38" spans="1:9">
-      <c r="A38" s="11" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="39" spans="1:9">
-      <c r="A39" s="11" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="40" spans="1:9">
-      <c r="A40" s="11" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="41" spans="1:9">
-      <c r="A41" s="11" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="42" spans="1:9">
-      <c r="A42" s="11" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="43" spans="1:9">
-      <c r="A43" s="11" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="44" spans="1:9">
-      <c r="A44" s="11" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I44" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="45" spans="1:9">
-      <c r="A45" s="11" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="46" spans="1:9">
-      <c r="A46" s="11" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I46" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="47" spans="1:9">
-      <c r="A47" s="11" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="48" spans="1:9">
-      <c r="A48" s="45" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="G48" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="I48" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="68.25" r="49" spans="1:9" thickBot="1">
-      <c r="A49" s="12" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="23" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet8">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3769,25 +2407,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I2" s="26" t="n"/>
     </row>
@@ -3796,13 +2434,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
@@ -3814,7 +2452,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I3" s="20" t="n"/>
     </row>
@@ -3823,25 +2461,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I4" s="20" t="n"/>
     </row>
@@ -3850,25 +2488,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I5" s="20" t="n"/>
     </row>
@@ -3877,25 +2515,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I6" s="20" t="n"/>
     </row>
@@ -3904,25 +2542,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I7" s="22" t="n"/>
     </row>
@@ -3931,25 +2569,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I8" s="22" t="n"/>
     </row>
@@ -3958,25 +2596,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I9" s="22" t="n"/>
     </row>
@@ -3985,25 +2623,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I10" s="22" t="n"/>
     </row>
@@ -4012,25 +2650,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I11" s="44" t="n"/>
     </row>
@@ -4039,25 +2677,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I12" s="22" t="n"/>
     </row>
@@ -4066,25 +2704,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I13" s="22" t="n"/>
     </row>
@@ -4093,25 +2731,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I14" s="22" t="n"/>
     </row>
@@ -4120,25 +2758,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I15" s="22" t="n"/>
     </row>
@@ -4147,25 +2785,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I16" s="22" t="n"/>
     </row>
@@ -4174,25 +2812,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I17" s="22" t="n"/>
     </row>
@@ -4201,13 +2839,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>22</v>
@@ -4219,7 +2857,7 @@
         <v>23</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I18" s="22" t="n"/>
     </row>
@@ -4228,25 +2866,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I19" s="22" t="n"/>
     </row>
@@ -4255,25 +2893,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I20" s="22" t="n"/>
     </row>
@@ -4282,25 +2920,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I21" s="44" t="n"/>
     </row>
@@ -4309,25 +2947,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I22" s="23" t="n"/>
     </row>
@@ -4337,7 +2975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4463,7 +3101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4522,25 +3160,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I2" s="20" t="n"/>
     </row>
@@ -4549,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -4567,7 +3205,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I3" s="20" t="n"/>
     </row>
@@ -4576,25 +3214,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>346</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I4" s="20" t="n"/>
     </row>
@@ -4603,25 +3241,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I5" s="20" t="n"/>
     </row>
@@ -4630,19 +3268,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
@@ -4653,25 +3291,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I7" s="20" t="n"/>
     </row>
@@ -4680,25 +3318,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I8" s="20" t="n"/>
     </row>
@@ -4707,25 +3345,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I9" s="21" t="n"/>
     </row>
@@ -4735,7 +3373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4794,25 +3432,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I2" s="20" t="n"/>
     </row>
@@ -4821,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -4839,7 +3477,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I3" s="20" t="n"/>
     </row>
@@ -4848,25 +3486,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I4" s="20" t="n"/>
     </row>
@@ -4875,25 +3513,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I5" s="20" t="n"/>
     </row>
@@ -4902,25 +3540,220 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="21" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="27.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="27" r="1" spans="1:9">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>370</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27.75" r="6" spans="1:9" thickBot="1">
+      <c r="A6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I6" s="21" t="n"/>
     </row>
@@ -4989,25 +3822,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I2" s="20" t="n"/>
     </row>
@@ -5016,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -5034,7 +3867,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I3" s="20" t="n"/>
     </row>
@@ -5043,25 +3876,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I4" s="20" t="n"/>
     </row>
@@ -5070,220 +3903,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27.75" r="6" spans="1:9" thickBot="1">
-      <c r="A6" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>383</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="21" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
-    <col customWidth="1" max="3" min="3" style="1" width="27.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:9">
-      <c r="A2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:9">
-      <c r="A3" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:9">
-      <c r="A4" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="5" spans="1:9">
-      <c r="A5" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>387</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I5" s="20" t="n"/>
     </row>
@@ -5292,25 +3930,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I6" s="21" t="n"/>
     </row>
@@ -5329,7 +3967,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -5571,148 +4209,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet14">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="6.875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
-    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="39.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="40.25"/>
-    <col customWidth="1" max="7" min="7" style="1" width="24.875"/>
-    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5771,25 +4267,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I2" s="19" t="n"/>
     </row>
@@ -5798,25 +4294,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I3" s="20" t="n"/>
     </row>
@@ -5825,25 +4321,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I4" s="20" t="n"/>
     </row>
@@ -5852,25 +4348,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I5" s="20" t="n"/>
     </row>
@@ -5879,25 +4375,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I6" s="20" t="n"/>
     </row>
@@ -5906,25 +4402,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I7" s="20" t="n"/>
     </row>
@@ -5933,25 +4429,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I8" s="21" t="n"/>
     </row>
@@ -5961,7 +4457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6016,13 +4512,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
@@ -6034,7 +4530,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="3" spans="1:8">
@@ -6042,13 +4538,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>22</v>
@@ -6060,7 +4556,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="4" spans="1:8">
@@ -6068,25 +4564,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="5" spans="1:8">
@@ -6094,25 +4590,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="6" spans="1:8">
@@ -6120,25 +4616,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="7" spans="1:8" thickBot="1">
@@ -6146,25 +4642,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6173,7 +4669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6181,8 +4677,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -6232,25 +4728,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I2" s="19" t="n"/>
     </row>
@@ -6259,13 +4755,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
@@ -6277,7 +4773,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I3" s="22" t="n"/>
     </row>
@@ -6286,25 +4782,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>88</v>
+        <v>384</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I4" s="22" t="n"/>
     </row>
@@ -6313,25 +4809,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>90</v>
+        <v>385</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I5" s="22" t="n"/>
     </row>
@@ -6340,25 +4836,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I6" s="22" t="n"/>
     </row>
@@ -6367,25 +4863,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I7" s="22" t="n"/>
     </row>
@@ -6394,25 +4890,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I8" s="22" t="n"/>
     </row>
@@ -6421,25 +4917,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I9" s="22" t="n"/>
     </row>
@@ -6448,25 +4944,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I10" s="22" t="n"/>
     </row>
@@ -6475,25 +4971,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I11" s="22" t="n"/>
     </row>
@@ -6502,25 +4998,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I12" s="22" t="n"/>
     </row>
@@ -6529,25 +5025,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I13" s="22" t="n"/>
     </row>
@@ -6556,25 +5052,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I14" s="23" t="n"/>
     </row>
@@ -6584,7 +5080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6643,25 +5139,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I2" s="26" t="n"/>
     </row>
@@ -6670,13 +5166,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
@@ -6688,7 +5184,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I3" s="20" t="n"/>
     </row>
@@ -6697,25 +5193,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I4" s="20" t="n"/>
     </row>
@@ -6724,25 +5220,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I5" s="20" t="n"/>
     </row>
@@ -6751,25 +5247,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I6" s="20" t="n"/>
     </row>
@@ -6778,25 +5274,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I7" s="20" t="n"/>
     </row>
@@ -6805,25 +5301,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I8" s="20" t="n"/>
     </row>
@@ -6832,25 +5328,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I9" s="20" t="n"/>
     </row>
@@ -6859,25 +5355,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I10" s="20" t="n"/>
     </row>
@@ -6886,25 +5382,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I11" s="20" t="n"/>
     </row>
@@ -6913,25 +5409,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I12" s="20" t="n"/>
     </row>
@@ -6940,25 +5436,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I13" s="20" t="n"/>
     </row>
@@ -6967,25 +5463,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I14" s="20" t="n"/>
     </row>
@@ -6994,25 +5490,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I15" s="21" t="n"/>
     </row>
@@ -7022,7 +5518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7040,7 +5536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet6">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7099,25 +5595,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I2" s="26" t="n"/>
     </row>
@@ -7126,13 +5622,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
@@ -7144,7 +5640,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I3" s="20" t="n"/>
     </row>
@@ -7153,13 +5649,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
@@ -7171,7 +5667,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I4" s="20" t="n"/>
     </row>
@@ -7180,13 +5676,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>12</v>
@@ -7198,7 +5694,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I5" s="20" t="n"/>
     </row>
@@ -7207,13 +5703,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>12</v>
@@ -7225,7 +5721,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I6" s="20" t="n"/>
     </row>
@@ -7234,13 +5730,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>12</v>
@@ -7252,7 +5748,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I7" s="20" t="n"/>
     </row>
@@ -7261,25 +5757,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I8" s="20" t="n"/>
     </row>
@@ -7288,25 +5784,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I9" s="20" t="n"/>
     </row>
@@ -7315,25 +5811,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I10" s="20" t="n"/>
     </row>
@@ -7342,25 +5838,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I11" s="20" t="n"/>
     </row>
@@ -7369,19 +5865,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G12" s="47" t="n"/>
       <c r="H12" s="43" t="n"/>
@@ -7392,13 +5888,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>22</v>
@@ -7410,7 +5906,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I13" s="20" t="n"/>
     </row>
@@ -7419,13 +5915,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>22</v>
@@ -7437,7 +5933,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I14" s="20" t="n"/>
     </row>
@@ -7446,13 +5942,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>22</v>
@@ -7464,7 +5960,7 @@
         <v>32</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I15" s="20" t="n"/>
     </row>
@@ -7473,25 +5969,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I16" s="20" t="n"/>
     </row>
@@ -7500,25 +5996,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I17" s="20" t="n"/>
     </row>
@@ -7527,25 +6023,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I18" s="20" t="n"/>
     </row>
@@ -7554,25 +6050,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I19" s="44" t="n"/>
     </row>
@@ -7581,25 +6077,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G20" s="47" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I20" s="44" t="n"/>
     </row>
@@ -7608,25 +6104,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G21" s="47" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I21" s="44" t="n"/>
     </row>
@@ -7635,25 +6131,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I22" s="20" t="n"/>
     </row>
@@ -7662,27 +6158,1379 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="21" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet7">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="24" width="6"/>
+    <col customWidth="1" max="2" min="2" width="20.125"/>
+    <col customWidth="1" max="3" min="3" width="14.25"/>
+    <col customWidth="1" max="4" min="4" width="69.875"/>
+    <col customWidth="1" max="5" min="5" style="24" width="7.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="44.375"/>
+    <col customWidth="1" max="7" min="7" style="1" width="47.5"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="24" width="13.75"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="27" r="1" spans="1:9">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="21" t="n"/>
+      <c r="E5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="8" spans="1:9">
+      <c r="A8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="9" spans="1:9">
+      <c r="A9" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="10" spans="1:9">
+      <c r="A10" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="11" spans="1:9">
+      <c r="A11" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="12" spans="1:9">
+      <c r="A12" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="13" spans="1:9">
+      <c r="A13" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="42" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="14" spans="1:9">
+      <c r="A14" s="45" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="15" spans="1:9">
+      <c r="A15" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="16" spans="1:9">
+      <c r="A16" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="17" spans="1:9">
+      <c r="A17" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="18" spans="1:9">
+      <c r="A18" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="19" spans="1:9">
+      <c r="A19" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="20" spans="1:9">
+      <c r="A20" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="21" spans="1:9">
+      <c r="A21" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="22" spans="1:9">
+      <c r="A22" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="23" spans="1:9">
+      <c r="A23" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="24" spans="1:9">
+      <c r="A24" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="25" spans="1:9">
+      <c r="A25" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="26" spans="1:9">
+      <c r="A26" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="27" spans="1:9">
+      <c r="A27" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="28" spans="1:9">
+      <c r="A28" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="29" spans="1:9">
+      <c r="A29" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="30" spans="1:9">
+      <c r="A30" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="31" spans="1:9">
+      <c r="A31" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="32" spans="1:9">
+      <c r="A32" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="33" spans="1:9">
+      <c r="A33" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="34" spans="1:9">
+      <c r="A34" s="11" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="35" spans="1:9">
+      <c r="A35" s="45" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I35" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="36" spans="1:9">
+      <c r="A36" s="45" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I36" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="37" spans="1:9">
+      <c r="A37" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="38" spans="1:9">
+      <c r="A38" s="11" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="39" spans="1:9">
+      <c r="A39" s="11" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="40" spans="1:9">
+      <c r="A40" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="41" spans="1:9">
+      <c r="A41" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="42" spans="1:9">
+      <c r="A42" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="43" spans="1:9">
+      <c r="A43" s="11" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="44" spans="1:9">
+      <c r="A44" s="11" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="45" spans="1:9">
+      <c r="A45" s="11" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="46" spans="1:9">
+      <c r="A46" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="47" spans="1:9">
+      <c r="A47" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="48" spans="1:9">
+      <c r="A48" s="45" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I48" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="68.25" r="49" spans="1:9" thickBot="1">
+      <c r="A49" s="12" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="23" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6435" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6435"/>
   </bookViews>
   <sheets>
-    <sheet name="generateRepayments22" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="invest" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="register" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="login" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="recharge" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="list " sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="bidLoan" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="add" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="audit" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="getLoanList" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="generateRepayments" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="getInvestsByMemberId" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="getInvestsByLoanId" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="getFinanceLogList" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="generateRepayments" sheetId="1" r:id="rId1"/>
+    <sheet name="invest" sheetId="2" r:id="rId2"/>
+    <sheet name="register" sheetId="3" r:id="rId3"/>
+    <sheet name="login" sheetId="4" r:id="rId4"/>
+    <sheet name="recharge" sheetId="5" r:id="rId5"/>
+    <sheet name="withdraw" sheetId="6" r:id="rId6"/>
+    <sheet name="list " sheetId="7" r:id="rId7"/>
+    <sheet name="bidLoan" sheetId="8" r:id="rId8"/>
+    <sheet name="add" sheetId="9" r:id="rId9"/>
+    <sheet name="audit" sheetId="10" r:id="rId10"/>
+    <sheet name="getLoanList" sheetId="11" r:id="rId11"/>
+    <sheet name="generateRepayments_api" sheetId="12" r:id="rId12"/>
+    <sheet name="getInvestsByMemberId" sheetId="13" r:id="rId13"/>
+    <sheet name="getInvestsByLoanId" sheetId="14" r:id="rId14"/>
+    <sheet name="getFinanceLogList" sheetId="15" r:id="rId15"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="397">
   <si>
     <t>case_id</t>
   </si>
@@ -72,43 +72,94 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>管理员加标</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"memberId": "${loan_member_id}", "title": "luckytest", "amount": 20000, "loanRate": "12.0", "loanTerm": 3, "loanDateType": 0, "repaymemtWay": 11, "biddingDays": 5}</t>
+  </si>
+  <si>
+    <t>管理员审核通过(status=4)</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}", "status":4}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>投资人正常登陆</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${normal_user}", "pwd": "${normal_pwd}"}</t>
+  </si>
+  <si>
+    <t>投资人投资满标</t>
+  </si>
+  <si>
+    <t>/member/bidLoan</t>
+  </si>
+  <si>
+    <t>{"memberId": "${normal_member_id}", "password": "${normal_pwd}", "loanId": "${loan_id}", "amount": "20000"}</t>
+  </si>
+  <si>
+    <t>管理员核保审批(status=5)满标自动变成5吗？</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}", "status":5}</t>
+  </si>
+  <si>
+    <t>管理员终审通过(status=6)</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}", "status":6}</t>
+  </si>
+  <si>
+    <t>生成回款计划流程</t>
+  </si>
+  <si>
+    <t>/loan/generateRepayments</t>
+  </si>
+  <si>
+    <t>{"id": "${loan_id}"}</t>
+  </si>
+  <si>
+    <t>财务放款，借款人登陆</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${loan_member}", "pwd": "${loan_member_pwd}"}</t>
+  </si>
+  <si>
+    <t>借款人查看流水记录，借款金额是否到账</t>
+  </si>
+  <si>
+    <t>/financelog/getFinanceLogList</t>
+  </si>
+  <si>
+    <t>{"memberId": "${loan_member_id}"}</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>管理员加标</t>
-  </si>
-  <si>
-    <t>/loan/add</t>
-  </si>
-  <si>
-    <t>{"memberId": "${loan_member_id}", "title": "luckytest", "amount": 20000, "loanRate": "12.0", "loanTerm": 3, "loanDateType": 0, "repaymemtWay": 11, "biddingDays": 5}</t>
-  </si>
-  <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
   </si>
   <si>
-    <t>管理员审核5</t>
-  </si>
-  <si>
-    <t>/loan/audit</t>
-  </si>
-  <si>
-    <t>{"id":"${loan_id}", "status":4}</t>
-  </si>
-  <si>
-    <t>post</t>
+    <t>管理员审核</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
   </si>
   <si>
-    <t>生成回款计划流程</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${normal_user}", "pwd": "${normal_pwd}"}</t>
-  </si>
-  <si>
-    <t>/member/bidLoan</t>
+    <t>投资人正常投资</t>
   </si>
   <si>
     <t>{"memberId": "${normal_member_id}", "password": "${normal_pwd}", "loanId": "${loan_id}", "amount": "100"}</t>
@@ -117,33 +168,24 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
   </si>
   <si>
+    <t>投资人投资不输入金额</t>
+  </si>
+  <si>
     <t>{"memberId": "${normal_member_id}", "password": "${normal_pwd}", "loanId": "${loan_id}", "amount": ""}</t>
   </si>
   <si>
     <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
   </si>
   <si>
+    <t>投资人投资输入负数</t>
+  </si>
+  <si>
     <t>{"memberId": "${normal_member_id}", "password": "${normal_pwd}", "loanId": "${loan_id}", "amount": "-100"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
   </si>
   <si>
-    <t>管理员审核</t>
-  </si>
-  <si>
-    <t>投资人正常登陆</t>
-  </si>
-  <si>
-    <t>投资人正常投资</t>
-  </si>
-  <si>
-    <t>投资人投资不输入金额</t>
-  </si>
-  <si>
-    <t>投资人投资输入负数</t>
-  </si>
-  <si>
     <t>注册成功(get)</t>
   </si>
   <si>
@@ -156,9 +198,6 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>手机号码已被注册</t>
   </si>
   <si>
@@ -270,13 +309,13 @@
     <t>{"status":1,"code":"10001","data":{"id":1114421,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666666","leaveamount":"806838.00","type":"1","regtime":"2019-01-15 13:59:38.0"},"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"123618.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1115758,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18819340103","leaveamount":"100000.00","type":"1","regtime":"2019-01-22 10:42:11.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>正常充值，充值成功(post)</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115697,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15666666678","leaveamount":"123741.00","type":"1","regtime":"2019-01-21 22:57:22.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1115758,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18819340103","leaveamount":"200000.00","type":"1","regtime":"2019-01-22 10:42:11.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>{"mobilephone": "", "amount": ""}</t>
@@ -1086,9 +1125,6 @@
     <t>未登录，直接生成回款计划</t>
   </si>
   <si>
-    <t>/loan/generateRepayments</t>
-  </si>
-  <si>
     <t>{"id": "${generateRepayments_loan_id}"}</t>
   </si>
   <si>
@@ -1218,9 +1254,6 @@
     <t>管理员未登录，直接获取用户的流水记录</t>
   </si>
   <si>
-    <t>/financelog/getFinanceLogList</t>
-  </si>
-  <si>
     <t>{"status":0,"code":"50103","data":null,"msg":"参数错误：用户id不能为空"}</t>
   </si>
   <si>
@@ -1230,10 +1263,12 @@
     <t>{"status":1,"code":"10001","data":[{"id":"113230","createTime":"2019-02-02 15:07:09.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"123495.00","status":"1"},{"id":"113229","createTime":"2019-02-02 14:09:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6415.00","payMemberMoney":"123618.00","status":"1"},{"id":"113152","createTime":"2019-02-01 15:59:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123472.00","status":"1"},{"id":"113151","createTime":"2019-02-01 15:58:39.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123572.00","status":"1"},{"id":"113137","createTime":"2019-02-01 13:50:10.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123672.00","status":"1"},{"id":"113133","createTime":"2019-02-01 13:33:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123649.00","status":"1"},{"id":"113132","createTime":"2019-02-01 13:32:42.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123749.00","status":"1"},{"id":"113116","createTime":"2019-02-01 10:07:00.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123849.00","status":"1"},{"id":"113115","createTime":"2019-02-01 10:03:47.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123949.00","status":"1"},{"id":"113052","createTime":"2019-01-31 14:44:02.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"124049.00","status":"1"},{"id":"113051","createTime":"2019-01-31 14:43:57.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"124172.00","status":"1"},{"id":"112404","createTime":"2019-01-25 20:08:17.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112184.00","status":"1"},{"id":"112403","createTime":"2019-01-25 20:08:06.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112284.00","status":"1"},{"id":"112402","createTime":"2019-01-25 19:53:07.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112384.00","status":"1"},{"id":"112401","createTime":"2019-01-25 19:51:25.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112484.00","status":"1"},{"id":"112330","createTime":"2019-01-25 16:49:29.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102261.00","status":"1"},{"id":"112328","createTime":"2019-01-25 16:48:43.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102361.00","status":"1"},{"id":"112294","createTime":"2019-01-25 15:33:31.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97238.00","status":"1"},{"id":"112293","createTime":"2019-01-25 15:33:23.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97338.00","status":"1"},{"id":"112169","createTime":"2019-01-25 13:09:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66715.00","status":"1"},{"id":"112168","createTime":"2019-01-25 13:09:18.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66815.00","status":"1"}],"msg":"获取用户流水记录成功！"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115758,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18819340103","leaveamount":"100000.00","type":"1","regtime":"2019-01-22 10:42:11.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115758,"regname":"luckytest","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18819340103","leaveamount":"200000.00","type":"1","regtime":"2019-01-22 10:42:11.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":[{"id":"113430","createTime":"2019-02-07 11:45:07.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"20000.00","incomeMemberMoney":"6169.00","payMemberMoney":"83641.00","status":"1"},{"id":"113429","createTime":"2019-02-07 11:34:10.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"20000.00","incomeMemberMoney":"6169.00","payMemberMoney":"103641.00","status":"1"},{"id":"113428","createTime":"2019-02-07 11:31:39.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6169.00","payMemberMoney":"123641.00","status":"1"},{"id":"113259","createTime":"2019-02-03 15:07:09.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6169.00","status":"1"},{"id":"113258","createTime":"2019-02-03 15:07:09.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6292.00","status":"1"},{"id":"113229","createTime":"2019-02-02 14:09:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6415.00","payMemberMoney":"123618.00","status":"1"},{"id":"113228","createTime":"2019-02-02 13:23:32.0","payMemberId":"1116831","incomeMemberId":"1114425","amount":"200.00","incomeMemberMoney":"6415.00","payMemberMoney":"-77.00","status":"1"},{"id":"113227","createTime":"2019-02-02 13:20:40.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6415.00","status":"1"},{"id":"113226","createTime":"2019-02-02 13:20:40.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6538.00","status":"1"},{"id":"113225","createTime":"2019-02-02 13:02:28.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6661.00","status":"1"},{"id":"113224","createTime":"2019-02-02 13:02:28.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6784.00","status":"1"},{"id":"113152","createTime":"2019-02-01 15:59:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123472.00","status":"1"},{"id":"113151","createTime":"2019-02-01 15:58:39.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123572.00","status":"1"},{"id":"113137","createTime":"2019-02-01 13:50:10.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123672.00","status":"1"},{"id":"113136","createTime":"2019-02-01 13:49:34.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6907.00","status":"1"},{"id":"113133","createTime":"2019-02-01 13:33:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123649.00","status":"1"},{"id":"113132","createTime":"2019-02-01 13:32:42.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123749.00","status":"1"},{"id":"113116","createTime":"2019-02-01 10:07:00.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123849.00","status":"1"},{"id":"113115","createTime":"2019-02-01 10:03:47.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123949.00","status":"1"},{"id":"112976","createTime":"2019-01-30 16:58:20.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7030.00","status":"1"},{"id":"112953","createTime":"2019-01-30 13:32:48.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7153.00","status":"1"},{"id":"112951","createTime":"2019-01-30 13:31:13.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7276.00","status":"1"},{"id":"112949","createTime":"2019-01-30 13:28:59.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7399.00","status":"1"},{"id":"112932","createTime":"2019-01-30 10:06:03.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7522.00","status":"1"},{"id":"112852","createTime":"2019-01-29 16:09:10.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7645.00","status":"1"},{"id":"112849","createTime":"2019-01-29 15:56:15.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7768.00","status":"1"},{"id":"112843","createTime":"2019-01-29 15:53:12.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7891.00","status":"1"},{"id":"112839","createTime":"2019-01-29 15:47:47.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8014.00","status":"1"},{"id":"112837","createTime":"2019-01-29 15:45:37.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8137.00","status":"1"},{"id":"112835","createTime":"2019-01-29 15:44:18.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8260.00","status":"1"},{"id":"112679","createTime":"2019-01-28 15:28:44.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8383.00","status":"1"},{"id":"112649","createTime":"2019-01-28 10:18:45.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8506.00","status":"1"},{"id":"112621","createTime":"2019-01-26 22:02:58.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8629.00","status":"1"},{"id":"112408","createTime":"2019-01-25 20:08:37.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"8752.00","status":"1"},{"id":"112407","createTime":"2019-01-25 20:08:35.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8803.00","status":"1"},{"id":"112404","createTime":"2019-01-25 20:08:17.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112184.00","status":"1"},{"id":"112403","createTime":"2019-01-25 20:08:06.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112284.00","status":"1"},{"id":"112402","createTime":"2019-01-25 19:53:07.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112384.00","status":"1"},{"id":"112401","createTime":"2019-01-25 19:51:25.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112484.00","status":"1"},{"id":"112400","createTime":"2019-01-25 19:45:39.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"8926.00","status":"1"},{"id":"112399","createTime":"2019-01-25 19:45:38.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8977.00","status":"1"},{"id":"112397","createTime":"2019-01-25 19:42:06.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9100.00","status":"1"},{"id":"112396","createTime":"2019-01-25 19:42:05.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9151.00","status":"1"},{"id":"112330","createTime":"2019-01-25 16:49:29.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102261.00","status":"1"},{"id":"112328","createTime":"2019-01-25 16:48:43.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102361.00","status":"1"},{"id":"112298","createTime":"2019-01-25 15:33:47.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9274.00","status":"1"},{"id":"112297","createTime":"2019-01-25 15:33:46.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9325.00","status":"1"},{"id":"112294","createTime":"2019-01-25 15:33:31.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97238.00","status":"1"},{"id":"112293","createTime":"2019-01-25 15:33:23.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97338.00","status":"1"},{"id":"112290","createTime":"2019-01-25 15:26:34.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9448.00","status":"1"},{"id":"112289","createTime":"2019-01-25 15:24:26.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9499.00","status":"1"},{"id":"112286","createTime":"2019-01-25 15:22:24.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9550.00","status":"1"},{"id":"112173","createTime":"2019-01-25 13:09:43.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9601.00","status":"1"},{"id":"112172","createTime":"2019-01-25 13:09:42.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9652.00","status":"1"},{"id":"112169","createTime":"2019-01-25 13:09:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66715.00","status":"1"},{"id":"112168","createTime":"2019-01-25 13:09:18.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66815.00","status":"1"},{"id":"111926","createTime":"2019-01-24 21:37:42.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9775.00","status":"1"},{"id":"111625","createTime":"2019-01-24 10:51:00.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9826.00","status":"1"},{"id":"111624","createTime":"2019-01-24 10:50:59.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9877.00","status":"1"}],"msg":"获取用户流水记录成功！"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":[{"id":null,"investId":"6766","createTime":"2019-02-07 11:45:08","terms":"1","unfinishedInterest":"200.0","unfinishedPrincipal":"0","repaymentDate":"2019-03-07 11:45:08","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6766","createTime":"2019-02-07 11:45:08","terms":"2","unfinishedInterest":"200.0","unfinishedPrincipal":"0","repaymentDate":"2019-04-07 11:45:08","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6766","createTime":"2019-02-07 11:45:08","terms":"3","unfinishedInterest":"200.0","unfinishedPrincipal":"20000.00","repaymentDate":"2019-05-07 11:45:08","actualRepaymentDate":null,"status":"0"}],"msg":"生成回款计划成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1241,60 +1276,60 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="0.00_ " numFmtId="164"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="6">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1636,188 +1671,174 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="57">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="28" name="适中" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -2105,32 +2126,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="6.125"/>
-    <col customWidth="1" max="2" min="2" width="18"/>
-    <col customWidth="1" max="3" min="3" width="16.375"/>
-    <col customWidth="1" max="4" min="4" width="83.125"/>
-    <col customWidth="1" max="5" min="5" style="24" width="7.875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="10"/>
-    <col customWidth="1" max="7" min="7" style="1" width="70.625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="24" width="13.25"/>
-    <col customWidth="1" max="10" min="10" width="14"/>
+    <col min="1" max="1" width="6.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="46.75" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2152,15 +2169,15 @@
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="10" t="n">
+    <row r="2" spans="1:9" ht="27" customHeight="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2175,19 +2192,19 @@
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>10001</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:9">
-      <c r="A3" s="11" t="n">
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2202,178 +2219,263 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="27" customHeight="1">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="4" spans="1:9">
-      <c r="A4" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" ht="27" customHeight="1">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>10001</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="22" t="n"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>10001</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:9">
-      <c r="A6" s="11" t="n">
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n"/>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="C7" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="47">
         <v>10001</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:9">
-      <c r="A7" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:9" ht="27" customHeight="1">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>11003</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="8" spans="1:9" thickBot="1">
-      <c r="A8" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="189" customHeight="1">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>11007</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="23" t="n"/>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" ht="27" customHeight="1">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" ht="41.25" customHeight="1" thickBot="1">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10001</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="23"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet8">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="6.5"/>
-    <col customWidth="1" max="2" min="2" width="27.75"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="31.875"/>
-    <col customWidth="1" max="5" min="5" style="24" width="8.375"/>
-    <col customWidth="1" max="6" min="6" style="1" width="52.875"/>
-    <col customWidth="1" max="7" min="7" width="53.25"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="8.5"/>
-    <col customWidth="1" max="9" min="9" style="24" width="14.25"/>
+    <col min="1" max="1" width="6.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="52.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="53.25" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2402,605 +2504,602 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:9">
-      <c r="A2" s="10" t="n">
+    <row r="2" spans="1:9" ht="27" customHeight="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="26" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:9">
-      <c r="A3" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" customHeight="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="27" customHeight="1">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="27" customHeight="1">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="27" customHeight="1">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="27" customHeight="1">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="27" customHeight="1">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" ht="27" customHeight="1">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" ht="27" customHeight="1">
+      <c r="A11" s="45">
+        <v>10</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="1:9" ht="27" customHeight="1">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" ht="27" customHeight="1">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" ht="27" customHeight="1">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" ht="27" customHeight="1">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" ht="27" customHeight="1">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="4" spans="1:9">
-      <c r="A4" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" ht="27" customHeight="1">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" ht="27" customHeight="1">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" ht="27" customHeight="1">
+      <c r="A21" s="45">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:9">
-      <c r="A5" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:9">
-      <c r="A6" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:9">
-      <c r="A7" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="8" spans="1:9">
-      <c r="A8" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="9" spans="1:9">
-      <c r="A9" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="10" spans="1:9">
-      <c r="A10" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="11" spans="1:9">
-      <c r="A11" s="45" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I11" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="12" spans="1:9">
-      <c r="A12" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="13" spans="1:9">
-      <c r="A13" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="14" spans="1:9">
-      <c r="A14" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="15" spans="1:9">
-      <c r="A15" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="16" spans="1:9">
-      <c r="A16" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="17" spans="1:9">
-      <c r="A17" s="11" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="18" spans="1:9">
-      <c r="A18" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="19" spans="1:9">
-      <c r="A19" s="11" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="20" spans="1:9">
-      <c r="A20" s="11" t="n">
+      <c r="B21" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="21" spans="1:9">
-      <c r="A21" s="45" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>20</v>
-      </c>
       <c r="D21" s="47" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="27.75" r="22" spans="1:9" thickBot="1">
-      <c r="A22" s="12" t="n">
+        <v>178</v>
+      </c>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>334</v>
+        <v>21</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>347</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="23" t="n"/>
+        <v>14</v>
+      </c>
+      <c r="I22" s="23"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
-    <col customWidth="1" max="3" min="3" style="1" width="16.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="44.375"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
+    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3030,103 +3129,100 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="27" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="29" t="n"/>
-      <c r="I2" s="26" t="n"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="16" t="n"/>
-      <c r="F3" s="60" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="30" t="n"/>
-      <c r="I3" s="20" t="n"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="16" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="30" t="n"/>
-      <c r="I4" s="20" t="n"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="16" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="30" t="n"/>
-      <c r="I5" s="20" t="n"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="16" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="30" t="n"/>
-      <c r="I6" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:9" thickBot="1">
-      <c r="A7" s="12" t="n"/>
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="17" t="n"/>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="4" t="n"/>
-      <c r="H7" s="31" t="n"/>
-      <c r="I7" s="21" t="n"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="21"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G2" sqref="G2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
-    <col customWidth="1" max="3" min="3" style="1" width="24.75"/>
-    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
+    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3155,39 +3251,39 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:9">
-      <c r="A2" s="11" t="n">
+    <row r="2" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>336</v>
+        <v>32</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:9">
-      <c r="A3" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -3198,207 +3294,204 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="4" spans="1:9">
-      <c r="A4" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="27" customHeight="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>336</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>341</v>
+      <c r="F4" s="55" t="s">
+        <v>353</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:9">
-      <c r="A5" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="27" customHeight="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>336</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>344</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>356</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="6" spans="1:9">
-      <c r="A6" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>336</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:9">
-      <c r="A7" s="11" t="n">
+        <v>359</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="27" customHeight="1">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>336</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="8" spans="1:9">
-      <c r="A8" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>337</v>
-      </c>
       <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="60" t="s">
-        <v>352</v>
+      <c r="F8" s="55" t="s">
+        <v>364</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="257.25" r="9" spans="1:9" thickBot="1">
-      <c r="A9" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="257.25" customHeight="1" thickBot="1">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>336</v>
+        <v>32</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="61" t="s">
-        <v>355</v>
+      <c r="F9" s="56" t="s">
+        <v>367</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I9" s="21" t="n"/>
+        <v>178</v>
+      </c>
+      <c r="I9" s="21"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
-    <col customWidth="1" max="3" min="3" style="1" width="29"/>
-    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
+    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3427,39 +3520,39 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:9">
-      <c r="A2" s="11" t="n">
+    <row r="2" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:9">
-      <c r="A3" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -3470,130 +3563,127 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:9">
-      <c r="A4" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>361</v>
+      <c r="F4" s="55" t="s">
+        <v>373</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="5" spans="1:9">
-      <c r="A5" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>364</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>376</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="365.25" r="6" spans="1:9" thickBot="1">
-      <c r="A6" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="365.25" customHeight="1" thickBot="1">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>366</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>378</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="21" t="n"/>
+        <v>14</v>
+      </c>
+      <c r="I6" s="21"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
-    <col customWidth="1" max="3" min="3" style="1" width="27.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
+    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3622,39 +3712,39 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:9">
-      <c r="A2" s="11" t="n">
+    <row r="2" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:9">
-      <c r="A3" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -3665,130 +3755,127 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:9">
-      <c r="A4" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>372</v>
+      <c r="F4" s="55" t="s">
+        <v>384</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="5" spans="1:9">
-      <c r="A5" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>364</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>376</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27.75" r="6" spans="1:9" thickBot="1">
-      <c r="A6" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>378</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>390</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="21" t="n"/>
+        <v>14</v>
+      </c>
+      <c r="I6" s="21"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
-    <col customWidth="1" max="3" min="3" style="1" width="27.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
+    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3817,39 +3904,39 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:9">
-      <c r="A2" s="11" t="n">
+    <row r="2" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>380</v>
+        <v>37</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:9">
-      <c r="A3" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -3860,131 +3947,128 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:9">
-      <c r="A4" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>380</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>381</v>
+      <c r="F4" s="55" t="s">
+        <v>392</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="5" spans="1:9">
-      <c r="A5" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>380</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>382</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>393</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="351.75" r="6" spans="1:9" thickBot="1">
-      <c r="A6" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="351.75" customHeight="1" thickBot="1">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>380</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>383</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>394</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="21" t="n"/>
+        <v>14</v>
+      </c>
+      <c r="I6" s="21"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="6.125"/>
-    <col customWidth="1" max="2" min="2" width="18"/>
-    <col customWidth="1" max="3" min="3" width="16.375"/>
-    <col customWidth="1" max="4" min="4" width="83.125"/>
-    <col customWidth="1" max="5" min="5" style="24" width="7.875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="10"/>
-    <col customWidth="1" max="7" min="7" style="1" width="70.625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="24" width="13.25"/>
-    <col customWidth="1" max="10" min="10" width="14"/>
+    <col min="1" max="1" width="6.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="83.125" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4014,7 +4098,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -4029,19 +4113,19 @@
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>10001</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:9">
-      <c r="A3" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4056,184 +4140,182 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="4" spans="1:9">
-      <c r="A4" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="27" customHeight="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>10001</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="22" t="n"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>10001</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:9">
-      <c r="A6" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
         <v>10001</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:9">
-      <c r="A7" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="27" customHeight="1">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2">
         <v>11003</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="8" spans="1:9" thickBot="1">
-      <c r="A8" s="12" t="n">
+        <v>39</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4">
         <v>11007</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="23" t="n"/>
+        <v>39</v>
+      </c>
+      <c r="I8" s="23"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="5.625"/>
-    <col customWidth="1" max="2" min="2" style="1" width="18"/>
-    <col customWidth="1" max="3" min="3" style="1" width="17.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="47.25"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8.25"/>
-    <col customWidth="1" max="6" min="6" style="1" width="49.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="50.125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="13" width="14.5"/>
+    <col min="1" max="1" width="5.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="13" customWidth="1"/>
+    <col min="6" max="6" width="49.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4262,226 +4344,224 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:9">
-      <c r="A2" s="10" t="n">
+    <row r="2" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:9">
-      <c r="A3" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:9">
-      <c r="A4" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:9">
-      <c r="A5" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="27" customHeight="1">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="6" spans="1:9">
-      <c r="A6" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="27" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:9">
-      <c r="A7" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.25" r="8" spans="1:9" thickBot="1">
-      <c r="A8" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="41.25" customHeight="1" thickBot="1">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="21" t="n"/>
+        <v>14</v>
+      </c>
+      <c r="I8" s="21"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="6"/>
-    <col customWidth="1" max="2" min="2" style="1" width="10.75"/>
-    <col customWidth="1" max="3" min="3" style="1" width="14.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="51.5"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8.375"/>
-    <col customWidth="1" max="6" min="6" style="57" width="48"/>
-    <col customWidth="1" max="7" min="7" style="1" width="57.5"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="24" width="8.5"/>
+    <col min="1" max="1" width="6" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="48" style="52" customWidth="1"/>
+    <col min="7" max="7" width="57.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4497,7 +4577,7 @@
       <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -4507,194 +4587,191 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:8">
-      <c r="A2" s="10" t="n">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="54" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:8">
-      <c r="A3" s="11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:8">
-      <c r="A4" s="11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>78</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
-      <c r="A5" s="11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:8">
-      <c r="A6" s="11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>56</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:8" thickBot="1">
-      <c r="A7" s="12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>72</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="5.5"/>
-    <col customWidth="1" max="2" min="2" style="1" width="22"/>
-    <col customWidth="1" max="3" min="3" style="1" width="16.75"/>
-    <col customWidth="1" max="4" min="4" style="1" width="45"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8"/>
-    <col customWidth="1" max="6" min="6" style="1" width="52.375"/>
-    <col customWidth="1" max="7" min="7" style="1" width="55.25"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="13" width="14.5"/>
+    <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="13" customWidth="1"/>
+    <col min="6" max="6" width="52.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="55.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4723,389 +4800,387 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:9">
-      <c r="A2" s="10" t="n">
+    <row r="2" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:9">
-      <c r="A3" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="81" r="4" spans="1:9">
-      <c r="A4" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="81" customHeight="1">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>384</v>
+        <v>93</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="81" r="5" spans="1:9">
-      <c r="A5" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" ht="81" customHeight="1">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>385</v>
+        <v>95</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:9">
-      <c r="A6" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:9">
-      <c r="A7" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="27" customHeight="1">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="27" customHeight="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="27" customHeight="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="8" spans="1:9">
-      <c r="A8" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="9" spans="1:9">
-      <c r="A9" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="10" spans="1:9">
-      <c r="A10" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" ht="27" customHeight="1">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="11" spans="1:9">
-      <c r="A11" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" ht="27" customHeight="1">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="12" spans="1:9">
-      <c r="A12" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" ht="27" customHeight="1">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.25" r="13" spans="1:9">
-      <c r="A13" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" ht="41.25" customHeight="1">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27.75" r="14" spans="1:9" thickBot="1">
-      <c r="A14" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A14" s="33">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="23" t="n"/>
+        <v>14</v>
+      </c>
+      <c r="I14" s="23"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="5.625"/>
-    <col customWidth="1" max="2" min="2" style="1" width="19.875"/>
-    <col customWidth="1" max="3" min="3" style="1" width="17.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="38.25"/>
-    <col customWidth="1" max="5" min="5" style="13" width="7.625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="48.5"/>
-    <col customWidth="1" max="7" min="7" style="1" width="49.875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="13" width="14.5"/>
+    <col min="1" max="1" width="5.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="48.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5134,434 +5209,430 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:9">
-      <c r="A2" s="10" t="n">
+    <row r="2" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="26" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:9">
-      <c r="A3" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="94.5" r="4" spans="1:9">
-      <c r="A4" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" customHeight="1">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="94.5" customHeight="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="27" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="27" customHeight="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="94.5" r="5" spans="1:9">
-      <c r="A5" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:9">
-      <c r="A6" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:9">
-      <c r="A7" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="8" spans="1:9">
-      <c r="A8" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="9" spans="1:9">
-      <c r="A9" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="10" spans="1:9">
-      <c r="A10" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="11" spans="1:9">
-      <c r="A11" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="12" spans="1:9">
-      <c r="A12" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="13" spans="1:9">
-      <c r="A13" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="14" spans="1:9">
-      <c r="A14" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="15" spans="1:9" thickBot="1">
-      <c r="A15" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="21" t="n"/>
+        <v>14</v>
+      </c>
+      <c r="I15" s="21"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
-    <col customWidth="1" max="3" min="3" style="1" width="16.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="44.375"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
+    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5590,628 +5661,626 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="2" spans="1:9">
-      <c r="A2" s="10" t="n">
+    <row r="2" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="26" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:9">
-      <c r="A3" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="4" spans="1:9">
-      <c r="A4" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="54" customHeight="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="5" spans="1:9">
-      <c r="A5" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="6" spans="1:9">
-      <c r="A6" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="7" spans="1:9">
-      <c r="A7" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="54" customHeight="1">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="8" spans="1:9">
-      <c r="A8" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="54" customHeight="1">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="9" spans="1:9">
-      <c r="A9" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="54" customHeight="1">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="10" spans="1:9">
-      <c r="A10" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="54" customHeight="1">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="54" customHeight="1">
+      <c r="A12" s="45">
+        <v>11</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="54" customHeight="1">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" ht="54" customHeight="1">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="1:9" ht="54" customHeight="1">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" ht="67.5" customHeight="1" thickBot="1">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="11" spans="1:9">
-      <c r="A11" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="12" spans="1:9">
-      <c r="A12" s="45" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="47" t="n"/>
-      <c r="H12" s="43" t="n"/>
-      <c r="I12" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="13" spans="1:9">
-      <c r="A13" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="14" spans="1:9">
-      <c r="A14" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="15" spans="1:9">
-      <c r="A15" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="16" spans="1:9">
-      <c r="A16" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="17" spans="1:9">
-      <c r="A17" s="11" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="18" spans="1:9">
-      <c r="A18" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="19" spans="1:9">
-      <c r="A19" s="45" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I19" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="20" spans="1:9">
-      <c r="A20" s="45" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I20" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="21" spans="1:9">
-      <c r="A21" s="45" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="22" spans="1:9">
-      <c r="A22" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="23" spans="1:9" thickBot="1">
-      <c r="A23" s="12" t="n">
-        <v>22</v>
-      </c>
       <c r="B23" s="4" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="21" t="n"/>
+        <v>14</v>
+      </c>
+      <c r="I23" s="21"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet7">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="6"/>
-    <col customWidth="1" max="2" min="2" width="20.125"/>
-    <col customWidth="1" max="3" min="3" width="14.25"/>
-    <col customWidth="1" max="4" min="4" width="69.875"/>
-    <col customWidth="1" max="5" min="5" style="24" width="7.625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="44.375"/>
-    <col customWidth="1" max="7" min="7" style="1" width="47.5"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
-    <col customWidth="1" max="9" min="9" style="24" width="13.75"/>
+    <col min="1" max="1" width="6" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="69.875" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="44.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -6240,1300 +6309,1301 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="2" spans="1:9">
-      <c r="A2" s="11" t="n">
+    <row r="2" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:9">
-      <c r="A3" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" customHeight="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="4" spans="1:9">
-      <c r="A4" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="5" spans="1:9">
-      <c r="A5" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" ht="54" customHeight="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="6" spans="1:9">
-      <c r="A6" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="7" spans="1:9">
-      <c r="A7" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="54" customHeight="1">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="8" spans="1:9">
-      <c r="A8" s="11" t="n">
+        <v>195</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="54" customHeight="1">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="9" spans="1:9">
-      <c r="A9" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="54" customHeight="1">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="10" spans="1:9">
-      <c r="A10" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="11" spans="1:9">
-      <c r="A11" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="12" spans="1:9">
-      <c r="A12" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="13" spans="1:9">
-      <c r="A13" s="38" t="n">
+        <v>14</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" ht="54" customHeight="1">
+      <c r="A13" s="38">
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="42" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="14" spans="1:9">
-      <c r="A14" s="45" t="n">
+        <v>14</v>
+      </c>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" ht="54" customHeight="1">
+      <c r="A14" s="45">
         <v>13</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I14" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="15" spans="1:9">
-      <c r="A15" s="10" t="n">
+        <v>178</v>
+      </c>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" ht="54" customHeight="1">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="16" spans="1:9">
-      <c r="A16" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="54" customHeight="1">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="17" spans="1:9">
-      <c r="A17" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" ht="54" customHeight="1">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="18" spans="1:9">
-      <c r="A18" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" ht="54" customHeight="1">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="19" spans="1:9">
-      <c r="A19" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" ht="54" customHeight="1">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="20" spans="1:9">
-      <c r="A20" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" ht="54" customHeight="1">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="21" spans="1:9">
-      <c r="A21" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" ht="54" customHeight="1">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="22" spans="1:9">
-      <c r="A22" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" ht="54" customHeight="1">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" ht="54" customHeight="1">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="23" spans="1:9">
-      <c r="A23" s="11" t="n">
-        <v>22</v>
-      </c>
       <c r="B23" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="24" spans="1:9">
-      <c r="A24" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" ht="54" customHeight="1">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="25" spans="1:9">
-      <c r="A25" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="26" spans="1:9">
-      <c r="A26" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="27" spans="1:9">
-      <c r="A27" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" ht="54" customHeight="1">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="28" spans="1:9">
-      <c r="A28" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="29" spans="1:9">
-      <c r="A29" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" ht="54" customHeight="1">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="30" spans="1:9">
-      <c r="A30" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="31" spans="1:9">
-      <c r="A31" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" ht="54" customHeight="1">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="32" spans="1:9">
-      <c r="A32" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="54" customHeight="1">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="33" spans="1:9">
-      <c r="A33" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="34" spans="1:9">
-      <c r="A34" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="35" spans="1:9">
-      <c r="A35" s="45" t="n">
+        <v>14</v>
+      </c>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" ht="54" customHeight="1">
+      <c r="A35" s="45">
         <v>34</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E35" s="47" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I35" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="36" spans="1:9">
-      <c r="A36" s="45" t="n">
+        <v>178</v>
+      </c>
+      <c r="I35" s="44"/>
+    </row>
+    <row r="36" spans="1:9" ht="54" customHeight="1">
+      <c r="A36" s="45">
         <v>35</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I36" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="37" spans="1:9">
-      <c r="A37" s="11" t="n">
+        <v>178</v>
+      </c>
+      <c r="I36" s="44"/>
+    </row>
+    <row r="37" spans="1:9" ht="54" customHeight="1">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="38" spans="1:9">
-      <c r="A38" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" ht="54" customHeight="1">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="39" spans="1:9">
-      <c r="A39" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="40" spans="1:9">
-      <c r="A40" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="41" spans="1:9">
-      <c r="A41" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="42" spans="1:9">
-      <c r="A42" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="I42" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="43" spans="1:9">
-      <c r="A43" s="11" t="n">
-        <v>42</v>
-      </c>
       <c r="B43" s="2" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="44" spans="1:9">
-      <c r="A44" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="45" spans="1:9">
-      <c r="A45" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="46" spans="1:9">
-      <c r="A46" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="67.5" r="47" spans="1:9">
-      <c r="A47" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="1:9" ht="67.5" customHeight="1">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="54" r="48" spans="1:9">
-      <c r="A48" s="45" t="n">
+        <v>14</v>
+      </c>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" spans="1:9" ht="54" customHeight="1">
+      <c r="A48" s="45">
         <v>47</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E48" s="47" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G48" s="47" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I48" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="68.25" r="49" spans="1:9" thickBot="1">
-      <c r="A49" s="12" t="n">
+        <v>178</v>
+      </c>
+      <c r="I48" s="44"/>
+    </row>
+    <row r="49" spans="1:9" ht="68.25" customHeight="1" thickBot="1">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="23" t="n"/>
+        <v>14</v>
+      </c>
+      <c r="I49" s="23"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/datas/luckytest.xlsx
+++ b/datas/luckytest.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6435"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6435" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="generateRepayments" sheetId="1" r:id="rId1"/>
-    <sheet name="invest" sheetId="2" r:id="rId2"/>
-    <sheet name="register" sheetId="3" r:id="rId3"/>
-    <sheet name="login" sheetId="4" r:id="rId4"/>
-    <sheet name="recharge" sheetId="5" r:id="rId5"/>
-    <sheet name="withdraw" sheetId="6" r:id="rId6"/>
-    <sheet name="list " sheetId="7" r:id="rId7"/>
-    <sheet name="bidLoan" sheetId="8" r:id="rId8"/>
-    <sheet name="add" sheetId="9" r:id="rId9"/>
-    <sheet name="audit" sheetId="10" r:id="rId10"/>
-    <sheet name="getLoanList" sheetId="11" r:id="rId11"/>
-    <sheet name="generateRepayments_api" sheetId="12" r:id="rId12"/>
-    <sheet name="getInvestsByMemberId" sheetId="13" r:id="rId13"/>
-    <sheet name="getInvestsByLoanId" sheetId="14" r:id="rId14"/>
-    <sheet name="getFinanceLogList" sheetId="15" r:id="rId15"/>
+    <sheet name="generateRepayments" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="invest" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="register" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="login" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="recharge" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="list " sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="bidLoan" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="add" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="audit" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="getLoanList" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="generateRepayments_api" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="getInvestsByMemberId" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="getInvestsByLoanId" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="getFinanceLogList" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
   <si>
     <t>case_id</t>
   </si>
@@ -84,6 +84,9 @@
     <t>{"memberId": "${loan_member_id}", "title": "luckytest", "amount": 20000, "loanRate": "12.0", "loanTerm": 3, "loanDateType": 0, "repaymemtWay": 11, "biddingDays": 5}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
+  </si>
+  <si>
     <t>管理员审核通过(status=4)</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
     <t>post</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+  </si>
+  <si>
     <t>投资人正常登陆</t>
   </si>
   <si>
@@ -111,18 +117,30 @@
     <t>{"memberId": "${normal_member_id}", "password": "${normal_pwd}", "loanId": "${loan_id}", "amount": "20000"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
+  </si>
+  <si>
     <t>管理员核保审批(status=5)满标自动变成5吗？</t>
   </si>
   <si>
     <t>{"id":"${loan_id}", "status":5}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20207","data":null,"msg":"修改失败，当前标已经是该状态"}</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>管理员终审通过(status=6)</t>
   </si>
   <si>
     <t>{"id":"${loan_id}", "status":6}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为平台终审状态"}</t>
+  </si>
+  <si>
     <t>生成回款计划流程</t>
   </si>
   <si>
@@ -132,6 +150,9 @@
     <t>{"id": "${loan_id}"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":[{"id":null,"investId":"6766","createTime":"2019-02-07 11:45:08","terms":"1","unfinishedInterest":"200.0","unfinishedPrincipal":"0","repaymentDate":"2019-03-07 11:45:08","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6766","createTime":"2019-02-07 11:45:08","terms":"2","unfinishedInterest":"200.0","unfinishedPrincipal":"0","repaymentDate":"2019-04-07 11:45:08","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6766","createTime":"2019-02-07 11:45:08","terms":"3","unfinishedInterest":"200.0","unfinishedPrincipal":"20000.00","repaymentDate":"2019-05-07 11:45:08","actualRepaymentDate":null,"status":"0"}],"msg":"生成回款计划成功"}</t>
+  </si>
+  <si>
     <t>财务放款，借款人登陆</t>
   </si>
   <si>
@@ -147,25 +168,19 @@
     <t>{"memberId": "${loan_member_id}"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":[{"id":"113430","createTime":"2019-02-07 11:45:07.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"20000.00","incomeMemberMoney":"6169.00","payMemberMoney":"83641.00","status":"1"},{"id":"113429","createTime":"2019-02-07 11:34:10.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"20000.00","incomeMemberMoney":"6169.00","payMemberMoney":"103641.00","status":"1"},{"id":"113428","createTime":"2019-02-07 11:31:39.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6169.00","payMemberMoney":"123641.00","status":"1"},{"id":"113259","createTime":"2019-02-03 15:07:09.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6169.00","status":"1"},{"id":"113258","createTime":"2019-02-03 15:07:09.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6292.00","status":"1"},{"id":"113229","createTime":"2019-02-02 14:09:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6415.00","payMemberMoney":"123618.00","status":"1"},{"id":"113228","createTime":"2019-02-02 13:23:32.0","payMemberId":"1116831","incomeMemberId":"1114425","amount":"200.00","incomeMemberMoney":"6415.00","payMemberMoney":"-77.00","status":"1"},{"id":"113227","createTime":"2019-02-02 13:20:40.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6415.00","status":"1"},{"id":"113226","createTime":"2019-02-02 13:20:40.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6538.00","status":"1"},{"id":"113225","createTime":"2019-02-02 13:02:28.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6661.00","status":"1"},{"id":"113224","createTime":"2019-02-02 13:02:28.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6784.00","status":"1"},{"id":"113152","createTime":"2019-02-01 15:59:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123472.00","status":"1"},{"id":"113151","createTime":"2019-02-01 15:58:39.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123572.00","status":"1"},{"id":"113137","createTime":"2019-02-01 13:50:10.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123672.00","status":"1"},{"id":"113136","createTime":"2019-02-01 13:49:34.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6907.00","status":"1"},{"id":"113133","createTime":"2019-02-01 13:33:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123649.00","status":"1"},{"id":"113132","createTime":"2019-02-01 13:32:42.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123749.00","status":"1"},{"id":"113116","createTime":"2019-02-01 10:07:00.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123849.00","status":"1"},{"id":"113115","createTime":"2019-02-01 10:03:47.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123949.00","status":"1"},{"id":"112976","createTime":"2019-01-30 16:58:20.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7030.00","status":"1"},{"id":"112953","createTime":"2019-01-30 13:32:48.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7153.00","status":"1"},{"id":"112951","createTime":"2019-01-30 13:31:13.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7276.00","status":"1"},{"id":"112949","createTime":"2019-01-30 13:28:59.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7399.00","status":"1"},{"id":"112932","createTime":"2019-01-30 10:06:03.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7522.00","status":"1"},{"id":"112852","createTime":"2019-01-29 16:09:10.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7645.00","status":"1"},{"id":"112849","createTime":"2019-01-29 15:56:15.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7768.00","status":"1"},{"id":"112843","createTime":"2019-01-29 15:53:12.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7891.00","status":"1"},{"id":"112839","createTime":"2019-01-29 15:47:47.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8014.00","status":"1"},{"id":"112837","createTime":"2019-01-29 15:45:37.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8137.00","status":"1"},{"id":"112835","createTime":"2019-01-29 15:44:18.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8260.00","status":"1"},{"id":"112679","createTime":"2019-01-28 15:28:44.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8383.00","status":"1"},{"id":"112649","createTime":"2019-01-28 10:18:45.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8506.00","status":"1"},{"id":"112621","createTime":"2019-01-26 22:02:58.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8629.00","status":"1"},{"id":"112408","createTime":"2019-01-25 20:08:37.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"8752.00","status":"1"},{"id":"112407","createTime":"2019-01-25 20:08:35.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8803.00","status":"1"},{"id":"112404","createTime":"2019-01-25 20:08:17.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112184.00","status":"1"},{"id":"112403","createTime":"2019-01-25 20:08:06.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112284.00","status":"1"},{"id":"112402","createTime":"2019-01-25 19:53:07.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112384.00","status":"1"},{"id":"112401","createTime":"2019-01-25 19:51:25.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112484.00","status":"1"},{"id":"112400","createTime":"2019-01-25 19:45:39.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"8926.00","status":"1"},{"id":"112399","createTime":"2019-01-25 19:45:38.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8977.00","status":"1"},{"id":"112397","createTime":"2019-01-25 19:42:06.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9100.00","status":"1"},{"id":"112396","createTime":"2019-01-25 19:42:05.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9151.00","status":"1"},{"id":"112330","createTime":"2019-01-25 16:49:29.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102261.00","status":"1"},{"id":"112328","createTime":"2019-01-25 16:48:43.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102361.00","status":"1"},{"id":"112298","createTime":"2019-01-25 15:33:47.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9274.00","status":"1"},{"id":"112297","createTime":"2019-01-25 15:33:46.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9325.00","status":"1"},{"id":"112294","createTime":"2019-01-25 15:33:31.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97238.00","status":"1"},{"id":"112293","createTime":"2019-01-25 15:33:23.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97338.00","status":"1"},{"id":"112290","createTime":"2019-01-25 15:26:34.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9448.00","status":"1"},{"id":"112289","createTime":"2019-01-25 15:24:26.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9499.00","status":"1"},{"id":"112286","createTime":"2019-01-25 15:22:24.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9550.00","status":"1"},{"id":"112173","createTime":"2019-01-25 13:09:43.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9601.00","status":"1"},{"id":"112172","createTime":"2019-01-25 13:09:42.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9652.00","status":"1"},{"id":"112169","createTime":"2019-01-25 13:09:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66715.00","status":"1"},{"id":"112168","createTime":"2019-01-25 13:09:18.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66815.00","status":"1"},{"id":"111926","createTime":"2019-01-24 21:37:42.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9775.00","status":"1"},{"id":"111625","createTime":"2019-01-24 10:51:00.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9826.00","status":"1"},{"id":"111624","createTime":"2019-01-24 10:50:59.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9877.00","status":"1"}],"msg":"获取用户流水记录成功！"}</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
-  </si>
-  <si>
     <t>管理员审核</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
-  </si>
-  <si>
     <t>投资人正常投资</t>
   </si>
   <si>
     <t>{"memberId": "${normal_member_id}", "password": "${normal_pwd}", "loanId": "${loan_id}", "amount": "100"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
   </si>
   <si>
     <t>投资人投资不输入金额</t>
@@ -566,9 +581,6 @@
     <t>{"status":0,"code":"11010","data":null,"msg":"该标不在竞标中状态，无法完成投标,需修改用例"}</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>该标已经满标,无法进行投资</t>
   </si>
   <si>
@@ -1017,9 +1029,6 @@
     <t>{"id": "${audit_loan_id}",  "status": 1}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20207","data":null,"msg":"修改失败，当前标已经是该状态"}</t>
-  </si>
-  <si>
     <t>还款完成 项目所有的还款都已完成(status=10)</t>
   </si>
   <si>
@@ -1098,9 +1107,6 @@
     <t>{"id": 11581,  "status": 6}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为平台终审状态"}</t>
-  </si>
-  <si>
     <t>还款中(status=7)</t>
   </si>
   <si>
@@ -1261,14 +1267,6 @@
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":[{"id":"113230","createTime":"2019-02-02 15:07:09.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"123495.00","status":"1"},{"id":"113229","createTime":"2019-02-02 14:09:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6415.00","payMemberMoney":"123618.00","status":"1"},{"id":"113152","createTime":"2019-02-01 15:59:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123472.00","status":"1"},{"id":"113151","createTime":"2019-02-01 15:58:39.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123572.00","status":"1"},{"id":"113137","createTime":"2019-02-01 13:50:10.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123672.00","status":"1"},{"id":"113133","createTime":"2019-02-01 13:33:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123649.00","status":"1"},{"id":"113132","createTime":"2019-02-01 13:32:42.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123749.00","status":"1"},{"id":"113116","createTime":"2019-02-01 10:07:00.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123849.00","status":"1"},{"id":"113115","createTime":"2019-02-01 10:03:47.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123949.00","status":"1"},{"id":"113052","createTime":"2019-01-31 14:44:02.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"124049.00","status":"1"},{"id":"113051","createTime":"2019-01-31 14:43:57.0","payMemberId":"1115697","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"124172.00","status":"1"},{"id":"112404","createTime":"2019-01-25 20:08:17.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112184.00","status":"1"},{"id":"112403","createTime":"2019-01-25 20:08:06.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112284.00","status":"1"},{"id":"112402","createTime":"2019-01-25 19:53:07.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112384.00","status":"1"},{"id":"112401","createTime":"2019-01-25 19:51:25.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112484.00","status":"1"},{"id":"112330","createTime":"2019-01-25 16:49:29.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102261.00","status":"1"},{"id":"112328","createTime":"2019-01-25 16:48:43.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102361.00","status":"1"},{"id":"112294","createTime":"2019-01-25 15:33:31.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97238.00","status":"1"},{"id":"112293","createTime":"2019-01-25 15:33:23.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97338.00","status":"1"},{"id":"112169","createTime":"2019-01-25 13:09:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66715.00","status":"1"},{"id":"112168","createTime":"2019-01-25 13:09:18.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66815.00","status":"1"}],"msg":"获取用户流水记录成功！"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":[{"id":"113430","createTime":"2019-02-07 11:45:07.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"20000.00","incomeMemberMoney":"6169.00","payMemberMoney":"83641.00","status":"1"},{"id":"113429","createTime":"2019-02-07 11:34:10.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"20000.00","incomeMemberMoney":"6169.00","payMemberMoney":"103641.00","status":"1"},{"id":"113428","createTime":"2019-02-07 11:31:39.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6169.00","payMemberMoney":"123641.00","status":"1"},{"id":"113259","createTime":"2019-02-03 15:07:09.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6169.00","status":"1"},{"id":"113258","createTime":"2019-02-03 15:07:09.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6292.00","status":"1"},{"id":"113229","createTime":"2019-02-02 14:09:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6415.00","payMemberMoney":"123618.00","status":"1"},{"id":"113228","createTime":"2019-02-02 13:23:32.0","payMemberId":"1116831","incomeMemberId":"1114425","amount":"200.00","incomeMemberMoney":"6415.00","payMemberMoney":"-77.00","status":"1"},{"id":"113227","createTime":"2019-02-02 13:20:40.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6415.00","status":"1"},{"id":"113226","createTime":"2019-02-02 13:20:40.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6538.00","status":"1"},{"id":"113225","createTime":"2019-02-02 13:02:28.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6661.00","status":"1"},{"id":"113224","createTime":"2019-02-02 13:02:28.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6784.00","status":"1"},{"id":"113152","createTime":"2019-02-01 15:59:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123472.00","status":"1"},{"id":"113151","createTime":"2019-02-01 15:58:39.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123572.00","status":"1"},{"id":"113137","createTime":"2019-02-01 13:50:10.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"6907.00","payMemberMoney":"123672.00","status":"1"},{"id":"113136","createTime":"2019-02-01 13:49:34.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"6907.00","status":"1"},{"id":"113133","createTime":"2019-02-01 13:33:34.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123649.00","status":"1"},{"id":"113132","createTime":"2019-02-01 13:32:42.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123749.00","status":"1"},{"id":"113116","createTime":"2019-02-01 10:07:00.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123849.00","status":"1"},{"id":"113115","createTime":"2019-02-01 10:03:47.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"7030.00","payMemberMoney":"123949.00","status":"1"},{"id":"112976","createTime":"2019-01-30 16:58:20.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7030.00","status":"1"},{"id":"112953","createTime":"2019-01-30 13:32:48.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7153.00","status":"1"},{"id":"112951","createTime":"2019-01-30 13:31:13.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7276.00","status":"1"},{"id":"112949","createTime":"2019-01-30 13:28:59.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7399.00","status":"1"},{"id":"112932","createTime":"2019-01-30 10:06:03.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7522.00","status":"1"},{"id":"112852","createTime":"2019-01-29 16:09:10.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7645.00","status":"1"},{"id":"112849","createTime":"2019-01-29 15:56:15.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7768.00","status":"1"},{"id":"112843","createTime":"2019-01-29 15:53:12.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"7891.00","status":"1"},{"id":"112839","createTime":"2019-01-29 15:47:47.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8014.00","status":"1"},{"id":"112837","createTime":"2019-01-29 15:45:37.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8137.00","status":"1"},{"id":"112835","createTime":"2019-01-29 15:44:18.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8260.00","status":"1"},{"id":"112679","createTime":"2019-01-28 15:28:44.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8383.00","status":"1"},{"id":"112649","createTime":"2019-01-28 10:18:45.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8506.00","status":"1"},{"id":"112621","createTime":"2019-01-26 22:02:58.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8629.00","status":"1"},{"id":"112408","createTime":"2019-01-25 20:08:37.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"8752.00","status":"1"},{"id":"112407","createTime":"2019-01-25 20:08:35.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8803.00","status":"1"},{"id":"112404","createTime":"2019-01-25 20:08:17.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112184.00","status":"1"},{"id":"112403","createTime":"2019-01-25 20:08:06.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112284.00","status":"1"},{"id":"112402","createTime":"2019-01-25 19:53:07.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112384.00","status":"1"},{"id":"112401","createTime":"2019-01-25 19:51:25.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"8926.00","payMemberMoney":"112484.00","status":"1"},{"id":"112400","createTime":"2019-01-25 19:45:39.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"8926.00","status":"1"},{"id":"112399","createTime":"2019-01-25 19:45:38.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"8977.00","status":"1"},{"id":"112397","createTime":"2019-01-25 19:42:06.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9100.00","status":"1"},{"id":"112396","createTime":"2019-01-25 19:42:05.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9151.00","status":"1"},{"id":"112330","createTime":"2019-01-25 16:49:29.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102261.00","status":"1"},{"id":"112328","createTime":"2019-01-25 16:48:43.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9274.00","payMemberMoney":"102361.00","status":"1"},{"id":"112298","createTime":"2019-01-25 15:33:47.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9274.00","status":"1"},{"id":"112297","createTime":"2019-01-25 15:33:46.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9325.00","status":"1"},{"id":"112294","createTime":"2019-01-25 15:33:31.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97238.00","status":"1"},{"id":"112293","createTime":"2019-01-25 15:33:23.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9448.00","payMemberMoney":"97338.00","status":"1"},{"id":"112290","createTime":"2019-01-25 15:26:34.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9448.00","status":"1"},{"id":"112289","createTime":"2019-01-25 15:24:26.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9499.00","status":"1"},{"id":"112286","createTime":"2019-01-25 15:22:24.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9550.00","status":"1"},{"id":"112173","createTime":"2019-01-25 13:09:43.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9601.00","status":"1"},{"id":"112172","createTime":"2019-01-25 13:09:42.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9652.00","status":"1"},{"id":"112169","createTime":"2019-01-25 13:09:26.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66715.00","status":"1"},{"id":"112168","createTime":"2019-01-25 13:09:18.0","payMemberId":"1115697","incomeMemberId":"1114425","amount":"100.00","incomeMemberMoney":"9775.00","payMemberMoney":"66815.00","status":"1"},{"id":"111926","createTime":"2019-01-24 21:37:42.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9775.00","status":"1"},{"id":"111625","createTime":"2019-01-24 10:51:00.0","payMemberId":"1114425","incomeMemberId":"0","amount":"51.00","incomeMemberMoney":null,"payMemberMoney":"9826.00","status":"1"},{"id":"111624","createTime":"2019-01-24 10:50:59.0","payMemberId":"1114425","incomeMemberId":"0","amount":"123.00","incomeMemberMoney":null,"payMemberMoney":"9877.00","status":"1"}],"msg":"获取用户流水记录成功！"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":[{"id":null,"investId":"6766","createTime":"2019-02-07 11:45:08","terms":"1","unfinishedInterest":"200.0","unfinishedPrincipal":"0","repaymentDate":"2019-03-07 11:45:08","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6766","createTime":"2019-02-07 11:45:08","terms":"2","unfinishedInterest":"200.0","unfinishedPrincipal":"0","repaymentDate":"2019-04-07 11:45:08","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"6766","createTime":"2019-02-07 11:45:08","terms":"3","unfinishedInterest":"200.0","unfinishedPrincipal":"20000.00","repaymentDate":"2019-05-07 11:45:08","actualRepaymentDate":null,"status":"0"}],"msg":"生成回款计划成功"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1276,60 +1274,60 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt formatCode="0.00_ " numFmtId="164"/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1671,174 +1669,188 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="62">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="28" name="适中" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -2126,28 +2138,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="46.75" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="6.125"/>
+    <col customWidth="1" max="2" min="2" width="18"/>
+    <col customWidth="1" max="3" min="3" width="25.5"/>
+    <col customWidth="1" max="4" min="4" width="46.75"/>
+    <col customWidth="1" max="5" min="5" style="24" width="7.875"/>
+    <col customWidth="1" max="6" min="6" style="1" width="10"/>
+    <col customWidth="1" max="7" min="7" style="1" width="70.625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="24" width="13.25"/>
+    <col customWidth="1" max="10" min="10" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2176,8 +2192,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="27" r="2" spans="1:9">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2192,7 +2208,7 @@
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="6" t="n">
         <v>10001</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -2201,10 +2217,10 @@
       <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+      <c r="I2" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2219,61 +2235,61 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1">
-      <c r="A4" s="11">
+      <c r="I3" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="11">
+      <c r="I4" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2282,133 +2298,133 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1">
-      <c r="A6" s="11">
+      <c r="I5" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A7" s="45">
+      <c r="I6" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:9">
+      <c r="A7" s="45" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="47">
+        <v>22</v>
+      </c>
+      <c r="F7" s="47" t="n">
         <v>10001</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="11">
+        <v>33</v>
+      </c>
+      <c r="I7" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:9">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>340</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="189" customHeight="1">
-      <c r="A9" s="11">
+      <c r="I8" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="189" r="9" spans="1:9">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="27" customHeight="1">
-      <c r="A10" s="11">
+      <c r="I9" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:9">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2417,65 +2433,67 @@
       <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A11" s="12">
+      <c r="I10" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="11" spans="1:9" thickBot="1">
+      <c r="A11" s="12" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>10001</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>395</v>
+        <v>46</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="23" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet8">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="52.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="53.25" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="24" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.5"/>
+    <col customWidth="1" max="2" min="2" width="27.75"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="31.875"/>
+    <col customWidth="1" max="5" min="5" style="24" width="8.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="52.875"/>
+    <col customWidth="1" max="7" min="7" width="53.25"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="24" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2504,50 +2522,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="27" r="2" spans="1:9">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" customHeight="1">
-      <c r="A3" s="11">
+      <c r="I2" s="26" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2556,550 +2574,553 @@
       <c r="H3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1">
-      <c r="A4" s="11">
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:9">
+      <c r="A8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:9">
+      <c r="A9" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:9">
+      <c r="A10" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:9">
+      <c r="A11" s="45" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="12" spans="1:9">
+      <c r="A12" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="13" spans="1:9">
+      <c r="A13" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="14" spans="1:9">
+      <c r="A14" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="15" spans="1:9">
+      <c r="A15" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="16" spans="1:9">
+      <c r="A16" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="17" spans="1:9">
+      <c r="A17" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="18" spans="1:9">
+      <c r="A18" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="19" spans="1:9">
+      <c r="A19" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="20" spans="1:9">
+      <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="B20" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="21" spans="1:9">
+      <c r="A21" s="45" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="27.75" r="22" spans="1:9" thickBot="1">
+      <c r="A22" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="27" customHeight="1">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="27" customHeight="1">
-      <c r="A11" s="45">
-        <v>10</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" ht="27" customHeight="1">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1">
-      <c r="A21" s="45">
+      <c r="B22" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>342</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>344</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>347</v>
+        <v>22</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>349</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="23" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
+    <col customWidth="1" max="3" min="3" style="1" width="16.375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="44.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3129,100 +3150,103 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="26"/>
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="27" t="n"/>
+      <c r="E2" s="15" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="29" t="n"/>
+      <c r="I2" s="26" t="n"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="20"/>
+      <c r="A3" s="11" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="16" t="n"/>
+      <c r="F3" s="60" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="30" t="n"/>
+      <c r="I3" s="20" t="n"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="20"/>
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="30" t="n"/>
+      <c r="I4" s="20" t="n"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="20"/>
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="30" t="n"/>
+      <c r="I5" s="20" t="n"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="21"/>
+      <c r="A6" s="11" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="16" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="30" t="n"/>
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="7" spans="1:9" thickBot="1">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="17" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="4" t="n"/>
+      <c r="H7" s="31" t="n"/>
+      <c r="I7" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="24.75"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3251,39 +3275,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="11">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+      <c r="I2" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -3294,7 +3318,7 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -3303,195 +3327,198 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1">
-      <c r="A4" s="11">
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:9">
+      <c r="A8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>356</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>359</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>349</v>
-      </c>
       <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="55" t="s">
-        <v>364</v>
+      <c r="F8" s="60" t="s">
+        <v>366</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="257.25" customHeight="1" thickBot="1">
-      <c r="A9" s="12">
+      <c r="I8" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="257.25" r="9" spans="1:9" thickBot="1">
+      <c r="A9" s="12" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D9" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>367</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="I9" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="29"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3520,39 +3547,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="11">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+      <c r="I2" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -3563,7 +3590,7 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -3572,118 +3599,121 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A4" s="11">
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="365.25" r="6" spans="1:9" thickBot="1">
+      <c r="A6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>376</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="365.25" customHeight="1" thickBot="1">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>378</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>380</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="27.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3712,39 +3742,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="11">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+      <c r="I2" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -3755,7 +3785,7 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -3764,118 +3794,121 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A4" s="11">
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27.75" r="6" spans="1:9" thickBot="1">
+      <c r="A6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>376</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>390</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>392</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="27.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3904,39 +3937,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="11">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+      <c r="I2" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -3947,7 +3980,7 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -3956,119 +3989,122 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A4" s="11">
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="351.75" r="6" spans="1:9" thickBot="1">
+      <c r="A6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>392</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>393</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="351.75" customHeight="1" thickBot="1">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>394</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>396</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="83.125" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="6.125"/>
+    <col customWidth="1" max="2" min="2" width="18"/>
+    <col customWidth="1" max="3" min="3" width="16.375"/>
+    <col customWidth="1" max="4" min="4" width="83.125"/>
+    <col customWidth="1" max="5" min="5" style="24" width="7.875"/>
+    <col customWidth="1" max="6" min="6" style="1" width="10"/>
+    <col customWidth="1" max="7" min="7" style="1" width="70.625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="24" width="13.25"/>
+    <col customWidth="1" max="10" min="10" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4098,7 +4134,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -4113,19 +4149,19 @@
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="6" t="n">
         <v>10001</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+        <v>47</v>
+      </c>
+      <c r="I2" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4140,182 +4176,184 @@
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1">
-      <c r="A4" s="11">
+        <v>47</v>
+      </c>
+      <c r="I3" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="I4" s="22" t="n"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1">
-      <c r="A6" s="11">
+        <v>47</v>
+      </c>
+      <c r="I5" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>10001</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="11">
+        <v>47</v>
+      </c>
+      <c r="I6" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>11003</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2">
-        <v>11003</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="A8" s="12">
+      <c r="I7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:9" thickBot="1">
+      <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="n">
         <v>11007</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="I8" s="23" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="13" customWidth="1"/>
-    <col min="6" max="6" width="49.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="50.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="13" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="5.625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="18"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="47.25"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.25"/>
+    <col customWidth="1" max="6" min="6" style="1" width="49.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="50.125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="13" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4344,224 +4382,198 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="10">
+        <v>60</v>
+      </c>
+      <c r="G2" s="7" t="n"/>
+      <c r="H2" s="32" t="n"/>
+      <c r="I2" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="30" t="n"/>
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:9">
+      <c r="A4" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="30" t="n"/>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:9">
+      <c r="A5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A6" s="10">
+        <v>69</v>
+      </c>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="30" t="n"/>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="6" spans="1:9">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="10">
+        <v>69</v>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="30" t="n"/>
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A8" s="33">
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="30" t="n"/>
+      <c r="I7" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="8" spans="1:9" thickBot="1">
+      <c r="A8" s="33" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="21"/>
+        <v>77</v>
+      </c>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="31" t="n"/>
+      <c r="I8" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="48" style="52" customWidth="1"/>
-    <col min="7" max="7" width="57.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="24" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.75"/>
+    <col customWidth="1" max="3" min="3" style="1" width="14.5"/>
+    <col customWidth="1" max="4" min="4" style="1" width="51.5"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.375"/>
+    <col customWidth="1" max="6" min="6" style="57" width="48"/>
+    <col customWidth="1" max="7" min="7" style="1" width="57.5"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="24" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4577,7 +4589,7 @@
       <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -4587,23 +4599,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:8">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="59" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -4613,23 +4625,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+    <row customHeight="1" ht="40.5" r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -4639,139 +4651,142 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A4" s="11">
+    <row customHeight="1" ht="40.5" r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>78</v>
+        <v>22</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
-      <c r="A5" s="11">
+    <row customHeight="1" ht="27" r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>78</v>
+        <v>22</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="A6" s="11">
+    <row customHeight="1" ht="27" r="6" spans="1:8">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>69</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A7" s="12">
+    <row customHeight="1" ht="27" r="7" spans="1:8" thickBot="1">
+      <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>72</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>77</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="13" customWidth="1"/>
-    <col min="6" max="6" width="52.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="13" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="5.5"/>
+    <col customWidth="1" max="2" min="2" style="1" width="22"/>
+    <col customWidth="1" max="3" min="3" style="1" width="16.75"/>
+    <col customWidth="1" max="4" min="4" style="1" width="45"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8"/>
+    <col customWidth="1" max="6" min="6" style="1" width="52.375"/>
+    <col customWidth="1" max="7" min="7" style="1" width="55.25"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="13" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4800,50 +4815,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="10">
+      <c r="I2" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -4852,335 +4867,337 @@
       <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="81" customHeight="1">
-      <c r="A4" s="10">
+      <c r="I3" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="4" spans="1:9">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="5" spans="1:9">
+      <c r="A5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="81" customHeight="1">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1">
-      <c r="A6" s="10">
+      <c r="I5" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:9">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="10">
+      <c r="I6" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="10">
+      <c r="I7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:9">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1">
-      <c r="A9" s="10">
+      <c r="I8" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:9">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="27" customHeight="1">
-      <c r="A10" s="10">
+      <c r="I9" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="10" spans="1:9">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="27" customHeight="1">
-      <c r="A11" s="10">
+      <c r="I10" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:9">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1">
-      <c r="A12" s="10">
+      <c r="I11" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="12" spans="1:9">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A13" s="10">
+      <c r="I12" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="13" spans="1:9">
+      <c r="A13" s="10" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A14" s="33">
+      <c r="I13" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27.75" r="14" spans="1:9" thickBot="1">
+      <c r="A14" s="33" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="23" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="48.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="13" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="5.625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="19.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="38.25"/>
+    <col customWidth="1" max="5" min="5" style="13" width="7.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="48.5"/>
+    <col customWidth="1" max="7" min="7" style="1" width="49.875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="13" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5209,50 +5226,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="10">
+      <c r="I2" s="26" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -5261,378 +5278,382 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A4" s="10">
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="94.5" r="4" spans="1:9">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="94.5" r="5" spans="1:9">
+      <c r="A5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:9">
+      <c r="A6" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" spans="1:9">
+      <c r="A7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:9">
+      <c r="A8" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="9" spans="1:9">
+      <c r="A9" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="10" spans="1:9">
+      <c r="A10" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="11" spans="1:9">
+      <c r="A11" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="12" spans="1:9">
+      <c r="A12" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="13" spans="1:9">
+      <c r="A13" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="14" spans="1:9">
+      <c r="A14" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A15" s="33">
+      <c r="I14" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="15" spans="1:9" thickBot="1">
+      <c r="A15" s="33" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet6">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="13" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
+    <col customWidth="1" max="3" min="3" style="1" width="16.375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="44.375"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="47.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="48.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="13" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5661,50 +5682,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A2" s="10">
+    <row customHeight="1" ht="67.5" r="2" spans="1:9">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A3" s="11">
+      <c r="I2" s="26" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -5713,574 +5734,576 @@
       <c r="H3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="54" customHeight="1">
-      <c r="A4" s="11">
+      <c r="I3" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A5" s="11">
+      <c r="I4" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A6" s="11">
+      <c r="I5" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" ht="54" customHeight="1">
-      <c r="A7" s="11">
+      <c r="I6" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="54" customHeight="1">
-      <c r="A8" s="11">
+      <c r="I7" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="8" spans="1:9">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="54" customHeight="1">
-      <c r="A9" s="11">
+      <c r="I8" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="9" spans="1:9">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="54" customHeight="1">
-      <c r="A10" s="11">
+      <c r="I9" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="10" spans="1:9">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="11" spans="1:9">
+      <c r="A11" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="12" spans="1:9">
+      <c r="A12" s="45" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="47" t="n"/>
+      <c r="H12" s="43" t="n"/>
+      <c r="I12" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="13" spans="1:9">
+      <c r="A13" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="14" spans="1:9">
+      <c r="A14" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="15" spans="1:9">
+      <c r="A15" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="16" spans="1:9">
+      <c r="A16" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="17" spans="1:9">
+      <c r="A17" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="18" spans="1:9">
+      <c r="A18" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="19" spans="1:9">
+      <c r="A19" s="45" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="20" spans="1:9">
+      <c r="A20" s="45" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="21" spans="1:9">
+      <c r="A21" s="45" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="44" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="22" spans="1:9">
+      <c r="A22" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="54" customHeight="1">
-      <c r="A12" s="45">
-        <v>11</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-    </row>
-    <row r="13" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" ht="54" customHeight="1">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" ht="54" customHeight="1">
-      <c r="A19" s="45">
-        <v>18</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="I19" s="44"/>
-    </row>
-    <row r="20" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A20" s="45">
-        <v>19</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="44"/>
-    </row>
-    <row r="21" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A21" s="45">
-        <v>20</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" ht="54" customHeight="1">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A23" s="12">
+      <c r="I22" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="23" spans="1:9" thickBot="1">
+      <c r="A23" s="12" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="21"/>
+      <c r="I23" s="21" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet7">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="69.875" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="44.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="24" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="6"/>
+    <col customWidth="1" max="2" min="2" width="20.125"/>
+    <col customWidth="1" max="3" min="3" width="14.25"/>
+    <col customWidth="1" max="4" min="4" width="69.875"/>
+    <col customWidth="1" max="5" min="5" style="24" width="7.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="44.375"/>
+    <col customWidth="1" max="7" min="7" style="1" width="47.5"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="8.5"/>
+    <col customWidth="1" max="9" min="9" style="24" width="13.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="1" spans="1:9">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -6309,50 +6332,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A2" s="11">
+    <row customHeight="1" ht="67.5" r="2" spans="1:9">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" customHeight="1">
-      <c r="A3" s="11">
+      <c r="I2" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:9">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -6361,1249 +6384,1248 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A4" s="11">
+      <c r="I3" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="4" spans="1:9">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="54" customHeight="1">
-      <c r="A5" s="11">
+      <c r="I4" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="5" spans="1:9">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A6" s="11">
+      <c r="I5" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="6" spans="1:9">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="54" customHeight="1">
-      <c r="A7" s="11">
+      <c r="I6" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="7" spans="1:9">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="54" customHeight="1">
-      <c r="A8" s="11">
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="54" r="8" spans="1:9">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>195</v>
+        <v>1